--- a/src/mesbg_options.xlsx
+++ b/src/mesbg_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C8870B-BC18-40B8-95DB-3DC9E47C10C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9CFACF-6F56-4AC2-A51B-1BD7DCB87696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0E6438-1EB7-4493-91C9-83873EACB085}"/>
   </bookViews>
@@ -1497,12 +1497,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1819,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}">
   <dimension ref="A1:H275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="I232" sqref="I232"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,10 +1851,10 @@
       <c r="F1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>461</v>
       </c>
     </row>
@@ -2012,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4118,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">

--- a/src/mesbg_options.xlsx
+++ b/src/mesbg_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9CFACF-6F56-4AC2-A51B-1BD7DCB87696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF178789-835C-40C0-A828-0EE78D0A6AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0E6438-1EB7-4493-91C9-83873EACB085}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="469">
   <si>
     <t>faction</t>
   </si>
@@ -1422,6 +1422,27 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>Anduril Flame of the West - FREE</t>
+  </si>
+  <si>
+    <t>Black Dragon Upgrade - FREE</t>
+  </si>
+  <si>
+    <t>Marauder Upgrade - FREE</t>
+  </si>
+  <si>
+    <t>OPT0275</t>
+  </si>
+  <si>
+    <t>OPT0276</t>
+  </si>
+  <si>
+    <t>OPT0277</t>
+  </si>
+  <si>
+    <t>OPT0278</t>
   </si>
 </sst>
 </file>
@@ -1816,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}">
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2516,13 +2537,13 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>463</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2542,13 +2563,13 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -2571,10 +2592,10 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -2597,7 +2618,7 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2623,13 +2644,13 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2649,13 +2670,13 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2669,16 +2690,16 @@
         <v>216</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E33">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2695,16 +2716,16 @@
         <v>217</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>463</v>
       </c>
       <c r="E34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2727,10 +2748,10 @@
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2753,10 +2774,10 @@
         <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2776,13 +2797,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2802,13 +2823,13 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
         <v>38</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2825,16 +2846,16 @@
         <v>222</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -2851,16 +2872,16 @@
         <v>223</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2880,13 +2901,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2906,10 +2927,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2932,13 +2953,13 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -2958,13 +2979,13 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2984,13 +3005,13 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -3010,13 +3031,13 @@
         <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -3036,7 +3057,7 @@
         <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -3065,7 +3086,7 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -3088,13 +3109,13 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -3114,13 +3135,13 @@
         <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -3143,13 +3164,13 @@
         <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3169,7 +3190,7 @@
         <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3192,16 +3213,16 @@
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E53">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3218,16 +3239,16 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -3244,13 +3265,13 @@
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>464</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3273,10 +3294,10 @@
         <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3293,19 +3314,19 @@
         <v>240</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3319,16 +3340,16 @@
         <v>241</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -3345,16 +3366,16 @@
         <v>242</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -3374,13 +3395,13 @@
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E60">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -3400,10 +3421,10 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -3426,7 +3447,7 @@
         <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -3452,13 +3473,13 @@
         <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E63">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3478,16 +3499,16 @@
         <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
         <v>62</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3504,13 +3525,13 @@
         <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3530,13 +3551,13 @@
         <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3556,16 +3577,16 @@
         <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E67">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3582,16 +3603,16 @@
         <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3611,10 +3632,10 @@
         <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3637,10 +3658,10 @@
         <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3660,16 +3681,16 @@
         <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E71">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3686,13 +3707,13 @@
         <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E72">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3712,13 +3733,13 @@
         <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3738,13 +3759,13 @@
         <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3764,13 +3785,13 @@
         <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3790,13 +3811,13 @@
         <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3816,7 +3837,7 @@
         <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D77" t="s">
         <v>62</v>
@@ -3842,10 +3863,10 @@
         <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -3868,10 +3889,10 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D79" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -3894,13 +3915,13 @@
         <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E80">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3920,16 +3941,16 @@
         <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3946,13 +3967,13 @@
         <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -3975,10 +3996,10 @@
         <v>75</v>
       </c>
       <c r="D83" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -4001,13 +4022,13 @@
         <v>75</v>
       </c>
       <c r="D84" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4021,16 +4042,16 @@
         <v>268</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E85">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -4047,16 +4068,16 @@
         <v>269</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D86" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E86">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -4073,16 +4094,16 @@
         <v>270</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D87" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -4102,13 +4123,13 @@
         <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E88">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -4117,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -4128,13 +4149,13 @@
         <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -4154,13 +4175,13 @@
         <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E90">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -4180,13 +4201,13 @@
         <v>77</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -4195,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -4206,10 +4227,10 @@
         <v>77</v>
       </c>
       <c r="C92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E92">
         <v>5</v>
@@ -4235,10 +4256,10 @@
         <v>83</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -4258,7 +4279,7 @@
         <v>77</v>
       </c>
       <c r="C94" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D94" t="s">
         <v>42</v>
@@ -4284,10 +4305,10 @@
         <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -4310,10 +4331,10 @@
         <v>77</v>
       </c>
       <c r="C96" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D96" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E96">
         <v>5</v>
@@ -4339,10 +4360,10 @@
         <v>85</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -4362,13 +4383,13 @@
         <v>77</v>
       </c>
       <c r="C98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -4388,16 +4409,16 @@
         <v>77</v>
       </c>
       <c r="C99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D99" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4414,13 +4435,13 @@
         <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E100">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -4440,13 +4461,13 @@
         <v>77</v>
       </c>
       <c r="C101" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D101" t="s">
         <v>42</v>
       </c>
       <c r="E101">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -4466,16 +4487,16 @@
         <v>77</v>
       </c>
       <c r="C102" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4495,10 +4516,10 @@
         <v>88</v>
       </c>
       <c r="D103" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
@@ -4521,10 +4542,10 @@
         <v>88</v>
       </c>
       <c r="D104" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
@@ -4547,7 +4568,7 @@
         <v>88</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -4570,13 +4591,13 @@
         <v>77</v>
       </c>
       <c r="C106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D106" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E106">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -4596,13 +4617,13 @@
         <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D107" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E107">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -4622,13 +4643,13 @@
         <v>77</v>
       </c>
       <c r="C108" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -4648,13 +4669,13 @@
         <v>77</v>
       </c>
       <c r="C109" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D109" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E109">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -4674,10 +4695,10 @@
         <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E110">
         <v>25</v>
@@ -4700,7 +4721,7 @@
         <v>77</v>
       </c>
       <c r="C111" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -4726,16 +4747,16 @@
         <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4752,13 +4773,13 @@
         <v>77</v>
       </c>
       <c r="C113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -4778,10 +4799,10 @@
         <v>77</v>
       </c>
       <c r="C114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -4804,16 +4825,16 @@
         <v>77</v>
       </c>
       <c r="C115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D115" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4830,10 +4851,10 @@
         <v>77</v>
       </c>
       <c r="C116" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -4856,13 +4877,13 @@
         <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E117">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -4882,13 +4903,13 @@
         <v>77</v>
       </c>
       <c r="C118" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D118" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E118">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
@@ -4908,16 +4929,16 @@
         <v>77</v>
       </c>
       <c r="C119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4937,10 +4958,10 @@
         <v>98</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -4963,10 +4984,10 @@
         <v>98</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -4983,19 +5004,19 @@
         <v>305</v>
       </c>
       <c r="B122" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D122" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="E122">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -5009,16 +5030,16 @@
         <v>306</v>
       </c>
       <c r="B123" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C123" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D123" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
@@ -5035,16 +5056,16 @@
         <v>307</v>
       </c>
       <c r="B124" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D124" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="E124">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -5067,10 +5088,10 @@
         <v>100</v>
       </c>
       <c r="D125" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E125">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
@@ -5093,10 +5114,10 @@
         <v>100</v>
       </c>
       <c r="D126" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="E126">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
@@ -5119,10 +5140,10 @@
         <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="E127">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
@@ -5139,16 +5160,16 @@
         <v>311</v>
       </c>
       <c r="B128" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E128">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -5165,13 +5186,13 @@
         <v>312</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C129" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E129">
         <v>10</v>
@@ -5191,13 +5212,13 @@
         <v>313</v>
       </c>
       <c r="B130" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C130" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E130">
         <v>5</v>
@@ -5220,13 +5241,13 @@
         <v>104</v>
       </c>
       <c r="C131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D131" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E131">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
@@ -5246,13 +5267,13 @@
         <v>104</v>
       </c>
       <c r="C132" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E132">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
@@ -5272,13 +5293,13 @@
         <v>104</v>
       </c>
       <c r="C133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E133">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
@@ -5298,10 +5319,10 @@
         <v>104</v>
       </c>
       <c r="C134" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E134">
         <v>5</v>
@@ -5324,13 +5345,13 @@
         <v>104</v>
       </c>
       <c r="C135" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D135" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E135">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
@@ -5350,13 +5371,13 @@
         <v>104</v>
       </c>
       <c r="C136" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
@@ -5376,7 +5397,7 @@
         <v>104</v>
       </c>
       <c r="C137" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
@@ -5402,13 +5423,13 @@
         <v>104</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D138" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="E138">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -5428,13 +5449,13 @@
         <v>104</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D139" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E139">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
@@ -5454,13 +5475,13 @@
         <v>104</v>
       </c>
       <c r="C140" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E140">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
@@ -5483,10 +5504,10 @@
         <v>111</v>
       </c>
       <c r="D141" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E141">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
@@ -5506,13 +5527,13 @@
         <v>104</v>
       </c>
       <c r="C142" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -5532,13 +5553,13 @@
         <v>104</v>
       </c>
       <c r="C143" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D143" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
@@ -5558,13 +5579,13 @@
         <v>104</v>
       </c>
       <c r="C144" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D144" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E144">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
@@ -5584,13 +5605,13 @@
         <v>104</v>
       </c>
       <c r="C145" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
@@ -5610,13 +5631,13 @@
         <v>104</v>
       </c>
       <c r="C146" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
@@ -5636,13 +5657,13 @@
         <v>104</v>
       </c>
       <c r="C147" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D147" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="E147">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -5662,13 +5683,13 @@
         <v>104</v>
       </c>
       <c r="C148" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D148" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="E148">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
@@ -5688,13 +5709,13 @@
         <v>104</v>
       </c>
       <c r="C149" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -5714,13 +5735,13 @@
         <v>104</v>
       </c>
       <c r="C150" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D150" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
@@ -5740,13 +5761,13 @@
         <v>104</v>
       </c>
       <c r="C151" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D151" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E151">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
@@ -5766,13 +5787,13 @@
         <v>104</v>
       </c>
       <c r="C152" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D152" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -5792,13 +5813,13 @@
         <v>104</v>
       </c>
       <c r="C153" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
@@ -5821,10 +5842,10 @@
         <v>120</v>
       </c>
       <c r="D154" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
@@ -5844,13 +5865,13 @@
         <v>104</v>
       </c>
       <c r="C155" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="E155">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
@@ -5870,13 +5891,13 @@
         <v>104</v>
       </c>
       <c r="C156" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E156">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F156" t="b">
         <v>0</v>
@@ -5896,13 +5917,13 @@
         <v>104</v>
       </c>
       <c r="C157" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D157" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="E157">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
@@ -5922,13 +5943,13 @@
         <v>104</v>
       </c>
       <c r="C158" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="E158">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F158" t="b">
         <v>0</v>
@@ -5948,13 +5969,13 @@
         <v>104</v>
       </c>
       <c r="C159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
@@ -5974,7 +5995,7 @@
         <v>104</v>
       </c>
       <c r="C160" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D160" t="s">
         <v>49</v>
@@ -6000,13 +6021,13 @@
         <v>104</v>
       </c>
       <c r="C161" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D161" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E161">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -6026,16 +6047,16 @@
         <v>104</v>
       </c>
       <c r="C162" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D162" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -6052,13 +6073,13 @@
         <v>104</v>
       </c>
       <c r="C163" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -6081,10 +6102,10 @@
         <v>125</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
@@ -6107,13 +6128,13 @@
         <v>125</v>
       </c>
       <c r="D165" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
       <c r="F165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -6130,13 +6151,13 @@
         <v>104</v>
       </c>
       <c r="C166" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D166" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="E166">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F166" t="b">
         <v>0</v>
@@ -6156,13 +6177,13 @@
         <v>104</v>
       </c>
       <c r="C167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D167" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="E167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -6182,13 +6203,13 @@
         <v>104</v>
       </c>
       <c r="C168" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D168" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="E168">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F168" t="b">
         <v>0</v>
@@ -6208,13 +6229,13 @@
         <v>104</v>
       </c>
       <c r="C169" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D169" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E169">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F169" t="b">
         <v>0</v>
@@ -6234,13 +6255,13 @@
         <v>104</v>
       </c>
       <c r="C170" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D170" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E170">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F170" t="b">
         <v>0</v>
@@ -6260,7 +6281,7 @@
         <v>104</v>
       </c>
       <c r="C171" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D171" t="s">
         <v>112</v>
@@ -6286,7 +6307,7 @@
         <v>104</v>
       </c>
       <c r="C172" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D172" t="s">
         <v>113</v>
@@ -6312,13 +6333,13 @@
         <v>104</v>
       </c>
       <c r="C173" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D173" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E173">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F173" t="b">
         <v>0</v>
@@ -6341,10 +6362,10 @@
         <v>129</v>
       </c>
       <c r="D174" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E174">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F174" t="b">
         <v>0</v>
@@ -6364,13 +6385,13 @@
         <v>104</v>
       </c>
       <c r="C175" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D175" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E175">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -6390,13 +6411,13 @@
         <v>104</v>
       </c>
       <c r="C176" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D176" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E176">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
@@ -6416,7 +6437,7 @@
         <v>104</v>
       </c>
       <c r="C177" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D177" t="s">
         <v>42</v>
@@ -6442,7 +6463,7 @@
         <v>104</v>
       </c>
       <c r="C178" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D178" t="s">
         <v>112</v>
@@ -6468,7 +6489,7 @@
         <v>104</v>
       </c>
       <c r="C179" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D179" t="s">
         <v>113</v>
@@ -6494,7 +6515,7 @@
         <v>104</v>
       </c>
       <c r="C180" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D180" t="s">
         <v>42</v>
@@ -6520,7 +6541,7 @@
         <v>104</v>
       </c>
       <c r="C181" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D181" t="s">
         <v>112</v>
@@ -6546,7 +6567,7 @@
         <v>104</v>
       </c>
       <c r="C182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D182" t="s">
         <v>113</v>
@@ -6572,7 +6593,7 @@
         <v>104</v>
       </c>
       <c r="C183" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D183" t="s">
         <v>42</v>
@@ -6598,13 +6619,13 @@
         <v>104</v>
       </c>
       <c r="C184" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D184" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="E184">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
@@ -6624,16 +6645,16 @@
         <v>104</v>
       </c>
       <c r="C185" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D185" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -6650,13 +6671,13 @@
         <v>104</v>
       </c>
       <c r="C186" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
@@ -6679,10 +6700,10 @@
         <v>133</v>
       </c>
       <c r="D187" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -6702,16 +6723,16 @@
         <v>104</v>
       </c>
       <c r="C188" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D188" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E188">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -6728,13 +6749,13 @@
         <v>104</v>
       </c>
       <c r="C189" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D189" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E189">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
@@ -6754,13 +6775,13 @@
         <v>104</v>
       </c>
       <c r="C190" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D190" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E190">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
@@ -6783,10 +6804,10 @@
         <v>135</v>
       </c>
       <c r="D191" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="E191">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -6809,10 +6830,10 @@
         <v>135</v>
       </c>
       <c r="D192" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="E192">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
@@ -6835,10 +6856,10 @@
         <v>135</v>
       </c>
       <c r="D193" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E193">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
@@ -6861,10 +6882,10 @@
         <v>135</v>
       </c>
       <c r="D194" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="E194">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -6887,10 +6908,10 @@
         <v>135</v>
       </c>
       <c r="D195" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="E195">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -6899,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -6913,19 +6934,19 @@
         <v>135</v>
       </c>
       <c r="D196" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E196">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -6939,7 +6960,7 @@
         <v>135</v>
       </c>
       <c r="D197" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E197">
         <v>5</v>
@@ -6951,24 +6972,24 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>142</v>
+      <c r="B198" t="s">
+        <v>104</v>
       </c>
       <c r="C198" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D198" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E198">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
@@ -6977,47 +6998,47 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>142</v>
+      <c r="B199" t="s">
+        <v>104</v>
       </c>
       <c r="C199" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D199" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="E199">
+        <v>5</v>
+      </c>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+      <c r="G199">
         <v>10</v>
       </c>
-      <c r="F199" t="b">
-        <v>0</v>
-      </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
       <c r="H199">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>142</v>
+      <c r="B200" t="s">
+        <v>104</v>
       </c>
       <c r="C200" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D200" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E200">
         <v>5</v>
@@ -7029,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -7040,13 +7061,13 @@
         <v>142</v>
       </c>
       <c r="C201" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D201" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E201">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -7066,10 +7087,10 @@
         <v>142</v>
       </c>
       <c r="C202" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D202" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E202">
         <v>10</v>
@@ -7092,13 +7113,13 @@
         <v>142</v>
       </c>
       <c r="C203" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D203" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="E203">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -7121,10 +7142,10 @@
         <v>145</v>
       </c>
       <c r="D204" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E204">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
@@ -7144,7 +7165,7 @@
         <v>142</v>
       </c>
       <c r="C205" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D205" t="s">
         <v>59</v>
@@ -7170,10 +7191,10 @@
         <v>142</v>
       </c>
       <c r="C206" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D206" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="E206">
         <v>10</v>
@@ -7196,13 +7217,13 @@
         <v>142</v>
       </c>
       <c r="C207" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D207" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E207">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F207" t="b">
         <v>0</v>
@@ -7222,10 +7243,10 @@
         <v>142</v>
       </c>
       <c r="C208" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D208" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="E208">
         <v>10</v>
@@ -7248,7 +7269,7 @@
         <v>142</v>
       </c>
       <c r="C209" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D209" t="s">
         <v>42</v>
@@ -7274,13 +7295,13 @@
         <v>142</v>
       </c>
       <c r="C210" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D210" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="E210">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
@@ -7300,13 +7321,13 @@
         <v>142</v>
       </c>
       <c r="C211" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D211" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="E211">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
@@ -7329,10 +7350,10 @@
         <v>152</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E212">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
@@ -7352,13 +7373,13 @@
         <v>142</v>
       </c>
       <c r="C213" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D213" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E213">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -7378,13 +7399,13 @@
         <v>142</v>
       </c>
       <c r="C214" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E214">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
@@ -7404,16 +7425,16 @@
         <v>142</v>
       </c>
       <c r="C215" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D215" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -7433,10 +7454,10 @@
         <v>153</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
@@ -7459,10 +7480,10 @@
         <v>153</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F217" t="b">
         <v>0</v>
@@ -7479,19 +7500,19 @@
         <v>401</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C218" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D218" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="E218">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -7505,16 +7526,16 @@
         <v>402</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C219" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D219" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F219" t="b">
         <v>0</v>
@@ -7531,16 +7552,16 @@
         <v>403</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C220" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D220" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E220">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F220" t="b">
         <v>0</v>
@@ -7560,10 +7581,10 @@
         <v>154</v>
       </c>
       <c r="C221" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D221" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="E221">
         <v>5</v>
@@ -7589,10 +7610,10 @@
         <v>156</v>
       </c>
       <c r="D222" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="E222">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F222" t="b">
         <v>0</v>
@@ -7612,7 +7633,7 @@
         <v>154</v>
       </c>
       <c r="C223" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D223" t="s">
         <v>42</v>
@@ -7638,10 +7659,10 @@
         <v>154</v>
       </c>
       <c r="C224" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D224" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="E224">
         <v>5</v>
@@ -7664,10 +7685,10 @@
         <v>154</v>
       </c>
       <c r="C225" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="E225">
         <v>5</v>
@@ -7693,10 +7714,10 @@
         <v>157</v>
       </c>
       <c r="D226" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="E226">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F226" t="b">
         <v>0</v>
@@ -7716,13 +7737,13 @@
         <v>154</v>
       </c>
       <c r="C227" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D227" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E227">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F227" t="b">
         <v>0</v>
@@ -7742,13 +7763,13 @@
         <v>154</v>
       </c>
       <c r="C228" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D228" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E228">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F228" t="b">
         <v>0</v>
@@ -7768,13 +7789,13 @@
         <v>154</v>
       </c>
       <c r="C229" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D229" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E229">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -7794,13 +7815,13 @@
         <v>154</v>
       </c>
       <c r="C230" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E230">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F230" t="b">
         <v>0</v>
@@ -7820,13 +7841,13 @@
         <v>154</v>
       </c>
       <c r="C231" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D231" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E231">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F231" t="b">
         <v>0</v>
@@ -7846,13 +7867,13 @@
         <v>154</v>
       </c>
       <c r="C232" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D232" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="E232">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F232" t="b">
         <v>0</v>
@@ -7872,7 +7893,7 @@
         <v>154</v>
       </c>
       <c r="C233" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
@@ -7898,13 +7919,13 @@
         <v>154</v>
       </c>
       <c r="C234" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D234" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E234">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
@@ -7924,13 +7945,13 @@
         <v>154</v>
       </c>
       <c r="C235" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D235" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="E235">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F235" t="b">
         <v>0</v>
@@ -7950,13 +7971,13 @@
         <v>154</v>
       </c>
       <c r="C236" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D236" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="E236">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F236" t="b">
         <v>0</v>
@@ -7976,13 +7997,13 @@
         <v>154</v>
       </c>
       <c r="C237" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D237" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E237">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
@@ -8002,13 +8023,13 @@
         <v>154</v>
       </c>
       <c r="C238" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D238" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E238">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F238" t="b">
         <v>0</v>
@@ -8028,7 +8049,7 @@
         <v>154</v>
       </c>
       <c r="C239" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D239" t="s">
         <v>134</v>
@@ -8054,13 +8075,13 @@
         <v>154</v>
       </c>
       <c r="C240" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240">
         <v>25</v>
-      </c>
-      <c r="E240">
-        <v>15</v>
       </c>
       <c r="F240" t="b">
         <v>0</v>
@@ -8080,13 +8101,13 @@
         <v>154</v>
       </c>
       <c r="C241" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D241" t="s">
         <v>42</v>
       </c>
       <c r="E241">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F241" t="b">
         <v>0</v>
@@ -8106,13 +8127,13 @@
         <v>154</v>
       </c>
       <c r="C242" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D242" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="E242">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F242" t="b">
         <v>0</v>
@@ -8135,10 +8156,10 @@
         <v>166</v>
       </c>
       <c r="D243" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E243">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F243" t="b">
         <v>0</v>
@@ -8158,13 +8179,13 @@
         <v>154</v>
       </c>
       <c r="C244" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D244" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E244">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F244" t="b">
         <v>0</v>
@@ -8184,13 +8205,13 @@
         <v>154</v>
       </c>
       <c r="C245" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D245" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E245">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F245" t="b">
         <v>0</v>
@@ -8210,13 +8231,13 @@
         <v>154</v>
       </c>
       <c r="C246" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D246" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="E246">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F246" t="b">
         <v>0</v>
@@ -8239,10 +8260,10 @@
         <v>167</v>
       </c>
       <c r="D247" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F247" t="b">
         <v>0</v>
@@ -8265,13 +8286,13 @@
         <v>167</v>
       </c>
       <c r="D248" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -8285,16 +8306,16 @@
         <v>432</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C249" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D249" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E249">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
@@ -8311,16 +8332,16 @@
         <v>433</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C250" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D250" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="E250">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F250" t="b">
         <v>0</v>
@@ -8337,19 +8358,19 @@
         <v>434</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C251" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D251" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E251">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -8366,13 +8387,13 @@
         <v>168</v>
       </c>
       <c r="C252" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D252" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="E252">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F252" t="b">
         <v>0</v>
@@ -8392,10 +8413,10 @@
         <v>168</v>
       </c>
       <c r="C253" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D253" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E253">
         <v>5</v>
@@ -8418,13 +8439,13 @@
         <v>168</v>
       </c>
       <c r="C254" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D254" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E254">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F254" t="b">
         <v>0</v>
@@ -8444,16 +8465,16 @@
         <v>168</v>
       </c>
       <c r="C255" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D255" t="s">
         <v>170</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -8470,13 +8491,13 @@
         <v>168</v>
       </c>
       <c r="C256" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D256" t="s">
         <v>172</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F256" t="b">
         <v>0</v>
@@ -8496,13 +8517,13 @@
         <v>168</v>
       </c>
       <c r="C257" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D257" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E257">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F257" t="b">
         <v>0</v>
@@ -8522,16 +8543,16 @@
         <v>168</v>
       </c>
       <c r="C258" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D258" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="E258">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -8548,16 +8569,16 @@
         <v>168</v>
       </c>
       <c r="C259" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D259" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E259">
         <v>1</v>
       </c>
       <c r="F259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -8577,10 +8598,10 @@
         <v>174</v>
       </c>
       <c r="D260" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F260" t="b">
         <v>0</v>
@@ -8600,13 +8621,13 @@
         <v>168</v>
       </c>
       <c r="C261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D261" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E261">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F261" t="b">
         <v>0</v>
@@ -8626,16 +8647,16 @@
         <v>168</v>
       </c>
       <c r="C262" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D262" t="s">
         <v>170</v>
       </c>
       <c r="E262">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -8652,13 +8673,13 @@
         <v>168</v>
       </c>
       <c r="C263" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D263" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E263">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F263" t="b">
         <v>0</v>
@@ -8678,13 +8699,13 @@
         <v>168</v>
       </c>
       <c r="C264" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D264" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="E264">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F264" t="b">
         <v>0</v>
@@ -8704,16 +8725,16 @@
         <v>168</v>
       </c>
       <c r="C265" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D265" t="s">
         <v>170</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -8730,13 +8751,13 @@
         <v>168</v>
       </c>
       <c r="C266" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D266" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F266" t="b">
         <v>0</v>
@@ -8752,17 +8773,17 @@
       <c r="A267" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B267" t="s">
-        <v>179</v>
+      <c r="B267" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C267" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D267" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E267">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F267" t="b">
         <v>0</v>
@@ -8778,20 +8799,20 @@
       <c r="A268" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B268" t="s">
-        <v>179</v>
+      <c r="B268" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C268" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D268" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="E268">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -8804,17 +8825,17 @@
       <c r="A269" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B269" t="s">
-        <v>179</v>
+      <c r="B269" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C269" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D269" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E269">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F269" t="b">
         <v>0</v>
@@ -8837,10 +8858,10 @@
         <v>180</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="E270">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F270" t="b">
         <v>0</v>
@@ -8863,10 +8884,10 @@
         <v>180</v>
       </c>
       <c r="D271" t="s">
-        <v>70</v>
+        <v>462</v>
       </c>
       <c r="E271">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F271" t="b">
         <v>0</v>
@@ -8886,7 +8907,7 @@
         <v>179</v>
       </c>
       <c r="C272" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D272" t="s">
         <v>42</v>
@@ -8912,7 +8933,7 @@
         <v>179</v>
       </c>
       <c r="C273" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D273" t="s">
         <v>158</v>
@@ -8938,10 +8959,10 @@
         <v>179</v>
       </c>
       <c r="C274" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D274" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E274">
         <v>5</v>
@@ -8964,7 +8985,7 @@
         <v>179</v>
       </c>
       <c r="C275" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D275" t="s">
         <v>70</v>
@@ -8979,6 +9000,110 @@
         <v>0</v>
       </c>
       <c r="H275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B276" t="s">
+        <v>179</v>
+      </c>
+      <c r="C276" t="s">
+        <v>182</v>
+      </c>
+      <c r="D276" t="s">
+        <v>42</v>
+      </c>
+      <c r="E276">
+        <v>10</v>
+      </c>
+      <c r="F276" t="b">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B277" t="s">
+        <v>179</v>
+      </c>
+      <c r="C277" t="s">
+        <v>182</v>
+      </c>
+      <c r="D277" t="s">
+        <v>158</v>
+      </c>
+      <c r="E277">
+        <v>5</v>
+      </c>
+      <c r="F277" t="b">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B278" t="s">
+        <v>179</v>
+      </c>
+      <c r="C278" t="s">
+        <v>182</v>
+      </c>
+      <c r="D278" t="s">
+        <v>70</v>
+      </c>
+      <c r="E278">
+        <v>5</v>
+      </c>
+      <c r="F278" t="b">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B279" t="s">
+        <v>179</v>
+      </c>
+      <c r="C279" t="s">
+        <v>183</v>
+      </c>
+      <c r="D279" t="s">
+        <v>70</v>
+      </c>
+      <c r="E279">
+        <v>5</v>
+      </c>
+      <c r="F279" t="b">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
         <v>1</v>
       </c>
     </row>

--- a/src/mesbg_options.xlsx
+++ b/src/mesbg_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF178789-835C-40C0-A828-0EE78D0A6AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3440B9-48DE-4FBD-B0BF-4B8E65ED6CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0E6438-1EB7-4493-91C9-83873EACB085}"/>
   </bookViews>
@@ -1839,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}">
   <dimension ref="A1:H279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">

--- a/src/mesbg_options.xlsx
+++ b/src/mesbg_options.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3440B9-48DE-4FBD-B0BF-4B8E65ED6CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4490DF99-75C9-4F62-911D-F3E58F2998C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0E6438-1EB7-4493-91C9-83873EACB085}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C0E6438-1EB7-4493-91C9-83873EACB085}"/>
   </bookViews>
   <sheets>
     <sheet name="options" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="532">
   <si>
     <t>faction</t>
   </si>
@@ -1443,6 +1443,195 @@
   </si>
   <si>
     <t>OPT0278</t>
+  </si>
+  <si>
+    <t>Boromir of Gondor</t>
+  </si>
+  <si>
+    <t>Captain of Rohan</t>
+  </si>
+  <si>
+    <t>Deorwine</t>
+  </si>
+  <si>
+    <t>Elfhelm</t>
+  </si>
+  <si>
+    <t>Erkenbrand</t>
+  </si>
+  <si>
+    <t>Frodo Baggins</t>
+  </si>
+  <si>
+    <t>Mithril Coat</t>
+  </si>
+  <si>
+    <t>Sting</t>
+  </si>
+  <si>
+    <t>Gandalf the Grey</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Gondor Battlecry Trebuchet</t>
+  </si>
+  <si>
+    <t>Flaming Ammunition</t>
+  </si>
+  <si>
+    <t>Helm Hammerhand</t>
+  </si>
+  <si>
+    <t>King of Men</t>
+  </si>
+  <si>
+    <t>Meriadoc Brandybuck</t>
+  </si>
+  <si>
+    <t>Mouth of Sauron</t>
+  </si>
+  <si>
+    <t>Peregrin Took</t>
+  </si>
+  <si>
+    <t>Rohan Outrider</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>The Dwimmerlaik</t>
+  </si>
+  <si>
+    <t>The Tainted</t>
+  </si>
+  <si>
+    <t>Theodred</t>
+  </si>
+  <si>
+    <t>OPT0279</t>
+  </si>
+  <si>
+    <t>OPT0280</t>
+  </si>
+  <si>
+    <t>OPT0281</t>
+  </si>
+  <si>
+    <t>OPT0282</t>
+  </si>
+  <si>
+    <t>OPT0283</t>
+  </si>
+  <si>
+    <t>OPT0284</t>
+  </si>
+  <si>
+    <t>OPT0285</t>
+  </si>
+  <si>
+    <t>OPT0286</t>
+  </si>
+  <si>
+    <t>OPT0287</t>
+  </si>
+  <si>
+    <t>OPT0288</t>
+  </si>
+  <si>
+    <t>OPT0289</t>
+  </si>
+  <si>
+    <t>OPT0290</t>
+  </si>
+  <si>
+    <t>OPT0291</t>
+  </si>
+  <si>
+    <t>OPT0292</t>
+  </si>
+  <si>
+    <t>OPT0293</t>
+  </si>
+  <si>
+    <t>OPT0294</t>
+  </si>
+  <si>
+    <t>OPT0295</t>
+  </si>
+  <si>
+    <t>OPT0296</t>
+  </si>
+  <si>
+    <t>OPT0297</t>
+  </si>
+  <si>
+    <t>OPT0298</t>
+  </si>
+  <si>
+    <t>OPT0299</t>
+  </si>
+  <si>
+    <t>OPT0300</t>
+  </si>
+  <si>
+    <t>OPT0301</t>
+  </si>
+  <si>
+    <t>OPT0302</t>
+  </si>
+  <si>
+    <t>OPT0303</t>
+  </si>
+  <si>
+    <t>OPT0304</t>
+  </si>
+  <si>
+    <t>OPT0305</t>
+  </si>
+  <si>
+    <t>OPT0306</t>
+  </si>
+  <si>
+    <t>OPT0307</t>
+  </si>
+  <si>
+    <t>OPT0308</t>
+  </si>
+  <si>
+    <t>OPT0309</t>
+  </si>
+  <si>
+    <t>OPT0310</t>
+  </si>
+  <si>
+    <t>OPT0311</t>
+  </si>
+  <si>
+    <t>OPT0312</t>
+  </si>
+  <si>
+    <t>OPT0313</t>
+  </si>
+  <si>
+    <t>OPT0314</t>
+  </si>
+  <si>
+    <t>OPT0315</t>
+  </si>
+  <si>
+    <t>OPT0316</t>
+  </si>
+  <si>
+    <t>OPT0317</t>
+  </si>
+  <si>
+    <t>OPT0318</t>
+  </si>
+  <si>
+    <t>OPT0319</t>
   </si>
 </sst>
 </file>
@@ -1837,23 +2026,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}">
-  <dimension ref="A1:H279"/>
+  <dimension ref="A1:H320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>184</v>
       </c>
@@ -1879,7 +2068,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>185</v>
       </c>
@@ -1905,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>186</v>
       </c>
@@ -1931,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>187</v>
       </c>
@@ -1957,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>188</v>
       </c>
@@ -1983,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>189</v>
       </c>
@@ -2009,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>190</v>
       </c>
@@ -2035,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>191</v>
       </c>
@@ -2061,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>192</v>
       </c>
@@ -2087,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>193</v>
       </c>
@@ -2113,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>194</v>
       </c>
@@ -2139,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>195</v>
       </c>
@@ -2165,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>196</v>
       </c>
@@ -2191,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>197</v>
       </c>
@@ -2217,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>198</v>
       </c>
@@ -2243,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>199</v>
       </c>
@@ -2269,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>200</v>
       </c>
@@ -2295,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>201</v>
       </c>
@@ -2321,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>202</v>
       </c>
@@ -2347,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>203</v>
       </c>
@@ -2373,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>204</v>
       </c>
@@ -2399,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>205</v>
       </c>
@@ -2425,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>206</v>
       </c>
@@ -2451,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>207</v>
       </c>
@@ -2477,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>208</v>
       </c>
@@ -2503,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>209</v>
       </c>
@@ -2529,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>210</v>
       </c>
@@ -2555,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>211</v>
       </c>
@@ -2581,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>212</v>
       </c>
@@ -2607,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>213</v>
       </c>
@@ -2633,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>214</v>
       </c>
@@ -2659,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>215</v>
       </c>
@@ -2685,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>216</v>
       </c>
@@ -2711,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>217</v>
       </c>
@@ -2737,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>218</v>
       </c>
@@ -2763,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>219</v>
       </c>
@@ -2789,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>220</v>
       </c>
@@ -2815,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>221</v>
       </c>
@@ -2841,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>222</v>
       </c>
@@ -2867,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>223</v>
       </c>
@@ -2893,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>224</v>
       </c>
@@ -2919,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>225</v>
       </c>
@@ -2945,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>226</v>
       </c>
@@ -2971,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>227</v>
       </c>
@@ -2997,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>228</v>
       </c>
@@ -3023,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>229</v>
       </c>
@@ -3049,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>230</v>
       </c>
@@ -3075,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>231</v>
       </c>
@@ -3083,13 +3272,13 @@
         <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -3101,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>232</v>
       </c>
@@ -3109,13 +3298,13 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -3127,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>233</v>
       </c>
@@ -3135,16 +3324,16 @@
         <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3153,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>234</v>
       </c>
@@ -3164,10 +3353,10 @@
         <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E51">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3179,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>235</v>
       </c>
@@ -3190,10 +3379,10 @@
         <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>464</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3205,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>236</v>
       </c>
@@ -3213,16 +3402,16 @@
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
         <v>51</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3231,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>237</v>
       </c>
@@ -3239,13 +3428,13 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3257,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>238</v>
       </c>
@@ -3265,13 +3454,13 @@
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>464</v>
+        <v>52</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3283,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>239</v>
       </c>
@@ -3309,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>240</v>
       </c>
@@ -3335,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>241</v>
       </c>
@@ -3361,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>242</v>
       </c>
@@ -3387,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>243</v>
       </c>
@@ -3413,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>244</v>
       </c>
@@ -3439,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>245</v>
       </c>
@@ -3465,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>246</v>
       </c>
@@ -3491,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>247</v>
       </c>
@@ -3517,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>248</v>
       </c>
@@ -3543,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>249</v>
       </c>
@@ -3569,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>250</v>
       </c>
@@ -3595,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>251</v>
       </c>
@@ -3621,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>252</v>
       </c>
@@ -3647,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>253</v>
       </c>
@@ -3673,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>254</v>
       </c>
@@ -3699,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>255</v>
       </c>
@@ -3725,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>256</v>
       </c>
@@ -3751,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>257</v>
       </c>
@@ -3777,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>258</v>
       </c>
@@ -3803,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>259</v>
       </c>
@@ -3829,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>260</v>
       </c>
@@ -3855,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>261</v>
       </c>
@@ -3881,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>262</v>
       </c>
@@ -3907,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>263</v>
       </c>
@@ -3933,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>264</v>
       </c>
@@ -3959,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>265</v>
       </c>
@@ -3985,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>266</v>
       </c>
@@ -4011,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>267</v>
       </c>
@@ -4037,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>268</v>
       </c>
@@ -4063,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>269</v>
       </c>
@@ -4089,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>270</v>
       </c>
@@ -4115,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>271</v>
       </c>
@@ -4141,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>272</v>
       </c>
@@ -4167,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>273</v>
       </c>
@@ -4193,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>274</v>
       </c>
@@ -4219,7 +4408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>275</v>
       </c>
@@ -4245,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>276</v>
       </c>
@@ -4271,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>277</v>
       </c>
@@ -4297,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>278</v>
       </c>
@@ -4323,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>279</v>
       </c>
@@ -4349,7 +4538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>280</v>
       </c>
@@ -4375,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>281</v>
       </c>
@@ -4401,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>282</v>
       </c>
@@ -4427,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>283</v>
       </c>
@@ -4453,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>284</v>
       </c>
@@ -4479,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>285</v>
       </c>
@@ -4505,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>286</v>
       </c>
@@ -4531,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>287</v>
       </c>
@@ -4557,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>288</v>
       </c>
@@ -4583,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>289</v>
       </c>
@@ -4609,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>290</v>
       </c>
@@ -4635,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>291</v>
       </c>
@@ -4661,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>292</v>
       </c>
@@ -4687,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>293</v>
       </c>
@@ -4695,13 +4884,13 @@
         <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>91</v>
+        <v>479</v>
       </c>
       <c r="D110" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E110">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -4713,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>294</v>
       </c>
@@ -4721,13 +4910,13 @@
         <v>77</v>
       </c>
       <c r="C111" t="s">
-        <v>91</v>
+        <v>479</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>480</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -4739,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>295</v>
       </c>
@@ -4747,13 +4936,13 @@
         <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>93</v>
+        <v>479</v>
       </c>
       <c r="D112" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E112">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -4762,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>296</v>
       </c>
@@ -4773,10 +4962,10 @@
         <v>77</v>
       </c>
       <c r="C113" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D113" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E113">
         <v>25</v>
@@ -4791,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>297</v>
       </c>
@@ -4799,7 +4988,7 @@
         <v>77</v>
       </c>
       <c r="C114" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -4817,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>298</v>
       </c>
@@ -4825,16 +5014,16 @@
         <v>77</v>
       </c>
       <c r="C115" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4843,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>299</v>
       </c>
@@ -4851,13 +5040,13 @@
         <v>77</v>
       </c>
       <c r="C116" t="s">
-        <v>95</v>
+        <v>482</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
@@ -4869,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>300</v>
       </c>
@@ -4877,13 +5066,13 @@
         <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>95</v>
+        <v>482</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -4895,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>301</v>
       </c>
@@ -4903,10 +5092,10 @@
         <v>77</v>
       </c>
       <c r="C118" t="s">
-        <v>96</v>
+        <v>482</v>
       </c>
       <c r="D118" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -4921,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>302</v>
       </c>
@@ -4929,13 +5118,13 @@
         <v>77</v>
       </c>
       <c r="C119" t="s">
-        <v>97</v>
+        <v>482</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
@@ -4947,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>303</v>
       </c>
@@ -4955,13 +5144,13 @@
         <v>77</v>
       </c>
       <c r="C120" t="s">
-        <v>98</v>
+        <v>482</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E120">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -4973,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>304</v>
       </c>
@@ -4981,7 +5170,7 @@
         <v>77</v>
       </c>
       <c r="C121" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D121" t="s">
         <v>6</v>
@@ -4999,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>305</v>
       </c>
@@ -5007,16 +5196,16 @@
         <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -5025,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>306</v>
       </c>
@@ -5033,16 +5222,16 @@
         <v>77</v>
       </c>
       <c r="C123" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -5051,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>307</v>
       </c>
@@ -5059,10 +5248,10 @@
         <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5077,21 +5266,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B125" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D125" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="E125">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
@@ -5103,21 +5292,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>309</v>
       </c>
       <c r="B126" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C126" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D126" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E126">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
@@ -5129,21 +5318,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C127" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D127" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="E127">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
@@ -5155,21 +5344,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D128" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E128">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -5181,21 +5370,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C129" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D129" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E129">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
@@ -5207,24 +5396,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B130" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C130" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D130" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -5233,21 +5422,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B131" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C131" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E131">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
@@ -5259,21 +5448,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>315</v>
       </c>
       <c r="B132" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C132" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D132" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
@@ -5285,21 +5474,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B133" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C133" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D133" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="E133">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
@@ -5311,21 +5500,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>317</v>
       </c>
       <c r="B134" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C134" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D134" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
@@ -5337,22 +5526,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B135" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C135" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D135" t="s">
+        <v>103</v>
+      </c>
+      <c r="E135">
         <v>20</v>
       </c>
-      <c r="E135">
-        <v>30</v>
-      </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
@@ -5363,21 +5552,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>319</v>
       </c>
       <c r="B136" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C136" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D136" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E136">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
@@ -5389,21 +5578,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>320</v>
       </c>
       <c r="B137" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C137" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E137">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
@@ -5415,21 +5604,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B138" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C138" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D138" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E138">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -5441,7 +5630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>322</v>
       </c>
@@ -5449,13 +5638,13 @@
         <v>104</v>
       </c>
       <c r="C139" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E139">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
@@ -5467,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>323</v>
       </c>
@@ -5475,13 +5664,13 @@
         <v>104</v>
       </c>
       <c r="C140" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E140">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
@@ -5493,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>324</v>
       </c>
@@ -5501,13 +5690,13 @@
         <v>104</v>
       </c>
       <c r="C141" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D141" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
@@ -5519,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>325</v>
       </c>
@@ -5527,13 +5716,13 @@
         <v>104</v>
       </c>
       <c r="C142" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D142" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E142">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -5545,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>326</v>
       </c>
@@ -5553,13 +5742,13 @@
         <v>104</v>
       </c>
       <c r="C143" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D143" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E143">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
@@ -5571,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>327</v>
       </c>
@@ -5579,13 +5768,13 @@
         <v>104</v>
       </c>
       <c r="C144" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D144" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E144">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
@@ -5597,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>328</v>
       </c>
@@ -5605,7 +5794,7 @@
         <v>104</v>
       </c>
       <c r="C145" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
@@ -5623,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>329</v>
       </c>
@@ -5631,13 +5820,13 @@
         <v>104</v>
       </c>
       <c r="C146" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D146" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
@@ -5649,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>330</v>
       </c>
@@ -5657,13 +5846,13 @@
         <v>104</v>
       </c>
       <c r="C147" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E147">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -5675,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>331</v>
       </c>
@@ -5683,13 +5872,13 @@
         <v>104</v>
       </c>
       <c r="C148" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
@@ -5701,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>332</v>
       </c>
@@ -5709,13 +5898,13 @@
         <v>104</v>
       </c>
       <c r="C149" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -5727,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>333</v>
       </c>
@@ -5735,13 +5924,13 @@
         <v>104</v>
       </c>
       <c r="C150" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D150" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E150">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
@@ -5753,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>334</v>
       </c>
@@ -5761,13 +5950,13 @@
         <v>104</v>
       </c>
       <c r="C151" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D151" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="E151">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
@@ -5779,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>335</v>
       </c>
@@ -5787,13 +5976,13 @@
         <v>104</v>
       </c>
       <c r="C152" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E152">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -5805,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>336</v>
       </c>
@@ -5813,13 +6002,13 @@
         <v>104</v>
       </c>
       <c r="C153" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D153" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E153">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
@@ -5831,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>337</v>
       </c>
@@ -5839,13 +6028,13 @@
         <v>104</v>
       </c>
       <c r="C154" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E154">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
@@ -5857,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>338</v>
       </c>
@@ -5865,10 +6054,10 @@
         <v>104</v>
       </c>
       <c r="C155" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D155" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -5883,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>339</v>
       </c>
@@ -5891,13 +6080,13 @@
         <v>104</v>
       </c>
       <c r="C156" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F156" t="b">
         <v>0</v>
@@ -5909,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>340</v>
       </c>
@@ -5917,13 +6106,13 @@
         <v>104</v>
       </c>
       <c r="C157" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D157" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
@@ -5935,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>341</v>
       </c>
@@ -5943,10 +6132,10 @@
         <v>104</v>
       </c>
       <c r="C158" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D158" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="E158">
         <v>30</v>
@@ -5961,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>342</v>
       </c>
@@ -5969,7 +6158,7 @@
         <v>104</v>
       </c>
       <c r="C159" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D159" t="s">
         <v>6</v>
@@ -5987,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>343</v>
       </c>
@@ -5995,13 +6184,13 @@
         <v>104</v>
       </c>
       <c r="C160" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D160" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="E160">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F160" t="b">
         <v>0</v>
@@ -6013,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>344</v>
       </c>
@@ -6021,13 +6210,13 @@
         <v>104</v>
       </c>
       <c r="C161" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D161" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="E161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -6039,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>345</v>
       </c>
@@ -6047,13 +6236,13 @@
         <v>104</v>
       </c>
       <c r="C162" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="E162">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
@@ -6065,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>346</v>
       </c>
@@ -6073,13 +6262,13 @@
         <v>104</v>
       </c>
       <c r="C163" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D163" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="E163">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -6091,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>347</v>
       </c>
@@ -6099,13 +6288,13 @@
         <v>104</v>
       </c>
       <c r="C164" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E164">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
@@ -6117,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>348</v>
       </c>
@@ -6125,16 +6314,16 @@
         <v>104</v>
       </c>
       <c r="C165" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D165" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -6143,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>349</v>
       </c>
@@ -6151,13 +6340,13 @@
         <v>104</v>
       </c>
       <c r="C166" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F166" t="b">
         <v>0</v>
@@ -6169,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>350</v>
       </c>
@@ -6177,13 +6366,13 @@
         <v>104</v>
       </c>
       <c r="C167" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -6195,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>351</v>
       </c>
@@ -6203,13 +6392,13 @@
         <v>104</v>
       </c>
       <c r="C168" t="s">
-        <v>125</v>
+        <v>484</v>
       </c>
       <c r="D168" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F168" t="b">
         <v>0</v>
@@ -6221,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>352</v>
       </c>
@@ -6229,10 +6418,10 @@
         <v>104</v>
       </c>
       <c r="C169" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D169" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="E169">
         <v>10</v>
@@ -6247,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>353</v>
       </c>
@@ -6255,10 +6444,10 @@
         <v>104</v>
       </c>
       <c r="C170" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D170" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="E170">
         <v>5</v>
@@ -6273,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>354</v>
       </c>
@@ -6281,13 +6470,13 @@
         <v>104</v>
       </c>
       <c r="C171" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D171" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="E171">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F171" t="b">
         <v>0</v>
@@ -6299,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>355</v>
       </c>
@@ -6307,13 +6496,13 @@
         <v>104</v>
       </c>
       <c r="C172" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D172" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="E172">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F172" t="b">
         <v>0</v>
@@ -6325,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>356</v>
       </c>
@@ -6333,13 +6522,13 @@
         <v>104</v>
       </c>
       <c r="C173" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D173" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E173">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F173" t="b">
         <v>0</v>
@@ -6351,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>357</v>
       </c>
@@ -6359,16 +6548,16 @@
         <v>104</v>
       </c>
       <c r="C174" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D174" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E174">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -6377,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>358</v>
       </c>
@@ -6385,13 +6574,13 @@
         <v>104</v>
       </c>
       <c r="C175" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D175" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -6403,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>359</v>
       </c>
@@ -6411,13 +6600,13 @@
         <v>104</v>
       </c>
       <c r="C176" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E176">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
@@ -6429,7 +6618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>360</v>
       </c>
@@ -6437,13 +6626,13 @@
         <v>104</v>
       </c>
       <c r="C177" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D177" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E177">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
@@ -6455,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>361</v>
       </c>
@@ -6463,13 +6652,13 @@
         <v>104</v>
       </c>
       <c r="C178" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D178" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E178">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
@@ -6481,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>362</v>
       </c>
@@ -6489,13 +6678,13 @@
         <v>104</v>
       </c>
       <c r="C179" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D179" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="E179">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
@@ -6507,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>363</v>
       </c>
@@ -6515,13 +6704,13 @@
         <v>104</v>
       </c>
       <c r="C180" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D180" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E180">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
@@ -6533,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>364</v>
       </c>
@@ -6541,13 +6730,13 @@
         <v>104</v>
       </c>
       <c r="C181" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D181" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E181">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
@@ -6559,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>365</v>
       </c>
@@ -6567,13 +6756,13 @@
         <v>104</v>
       </c>
       <c r="C182" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D182" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="E182">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
@@ -6585,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>366</v>
       </c>
@@ -6593,13 +6782,13 @@
         <v>104</v>
       </c>
       <c r="C183" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D183" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E183">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
@@ -6611,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>367</v>
       </c>
@@ -6619,13 +6808,13 @@
         <v>104</v>
       </c>
       <c r="C184" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D184" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E184">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
@@ -6637,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>368</v>
       </c>
@@ -6645,13 +6834,13 @@
         <v>104</v>
       </c>
       <c r="C185" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D185" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E185">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
@@ -6663,7 +6852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>369</v>
       </c>
@@ -6671,7 +6860,7 @@
         <v>104</v>
       </c>
       <c r="C186" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D186" t="s">
         <v>42</v>
@@ -6689,7 +6878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>370</v>
       </c>
@@ -6697,13 +6886,13 @@
         <v>104</v>
       </c>
       <c r="C187" t="s">
-        <v>133</v>
+        <v>488</v>
       </c>
       <c r="D187" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="E187">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -6715,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>371</v>
       </c>
@@ -6723,16 +6912,16 @@
         <v>104</v>
       </c>
       <c r="C188" t="s">
-        <v>133</v>
+        <v>488</v>
       </c>
       <c r="D188" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -6741,7 +6930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>372</v>
       </c>
@@ -6749,13 +6938,13 @@
         <v>104</v>
       </c>
       <c r="C189" t="s">
-        <v>133</v>
+        <v>488</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
@@ -6767,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>373</v>
       </c>
@@ -6775,13 +6964,13 @@
         <v>104</v>
       </c>
       <c r="C190" t="s">
-        <v>133</v>
+        <v>488</v>
       </c>
       <c r="D190" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
@@ -6793,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>374</v>
       </c>
@@ -6801,13 +6990,13 @@
         <v>104</v>
       </c>
       <c r="C191" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D191" t="s">
         <v>112</v>
       </c>
       <c r="E191">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -6819,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>375</v>
       </c>
@@ -6827,7 +7016,7 @@
         <v>104</v>
       </c>
       <c r="C192" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D192" t="s">
         <v>113</v>
@@ -6845,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>376</v>
       </c>
@@ -6853,13 +7042,13 @@
         <v>104</v>
       </c>
       <c r="C193" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D193" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="E193">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
@@ -6871,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>377</v>
       </c>
@@ -6879,13 +7068,13 @@
         <v>104</v>
       </c>
       <c r="C194" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D194" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="E194">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -6897,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>378</v>
       </c>
@@ -6905,13 +7094,13 @@
         <v>104</v>
       </c>
       <c r="C195" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D195" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="E195">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -6923,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>379</v>
       </c>
@@ -6931,10 +7120,10 @@
         <v>104</v>
       </c>
       <c r="C196" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D196" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="E196">
         <v>10</v>
@@ -6949,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>380</v>
       </c>
@@ -6957,13 +7146,13 @@
         <v>104</v>
       </c>
       <c r="C197" t="s">
-        <v>135</v>
+        <v>489</v>
       </c>
       <c r="D197" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E197">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
@@ -6975,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>381</v>
       </c>
@@ -6983,13 +7172,13 @@
         <v>104</v>
       </c>
       <c r="C198" t="s">
-        <v>135</v>
+        <v>489</v>
       </c>
       <c r="D198" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E198">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
@@ -6998,10 +7187,10 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>382</v>
       </c>
@@ -7009,25 +7198,25 @@
         <v>104</v>
       </c>
       <c r="C199" t="s">
-        <v>135</v>
+        <v>489</v>
       </c>
       <c r="D199" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="E199">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>383</v>
       </c>
@@ -7035,13 +7224,13 @@
         <v>104</v>
       </c>
       <c r="C200" t="s">
-        <v>135</v>
+        <v>489</v>
       </c>
       <c r="D200" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="E200">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
@@ -7050,24 +7239,24 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>142</v>
+      <c r="B201" t="s">
+        <v>104</v>
       </c>
       <c r="C201" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D201" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="E201">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -7079,21 +7268,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>142</v>
+      <c r="B202" t="s">
+        <v>104</v>
       </c>
       <c r="C202" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D202" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="E202">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
@@ -7105,21 +7294,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>142</v>
+      <c r="B203" t="s">
+        <v>104</v>
       </c>
       <c r="C203" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D203" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E203">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -7131,21 +7320,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>142</v>
+      <c r="B204" t="s">
+        <v>104</v>
       </c>
       <c r="C204" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D204" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="E204">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
@@ -7157,24 +7346,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>142</v>
+      <c r="B205" t="s">
+        <v>104</v>
       </c>
       <c r="C205" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D205" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="E205">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -7183,21 +7372,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>142</v>
+      <c r="B206" t="s">
+        <v>104</v>
       </c>
       <c r="C206" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D206" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="E206">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F206" t="b">
         <v>0</v>
@@ -7209,21 +7398,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>142</v>
+      <c r="B207" t="s">
+        <v>104</v>
       </c>
       <c r="C207" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D207" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E207">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F207" t="b">
         <v>0</v>
@@ -7235,21 +7424,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>142</v>
+      <c r="B208" t="s">
+        <v>104</v>
       </c>
       <c r="C208" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D208" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="E208">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F208" t="b">
         <v>0</v>
@@ -7261,21 +7450,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>142</v>
+      <c r="B209" t="s">
+        <v>104</v>
       </c>
       <c r="C209" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D209" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="E209">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F209" t="b">
         <v>0</v>
@@ -7287,21 +7476,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>142</v>
+      <c r="B210" t="s">
+        <v>104</v>
       </c>
       <c r="C210" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D210" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E210">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
@@ -7313,21 +7502,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>142</v>
+      <c r="B211" t="s">
+        <v>104</v>
       </c>
       <c r="C211" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D211" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="E211">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
@@ -7339,15 +7528,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>142</v>
+      <c r="B212" t="s">
+        <v>104</v>
       </c>
       <c r="C212" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D212" t="s">
         <v>42</v>
@@ -7365,21 +7554,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>142</v>
+      <c r="B213" t="s">
+        <v>104</v>
       </c>
       <c r="C213" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D213" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E213">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -7391,18 +7580,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>142</v>
+      <c r="B214" t="s">
+        <v>104</v>
       </c>
       <c r="C214" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D214" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="E214">
         <v>5</v>
@@ -7417,18 +7606,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>142</v>
+      <c r="B215" t="s">
+        <v>104</v>
       </c>
       <c r="C215" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="E215">
         <v>5</v>
@@ -7440,50 +7629,50 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>142</v>
+      <c r="B216" t="s">
+        <v>104</v>
       </c>
       <c r="C216" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D216" t="s">
+        <v>140</v>
+      </c>
+      <c r="E216">
+        <v>5</v>
+      </c>
+      <c r="F216" t="b">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>10</v>
+      </c>
+      <c r="H216">
         <v>20</v>
       </c>
-      <c r="E216">
-        <v>30</v>
-      </c>
-      <c r="F216" t="b">
-        <v>0</v>
-      </c>
-      <c r="G216">
-        <v>0</v>
-      </c>
-      <c r="H216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>142</v>
+      <c r="B217" t="s">
+        <v>104</v>
       </c>
       <c r="C217" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D217" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="E217">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F217" t="b">
         <v>0</v>
@@ -7492,10 +7681,10 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>401</v>
       </c>
@@ -7503,16 +7692,16 @@
         <v>142</v>
       </c>
       <c r="C218" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D218" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="E218">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -7521,7 +7710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>402</v>
       </c>
@@ -7529,13 +7718,13 @@
         <v>142</v>
       </c>
       <c r="C219" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D219" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F219" t="b">
         <v>0</v>
@@ -7547,7 +7736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>403</v>
       </c>
@@ -7555,13 +7744,13 @@
         <v>142</v>
       </c>
       <c r="C220" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F220" t="b">
         <v>0</v>
@@ -7573,21 +7762,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C221" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D221" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E221">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F221" t="b">
         <v>0</v>
@@ -7599,21 +7788,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>405</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C222" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D222" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E222">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F222" t="b">
         <v>0</v>
@@ -7625,18 +7814,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>406</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C223" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D223" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="E223">
         <v>10</v>
@@ -7651,21 +7840,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>407</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C224" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="E224">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F224" t="b">
         <v>0</v>
@@ -7677,21 +7866,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>408</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C225" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D225" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="E225">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F225" t="b">
         <v>0</v>
@@ -7703,15 +7892,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>409</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C226" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D226" t="s">
         <v>42</v>
@@ -7729,21 +7918,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C227" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D227" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E227">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F227" t="b">
         <v>0</v>
@@ -7755,21 +7944,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>411</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C228" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="E228">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F228" t="b">
         <v>0</v>
@@ -7781,21 +7970,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C229" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D229" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="E229">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -7807,21 +7996,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>413</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C230" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D230" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="E230">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F230" t="b">
         <v>0</v>
@@ -7833,21 +8022,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>414</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C231" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D231" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E231">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F231" t="b">
         <v>0</v>
@@ -7859,21 +8048,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C232" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D232" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E232">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F232" t="b">
         <v>0</v>
@@ -7885,21 +8074,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>416</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C233" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E233">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F233" t="b">
         <v>0</v>
@@ -7911,21 +8100,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>417</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C234" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D234" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E234">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
@@ -7937,24 +8126,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C235" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D235" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="E235">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -7963,21 +8152,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>419</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C236" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D236" t="s">
         <v>7</v>
       </c>
       <c r="E236">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F236" t="b">
         <v>0</v>
@@ -7989,21 +8178,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C237" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D237" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E237">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
@@ -8015,21 +8204,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" t="s">
         <v>154</v>
       </c>
       <c r="C238" t="s">
-        <v>164</v>
+        <v>470</v>
       </c>
       <c r="D238" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E238">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F238" t="b">
         <v>0</v>
@@ -8041,24 +8230,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" t="s">
         <v>154</v>
       </c>
       <c r="C239" t="s">
-        <v>164</v>
+        <v>470</v>
       </c>
       <c r="D239" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="E239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -8067,21 +8256,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" t="s">
         <v>154</v>
       </c>
       <c r="C240" t="s">
-        <v>165</v>
+        <v>470</v>
       </c>
       <c r="D240" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E240">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F240" t="b">
         <v>0</v>
@@ -8093,18 +8282,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" t="s">
         <v>154</v>
       </c>
       <c r="C241" t="s">
-        <v>165</v>
+        <v>470</v>
       </c>
       <c r="D241" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E241">
         <v>5</v>
@@ -8119,21 +8308,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" t="s">
         <v>154</v>
       </c>
       <c r="C242" t="s">
-        <v>165</v>
+        <v>470</v>
       </c>
       <c r="D242" t="s">
         <v>134</v>
       </c>
       <c r="E242">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F242" t="b">
         <v>0</v>
@@ -8145,21 +8334,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" t="s">
         <v>154</v>
       </c>
       <c r="C243" t="s">
-        <v>166</v>
+        <v>471</v>
       </c>
       <c r="D243" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E243">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F243" t="b">
         <v>0</v>
@@ -8171,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>427</v>
       </c>
@@ -8179,13 +8368,13 @@
         <v>154</v>
       </c>
       <c r="C244" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D244" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E244">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F244" t="b">
         <v>0</v>
@@ -8197,21 +8386,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" t="s">
         <v>154</v>
       </c>
       <c r="C245" t="s">
-        <v>166</v>
+        <v>472</v>
       </c>
       <c r="D245" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E245">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F245" t="b">
         <v>0</v>
@@ -8223,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>429</v>
       </c>
@@ -8231,13 +8420,13 @@
         <v>154</v>
       </c>
       <c r="C246" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D246" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E246">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F246" t="b">
         <v>0</v>
@@ -8249,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>430</v>
       </c>
@@ -8257,13 +8446,13 @@
         <v>154</v>
       </c>
       <c r="C247" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D247" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E247">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F247" t="b">
         <v>0</v>
@@ -8275,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>431</v>
       </c>
@@ -8283,13 +8472,13 @@
         <v>154</v>
       </c>
       <c r="C248" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E248">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F248" t="b">
         <v>0</v>
@@ -8301,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>432</v>
       </c>
@@ -8309,13 +8498,13 @@
         <v>154</v>
       </c>
       <c r="C249" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D249" t="s">
         <v>134</v>
       </c>
       <c r="E249">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
@@ -8327,7 +8516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>433</v>
       </c>
@@ -8335,13 +8524,13 @@
         <v>154</v>
       </c>
       <c r="C250" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F250" t="b">
         <v>0</v>
@@ -8353,7 +8542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>434</v>
       </c>
@@ -8361,16 +8550,16 @@
         <v>154</v>
       </c>
       <c r="C251" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D251" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -8379,21 +8568,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>435</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C252" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D252" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E252">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F252" t="b">
         <v>0</v>
@@ -8405,18 +8594,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C253" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D253" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E253">
         <v>5</v>
@@ -8431,21 +8620,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>168</v>
+      <c r="B254" t="s">
+        <v>154</v>
       </c>
       <c r="C254" t="s">
-        <v>171</v>
+        <v>473</v>
       </c>
       <c r="D254" t="s">
         <v>42</v>
       </c>
       <c r="E254">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F254" t="b">
         <v>0</v>
@@ -8457,21 +8646,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>438</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C255" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D255" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E255">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F255" t="b">
         <v>0</v>
@@ -8483,21 +8672,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>439</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C256" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D256" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="E256">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F256" t="b">
         <v>0</v>
@@ -8509,21 +8698,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C257" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D257" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E257">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F257" t="b">
         <v>0</v>
@@ -8535,24 +8724,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>441</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C258" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D258" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -8561,21 +8750,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>168</v>
+      <c r="B259" t="s">
+        <v>154</v>
       </c>
       <c r="C259" t="s">
-        <v>173</v>
+        <v>481</v>
       </c>
       <c r="D259" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F259" t="b">
         <v>0</v>
@@ -8587,21 +8776,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C260" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D260" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E260">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F260" t="b">
         <v>0</v>
@@ -8613,21 +8802,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C261" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D261" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="E261">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F261" t="b">
         <v>0</v>
@@ -8639,24 +8828,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>445</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C262" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D262" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -8665,21 +8854,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>446</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C263" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D263" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F263" t="b">
         <v>0</v>
@@ -8691,21 +8880,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>447</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C264" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D264" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E264">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F264" t="b">
         <v>0</v>
@@ -8717,21 +8906,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C265" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D265" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E265">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F265" t="b">
         <v>0</v>
@@ -8743,21 +8932,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>168</v>
+      <c r="B266" t="s">
+        <v>154</v>
       </c>
       <c r="C266" t="s">
-        <v>176</v>
+        <v>486</v>
       </c>
       <c r="D266" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E266">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F266" t="b">
         <v>0</v>
@@ -8769,21 +8958,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>450</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C267" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D267" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="E267">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F267" t="b">
         <v>0</v>
@@ -8795,24 +8984,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>451</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C268" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D268" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -8821,21 +9010,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>452</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C269" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D269" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F269" t="b">
         <v>0</v>
@@ -8847,21 +9036,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B270" t="s">
-        <v>179</v>
+      <c r="B270" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C270" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D270" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="E270">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F270" t="b">
         <v>0</v>
@@ -8873,21 +9062,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B271" t="s">
-        <v>179</v>
+      <c r="B271" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C271" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D271" t="s">
-        <v>462</v>
+        <v>42</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F271" t="b">
         <v>0</v>
@@ -8899,21 +9088,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B272" t="s">
-        <v>179</v>
+      <c r="B272" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C272" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D272" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E272">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F272" t="b">
         <v>0</v>
@@ -8925,18 +9114,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B273" t="s">
-        <v>179</v>
+      <c r="B273" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C273" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D273" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="E273">
         <v>5</v>
@@ -8951,21 +9140,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>457</v>
       </c>
       <c r="B274" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C274" t="s">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="D274" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E274">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F274" t="b">
         <v>0</v>
@@ -8977,18 +9166,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>458</v>
       </c>
       <c r="B275" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C275" t="s">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="D275" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E275">
         <v>5</v>
@@ -9003,21 +9192,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B276" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C276" t="s">
-        <v>182</v>
+        <v>490</v>
       </c>
       <c r="D276" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E276">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F276" t="b">
         <v>0</v>
@@ -9029,21 +9218,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B277" t="s">
-        <v>179</v>
+      <c r="B277" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C277" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D277" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="E277">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F277" t="b">
         <v>0</v>
@@ -9055,21 +9244,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B278" t="s">
-        <v>179</v>
+      <c r="B278" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C278" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D278" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E278">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F278" t="b">
         <v>0</v>
@@ -9081,33 +9270,1103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C279" t="s">
+        <v>167</v>
+      </c>
+      <c r="D279" t="s">
+        <v>134</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279" t="b">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C280" t="s">
+        <v>167</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280" t="b">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C281" t="s">
+        <v>167</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281" t="b">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C282" t="s">
+        <v>169</v>
+      </c>
+      <c r="D282" t="s">
+        <v>42</v>
+      </c>
+      <c r="E282">
+        <v>10</v>
+      </c>
+      <c r="F282" t="b">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C283" t="s">
+        <v>169</v>
+      </c>
+      <c r="D283" t="s">
+        <v>170</v>
+      </c>
+      <c r="E283">
+        <v>5</v>
+      </c>
+      <c r="F283" t="b">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C284" t="s">
+        <v>171</v>
+      </c>
+      <c r="D284" t="s">
+        <v>42</v>
+      </c>
+      <c r="E284">
+        <v>15</v>
+      </c>
+      <c r="F284" t="b">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C285" t="s">
+        <v>171</v>
+      </c>
+      <c r="D285" t="s">
+        <v>170</v>
+      </c>
+      <c r="E285">
+        <v>5</v>
+      </c>
+      <c r="F285" t="b">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C286" t="s">
+        <v>171</v>
+      </c>
+      <c r="D286" t="s">
+        <v>172</v>
+      </c>
+      <c r="E286">
+        <v>5</v>
+      </c>
+      <c r="F286" t="b">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C287" t="s">
+        <v>173</v>
+      </c>
+      <c r="D287" t="s">
+        <v>6</v>
+      </c>
+      <c r="E287">
+        <v>25</v>
+      </c>
+      <c r="F287" t="b">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C288" t="s">
+        <v>173</v>
+      </c>
+      <c r="D288" t="s">
+        <v>170</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288" t="b">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C289" t="s">
+        <v>173</v>
+      </c>
+      <c r="D289" t="s">
+        <v>172</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289" t="b">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C290" t="s">
+        <v>174</v>
+      </c>
+      <c r="D290" t="s">
+        <v>20</v>
+      </c>
+      <c r="E290">
+        <v>30</v>
+      </c>
+      <c r="F290" t="b">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C291" t="s">
+        <v>174</v>
+      </c>
+      <c r="D291" t="s">
+        <v>6</v>
+      </c>
+      <c r="E291">
+        <v>25</v>
+      </c>
+      <c r="F291" t="b">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C292" t="s">
+        <v>174</v>
+      </c>
+      <c r="D292" t="s">
+        <v>170</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292" t="b">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C293" t="s">
+        <v>174</v>
+      </c>
+      <c r="D293" t="s">
+        <v>8</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293" t="b">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C294" t="s">
+        <v>175</v>
+      </c>
+      <c r="D294" t="s">
+        <v>42</v>
+      </c>
+      <c r="E294">
+        <v>10</v>
+      </c>
+      <c r="F294" t="b">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C295" t="s">
+        <v>175</v>
+      </c>
+      <c r="D295" t="s">
+        <v>170</v>
+      </c>
+      <c r="E295">
+        <v>5</v>
+      </c>
+      <c r="F295" t="b">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C296" t="s">
+        <v>176</v>
+      </c>
+      <c r="D296" t="s">
+        <v>25</v>
+      </c>
+      <c r="E296">
+        <v>15</v>
+      </c>
+      <c r="F296" t="b">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C297" t="s">
+        <v>176</v>
+      </c>
+      <c r="D297" t="s">
+        <v>170</v>
+      </c>
+      <c r="E297">
+        <v>5</v>
+      </c>
+      <c r="F297" t="b">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C298" t="s">
+        <v>177</v>
+      </c>
+      <c r="D298" t="s">
+        <v>170</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298" t="b">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C299" t="s">
+        <v>177</v>
+      </c>
+      <c r="D299" t="s">
+        <v>178</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" t="b">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B300" t="s">
         <v>179</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C300" t="s">
+        <v>180</v>
+      </c>
+      <c r="D300" t="s">
+        <v>181</v>
+      </c>
+      <c r="E300">
+        <v>40</v>
+      </c>
+      <c r="F300" t="b">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B301" t="s">
+        <v>179</v>
+      </c>
+      <c r="C301" t="s">
+        <v>180</v>
+      </c>
+      <c r="D301" t="s">
+        <v>462</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301" t="b">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B302" t="s">
+        <v>179</v>
+      </c>
+      <c r="C302" t="s">
+        <v>180</v>
+      </c>
+      <c r="D302" t="s">
+        <v>42</v>
+      </c>
+      <c r="E302">
+        <v>10</v>
+      </c>
+      <c r="F302" t="b">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B303" t="s">
+        <v>179</v>
+      </c>
+      <c r="C303" t="s">
+        <v>180</v>
+      </c>
+      <c r="D303" t="s">
+        <v>158</v>
+      </c>
+      <c r="E303">
+        <v>5</v>
+      </c>
+      <c r="F303" t="b">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B304" t="s">
+        <v>179</v>
+      </c>
+      <c r="C304" t="s">
+        <v>180</v>
+      </c>
+      <c r="D304" t="s">
+        <v>28</v>
+      </c>
+      <c r="E304">
+        <v>5</v>
+      </c>
+      <c r="F304" t="b">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B305" t="s">
+        <v>179</v>
+      </c>
+      <c r="C305" t="s">
+        <v>180</v>
+      </c>
+      <c r="D305" t="s">
+        <v>70</v>
+      </c>
+      <c r="E305">
+        <v>5</v>
+      </c>
+      <c r="F305" t="b">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B306" t="s">
+        <v>179</v>
+      </c>
+      <c r="C306" t="s">
+        <v>469</v>
+      </c>
+      <c r="D306" t="s">
+        <v>42</v>
+      </c>
+      <c r="E306">
+        <v>10</v>
+      </c>
+      <c r="F306" t="b">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B307" t="s">
+        <v>179</v>
+      </c>
+      <c r="C307" t="s">
+        <v>469</v>
+      </c>
+      <c r="D307" t="s">
+        <v>70</v>
+      </c>
+      <c r="E307">
+        <v>5</v>
+      </c>
+      <c r="F307" t="b">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B308" t="s">
+        <v>179</v>
+      </c>
+      <c r="C308" t="s">
+        <v>469</v>
+      </c>
+      <c r="D308" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308">
+        <v>5</v>
+      </c>
+      <c r="F308" t="b">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B309" t="s">
+        <v>179</v>
+      </c>
+      <c r="C309" t="s">
+        <v>474</v>
+      </c>
+      <c r="D309" t="s">
+        <v>475</v>
+      </c>
+      <c r="E309">
+        <v>15</v>
+      </c>
+      <c r="F309" t="b">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B310" t="s">
+        <v>179</v>
+      </c>
+      <c r="C310" t="s">
+        <v>474</v>
+      </c>
+      <c r="D310" t="s">
+        <v>476</v>
+      </c>
+      <c r="E310">
+        <v>5</v>
+      </c>
+      <c r="F310" t="b">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B311" t="s">
+        <v>179</v>
+      </c>
+      <c r="C311" t="s">
+        <v>474</v>
+      </c>
+      <c r="D311" t="s">
+        <v>70</v>
+      </c>
+      <c r="E311">
+        <v>5</v>
+      </c>
+      <c r="F311" t="b">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B312" t="s">
+        <v>179</v>
+      </c>
+      <c r="C312" t="s">
+        <v>477</v>
+      </c>
+      <c r="D312" t="s">
+        <v>478</v>
+      </c>
+      <c r="E312">
+        <v>25</v>
+      </c>
+      <c r="F312" t="b">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B313" t="s">
+        <v>179</v>
+      </c>
+      <c r="C313" t="s">
+        <v>477</v>
+      </c>
+      <c r="D313" t="s">
+        <v>42</v>
+      </c>
+      <c r="E313">
+        <v>10</v>
+      </c>
+      <c r="F313" t="b">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B314" t="s">
+        <v>179</v>
+      </c>
+      <c r="C314" t="s">
         <v>183</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D314" t="s">
         <v>70</v>
       </c>
-      <c r="E279">
+      <c r="E314">
         <v>5</v>
       </c>
-      <c r="F279" t="b">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="H279">
+      <c r="F314" t="b">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B315" t="s">
+        <v>179</v>
+      </c>
+      <c r="C315" t="s">
+        <v>182</v>
+      </c>
+      <c r="D315" t="s">
+        <v>42</v>
+      </c>
+      <c r="E315">
+        <v>10</v>
+      </c>
+      <c r="F315" t="b">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B316" t="s">
+        <v>179</v>
+      </c>
+      <c r="C316" t="s">
+        <v>182</v>
+      </c>
+      <c r="D316" t="s">
+        <v>158</v>
+      </c>
+      <c r="E316">
+        <v>5</v>
+      </c>
+      <c r="F316" t="b">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B317" t="s">
+        <v>179</v>
+      </c>
+      <c r="C317" t="s">
+        <v>182</v>
+      </c>
+      <c r="D317" t="s">
+        <v>70</v>
+      </c>
+      <c r="E317">
+        <v>5</v>
+      </c>
+      <c r="F317" t="b">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B318" t="s">
+        <v>179</v>
+      </c>
+      <c r="C318" t="s">
+        <v>483</v>
+      </c>
+      <c r="D318" t="s">
+        <v>70</v>
+      </c>
+      <c r="E318">
+        <v>5</v>
+      </c>
+      <c r="F318" t="b">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B319" t="s">
+        <v>179</v>
+      </c>
+      <c r="C319" t="s">
+        <v>485</v>
+      </c>
+      <c r="D319" t="s">
+        <v>70</v>
+      </c>
+      <c r="E319">
+        <v>5</v>
+      </c>
+      <c r="F319" t="b">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B320" t="s">
+        <v>179</v>
+      </c>
+      <c r="C320" t="s">
+        <v>487</v>
+      </c>
+      <c r="D320" t="s">
+        <v>70</v>
+      </c>
+      <c r="E320">
+        <v>5</v>
+      </c>
+      <c r="F320" t="b">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H320">
+    <sortCondition ref="B2:B320"/>
+    <sortCondition ref="C2:C320"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/mesbg_options.xlsx
+++ b/src/mesbg_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4490DF99-75C9-4F62-911D-F3E58F2998C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033CD335-0997-411B-87A4-D6E59A73B963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C0E6438-1EB7-4493-91C9-83873EACB085}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="536">
   <si>
     <t>faction</t>
   </si>
@@ -1632,6 +1632,18 @@
   </si>
   <si>
     <t>OPT0319</t>
+  </si>
+  <si>
+    <t>Westfold Redshield</t>
+  </si>
+  <si>
+    <t>Helminga</t>
+  </si>
+  <si>
+    <t>OPT0320</t>
+  </si>
+  <si>
+    <t>OPT0321</t>
   </si>
 </sst>
 </file>
@@ -2026,10 +2038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}">
-  <dimension ref="A1:H320"/>
+  <dimension ref="A1:H322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8917,10 +8929,10 @@
         <v>164</v>
       </c>
       <c r="D265" t="s">
-        <v>134</v>
+        <v>532</v>
       </c>
       <c r="E265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F265" t="b">
         <v>0</v>
@@ -8936,17 +8948,17 @@
       <c r="A266" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C266" t="s">
-        <v>486</v>
+        <v>164</v>
       </c>
       <c r="D266" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E266">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F266" t="b">
         <v>0</v>
@@ -8962,17 +8974,17 @@
       <c r="A267" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" t="s">
         <v>154</v>
       </c>
       <c r="C267" t="s">
-        <v>165</v>
+        <v>486</v>
       </c>
       <c r="D267" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E267">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F267" t="b">
         <v>0</v>
@@ -8995,10 +9007,10 @@
         <v>165</v>
       </c>
       <c r="D268" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E268">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F268" t="b">
         <v>0</v>
@@ -9021,10 +9033,10 @@
         <v>165</v>
       </c>
       <c r="D269" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="E269">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F269" t="b">
         <v>0</v>
@@ -9044,13 +9056,13 @@
         <v>154</v>
       </c>
       <c r="C270" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D270" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="E270">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F270" t="b">
         <v>0</v>
@@ -9073,10 +9085,10 @@
         <v>166</v>
       </c>
       <c r="D271" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E271">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F271" t="b">
         <v>0</v>
@@ -9099,10 +9111,10 @@
         <v>166</v>
       </c>
       <c r="D272" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E272">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F272" t="b">
         <v>0</v>
@@ -9125,7 +9137,7 @@
         <v>166</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E273">
         <v>5</v>
@@ -9144,17 +9156,17 @@
       <c r="A274" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C274" t="s">
-        <v>490</v>
+        <v>166</v>
       </c>
       <c r="D274" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E274">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F274" t="b">
         <v>0</v>
@@ -9177,10 +9189,10 @@
         <v>490</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E275">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F275" t="b">
         <v>0</v>
@@ -9203,7 +9215,7 @@
         <v>490</v>
       </c>
       <c r="D276" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="E276">
         <v>5</v>
@@ -9222,17 +9234,17 @@
       <c r="A277" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" t="s">
         <v>154</v>
       </c>
       <c r="C277" t="s">
-        <v>167</v>
+        <v>490</v>
       </c>
       <c r="D277" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="E277">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F277" t="b">
         <v>0</v>
@@ -9255,10 +9267,10 @@
         <v>167</v>
       </c>
       <c r="D278" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E278">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F278" t="b">
         <v>0</v>
@@ -9281,10 +9293,10 @@
         <v>167</v>
       </c>
       <c r="D279" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="E279">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F279" t="b">
         <v>0</v>
@@ -9307,10 +9319,10 @@
         <v>167</v>
       </c>
       <c r="D280" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F280" t="b">
         <v>0</v>
@@ -9333,13 +9345,13 @@
         <v>167</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E281">
         <v>1</v>
       </c>
       <c r="F281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -9353,16 +9365,16 @@
         <v>493</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C282" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D282" t="s">
-        <v>42</v>
+        <v>533</v>
       </c>
       <c r="E282">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F282" t="b">
         <v>0</v>
@@ -9379,19 +9391,19 @@
         <v>494</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C283" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D283" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="E283">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -9408,13 +9420,13 @@
         <v>168</v>
       </c>
       <c r="C284" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D284" t="s">
         <v>42</v>
       </c>
       <c r="E284">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F284" t="b">
         <v>0</v>
@@ -9434,7 +9446,7 @@
         <v>168</v>
       </c>
       <c r="C285" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D285" t="s">
         <v>170</v>
@@ -9463,10 +9475,10 @@
         <v>171</v>
       </c>
       <c r="D286" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="E286">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F286" t="b">
         <v>0</v>
@@ -9486,13 +9498,13 @@
         <v>168</v>
       </c>
       <c r="C287" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D287" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="E287">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F287" t="b">
         <v>0</v>
@@ -9512,16 +9524,16 @@
         <v>168</v>
       </c>
       <c r="C288" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D288" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -9541,10 +9553,10 @@
         <v>173</v>
       </c>
       <c r="D289" t="s">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="E289">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F289" t="b">
         <v>0</v>
@@ -9564,16 +9576,16 @@
         <v>168</v>
       </c>
       <c r="C290" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D290" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="E290">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -9590,13 +9602,13 @@
         <v>168</v>
       </c>
       <c r="C291" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D291" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="E291">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F291" t="b">
         <v>0</v>
@@ -9619,13 +9631,13 @@
         <v>174</v>
       </c>
       <c r="D292" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -9645,10 +9657,10 @@
         <v>174</v>
       </c>
       <c r="D293" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F293" t="b">
         <v>0</v>
@@ -9668,16 +9680,16 @@
         <v>168</v>
       </c>
       <c r="C294" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D294" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="E294">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -9694,13 +9706,13 @@
         <v>168</v>
       </c>
       <c r="C295" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D295" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="E295">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F295" t="b">
         <v>0</v>
@@ -9720,13 +9732,13 @@
         <v>168</v>
       </c>
       <c r="C296" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D296" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E296">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F296" t="b">
         <v>0</v>
@@ -9746,7 +9758,7 @@
         <v>168</v>
       </c>
       <c r="C297" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D297" t="s">
         <v>170</v>
@@ -9772,16 +9784,16 @@
         <v>168</v>
       </c>
       <c r="C298" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D298" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -9798,13 +9810,13 @@
         <v>168</v>
       </c>
       <c r="C299" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D299" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F299" t="b">
         <v>0</v>
@@ -9820,20 +9832,20 @@
       <c r="A300" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B300" t="s">
-        <v>179</v>
+      <c r="B300" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C300" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D300" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E300">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -9846,14 +9858,14 @@
       <c r="A301" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B301" t="s">
-        <v>179</v>
+      <c r="B301" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C301" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D301" t="s">
-        <v>462</v>
+        <v>178</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -9879,10 +9891,10 @@
         <v>180</v>
       </c>
       <c r="D302" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="E302">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F302" t="b">
         <v>0</v>
@@ -9905,10 +9917,10 @@
         <v>180</v>
       </c>
       <c r="D303" t="s">
-        <v>158</v>
+        <v>462</v>
       </c>
       <c r="E303">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F303" t="b">
         <v>0</v>
@@ -9931,10 +9943,10 @@
         <v>180</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E304">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F304" t="b">
         <v>0</v>
@@ -9957,7 +9969,7 @@
         <v>180</v>
       </c>
       <c r="D305" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="E305">
         <v>5</v>
@@ -9980,13 +9992,13 @@
         <v>179</v>
       </c>
       <c r="C306" t="s">
-        <v>469</v>
+        <v>180</v>
       </c>
       <c r="D306" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E306">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F306" t="b">
         <v>0</v>
@@ -10006,7 +10018,7 @@
         <v>179</v>
       </c>
       <c r="C307" t="s">
-        <v>469</v>
+        <v>180</v>
       </c>
       <c r="D307" t="s">
         <v>70</v>
@@ -10035,10 +10047,10 @@
         <v>469</v>
       </c>
       <c r="D308" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E308">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F308" t="b">
         <v>0</v>
@@ -10058,13 +10070,13 @@
         <v>179</v>
       </c>
       <c r="C309" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D309" t="s">
-        <v>475</v>
+        <v>70</v>
       </c>
       <c r="E309">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F309" t="b">
         <v>0</v>
@@ -10084,10 +10096,10 @@
         <v>179</v>
       </c>
       <c r="C310" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D310" t="s">
-        <v>476</v>
+        <v>7</v>
       </c>
       <c r="E310">
         <v>5</v>
@@ -10113,10 +10125,10 @@
         <v>474</v>
       </c>
       <c r="D311" t="s">
-        <v>70</v>
+        <v>475</v>
       </c>
       <c r="E311">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F311" t="b">
         <v>0</v>
@@ -10136,13 +10148,13 @@
         <v>179</v>
       </c>
       <c r="C312" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D312" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E312">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F312" t="b">
         <v>0</v>
@@ -10162,13 +10174,13 @@
         <v>179</v>
       </c>
       <c r="C313" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D313" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E313">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F313" t="b">
         <v>0</v>
@@ -10188,13 +10200,13 @@
         <v>179</v>
       </c>
       <c r="C314" t="s">
-        <v>183</v>
+        <v>477</v>
       </c>
       <c r="D314" t="s">
-        <v>70</v>
+        <v>478</v>
       </c>
       <c r="E314">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F314" t="b">
         <v>0</v>
@@ -10214,7 +10226,7 @@
         <v>179</v>
       </c>
       <c r="C315" t="s">
-        <v>182</v>
+        <v>477</v>
       </c>
       <c r="D315" t="s">
         <v>42</v>
@@ -10240,10 +10252,10 @@
         <v>179</v>
       </c>
       <c r="C316" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D316" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="E316">
         <v>5</v>
@@ -10269,10 +10281,10 @@
         <v>182</v>
       </c>
       <c r="D317" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E317">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F317" t="b">
         <v>0</v>
@@ -10292,10 +10304,10 @@
         <v>179</v>
       </c>
       <c r="C318" t="s">
-        <v>483</v>
+        <v>182</v>
       </c>
       <c r="D318" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -10318,7 +10330,7 @@
         <v>179</v>
       </c>
       <c r="C319" t="s">
-        <v>485</v>
+        <v>182</v>
       </c>
       <c r="D319" t="s">
         <v>70</v>
@@ -10344,7 +10356,7 @@
         <v>179</v>
       </c>
       <c r="C320" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D320" t="s">
         <v>70</v>
@@ -10362,10 +10374,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B321" t="s">
+        <v>179</v>
+      </c>
+      <c r="C321" t="s">
+        <v>485</v>
+      </c>
+      <c r="D321" t="s">
+        <v>70</v>
+      </c>
+      <c r="E321">
+        <v>5</v>
+      </c>
+      <c r="F321" t="b">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B322" t="s">
+        <v>179</v>
+      </c>
+      <c r="C322" t="s">
+        <v>487</v>
+      </c>
+      <c r="D322" t="s">
+        <v>70</v>
+      </c>
+      <c r="E322">
+        <v>5</v>
+      </c>
+      <c r="F322" t="b">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H320">
-    <sortCondition ref="B2:B320"/>
-    <sortCondition ref="C2:C320"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H322">
+    <sortCondition ref="B2:B322"/>
+    <sortCondition ref="C2:C322"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mesbg_options.xlsx
+++ b/src/mesbg_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033CD335-0997-411B-87A4-D6E59A73B963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D064306-F3B5-4E6D-98EC-BE76F036D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C0E6438-1EB7-4493-91C9-83873EACB085}"/>
   </bookViews>
@@ -2040,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}">
   <dimension ref="A1:H322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A322"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,10 +2819,10 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2871,13 +2871,13 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2897,13 +2897,13 @@
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -3157,10 +3157,10 @@
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>164</v>
       </c>
       <c r="D265" t="s">
-        <v>532</v>
+        <v>134</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F265" t="b">
         <v>0</v>
@@ -8955,10 +8955,10 @@
         <v>164</v>
       </c>
       <c r="D266" t="s">
-        <v>134</v>
+        <v>532</v>
       </c>
       <c r="E266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F266" t="b">
         <v>0</v>
@@ -9917,10 +9917,10 @@
         <v>180</v>
       </c>
       <c r="D303" t="s">
-        <v>462</v>
+        <v>42</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F303" t="b">
         <v>0</v>
@@ -9943,10 +9943,10 @@
         <v>180</v>
       </c>
       <c r="D304" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="E304">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F304" t="b">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>180</v>
       </c>
       <c r="D305" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="E305">
         <v>5</v>
@@ -9995,7 +9995,7 @@
         <v>180</v>
       </c>
       <c r="D306" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E306">
         <v>5</v>
@@ -10021,10 +10021,10 @@
         <v>180</v>
       </c>
       <c r="D307" t="s">
-        <v>70</v>
+        <v>462</v>
       </c>
       <c r="E307">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F307" t="b">
         <v>0</v>
@@ -10430,6 +10430,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H322">
     <sortCondition ref="B2:B322"/>
     <sortCondition ref="C2:C322"/>
+    <sortCondition descending="1" ref="E2:E322"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mesbg_options.xlsx
+++ b/src/mesbg_options.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D064306-F3B5-4E6D-98EC-BE76F036D03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA088F56-AADD-4842-9913-591DD8C946ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C0E6438-1EB7-4493-91C9-83873EACB085}"/>
   </bookViews>
   <sheets>
     <sheet name="options" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">options!$A$1:$H$343</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="568">
   <si>
     <t>faction</t>
   </si>
@@ -74,9 +77,6 @@
     <t>Dwarf Engineer Captain</t>
   </si>
   <si>
-    <t>Flaming Munitions</t>
-  </si>
-  <si>
     <t>Additional Crew</t>
   </si>
   <si>
@@ -1644,6 +1644,105 @@
   </si>
   <si>
     <t>OPT0321</t>
+  </si>
+  <si>
+    <t>Ringwraith</t>
+  </si>
+  <si>
+    <t>Orc Tracker</t>
+  </si>
+  <si>
+    <t>Mordor War Catapult</t>
+  </si>
+  <si>
+    <t>Orc Engineer Captain</t>
+  </si>
+  <si>
+    <t>Severed heads</t>
+  </si>
+  <si>
+    <t>Mordor Siege Bow</t>
+  </si>
+  <si>
+    <t>Uruk-Hai Captain</t>
+  </si>
+  <si>
+    <t>Uruk-Hai Engineer Captain</t>
+  </si>
+  <si>
+    <t>Superior Construction</t>
+  </si>
+  <si>
+    <t>Isengard Assault Ballista</t>
+  </si>
+  <si>
+    <t>Uruk-Hai Demolition Team</t>
+  </si>
+  <si>
+    <t>Equip additional Flaming Brand</t>
+  </si>
+  <si>
+    <t>OPT0322</t>
+  </si>
+  <si>
+    <t>OPT0323</t>
+  </si>
+  <si>
+    <t>OPT0324</t>
+  </si>
+  <si>
+    <t>OPT0325</t>
+  </si>
+  <si>
+    <t>OPT0326</t>
+  </si>
+  <si>
+    <t>OPT0327</t>
+  </si>
+  <si>
+    <t>OPT0328</t>
+  </si>
+  <si>
+    <t>OPT0329</t>
+  </si>
+  <si>
+    <t>OPT0330</t>
+  </si>
+  <si>
+    <t>OPT0331</t>
+  </si>
+  <si>
+    <t>OPT0332</t>
+  </si>
+  <si>
+    <t>OPT0333</t>
+  </si>
+  <si>
+    <t>OPT0334</t>
+  </si>
+  <si>
+    <t>OPT0335</t>
+  </si>
+  <si>
+    <t>OPT0336</t>
+  </si>
+  <si>
+    <t>OPT0337</t>
+  </si>
+  <si>
+    <t>OPT0338</t>
+  </si>
+  <si>
+    <t>OPT0339</t>
+  </si>
+  <si>
+    <t>OPT0340</t>
+  </si>
+  <si>
+    <t>OPT0341</t>
+  </si>
+  <si>
+    <t>OPT0342</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}">
-  <dimension ref="A1:H322"/>
+  <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="C319" sqref="C319"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2071,18 +2170,18 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2108,7 +2207,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2134,7 +2233,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2160,7 +2259,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -2186,7 +2285,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -2195,7 +2294,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>479</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -2212,7 +2311,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2221,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -2238,13 +2337,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -2264,16 +2363,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2290,16 +2389,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -2316,16 +2415,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2342,16 +2441,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2368,16 +2467,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2394,16 +2493,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
       </c>
       <c r="E14">
         <v>30</v>
@@ -2420,13 +2519,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -2446,16 +2545,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2472,13 +2571,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -2498,16 +2597,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2524,16 +2623,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -2550,16 +2649,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
       </c>
       <c r="E20">
         <v>25</v>
@@ -2576,16 +2675,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -2602,13 +2701,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -2628,16 +2727,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -2654,13 +2753,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -2680,16 +2779,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
         <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
       </c>
       <c r="E25">
         <v>15</v>
@@ -2706,16 +2805,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2732,16 +2831,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2758,16 +2857,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>15</v>
@@ -2784,13 +2883,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -2810,16 +2909,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2836,16 +2935,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
         <v>34</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2862,13 +2961,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -2888,16 +2987,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2914,16 +3013,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2940,16 +3039,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>30</v>
@@ -2966,13 +3065,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
         <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -2992,16 +3091,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -3018,16 +3117,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>37</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3044,16 +3143,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>15</v>
@@ -3070,16 +3169,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -3096,16 +3195,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>41</v>
-      </c>
-      <c r="D41" t="s">
-        <v>42</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -3122,19 +3221,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>544</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="E42">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -3148,19 +3247,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>544</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>543</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -3174,19 +3273,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>544</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3195,24 +3294,24 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -3226,19 +3325,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -3252,19 +3351,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -3278,19 +3377,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E48">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -3304,19 +3403,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -3330,22 +3429,22 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3356,19 +3455,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>541</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3382,19 +3481,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>541</v>
       </c>
       <c r="D52" t="s">
-        <v>464</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3408,13 +3507,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>541</v>
       </c>
       <c r="D53" t="s">
         <v>51</v>
@@ -3434,19 +3533,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>545</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>546</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3460,19 +3559,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3486,19 +3585,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3512,19 +3611,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -3538,16 +3637,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3564,19 +3663,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -3590,19 +3689,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -3616,16 +3715,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -3642,16 +3741,16 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E62">
         <v>5</v>
@@ -3668,19 +3767,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
         <v>25</v>
-      </c>
-      <c r="E63">
-        <v>15</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3694,22 +3793,22 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3720,19 +3819,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3746,19 +3845,19 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E66">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3772,22 +3871,22 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
         <v>57</v>
       </c>
-      <c r="C67" t="s">
-        <v>63</v>
-      </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3798,19 +3897,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
         <v>57</v>
       </c>
-      <c r="C68" t="s">
-        <v>63</v>
-      </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3824,19 +3923,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
         <v>57</v>
       </c>
-      <c r="C69" t="s">
-        <v>64</v>
-      </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E69">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3850,19 +3949,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E70">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3876,22 +3975,22 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -3902,19 +4001,19 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3928,19 +4027,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3954,22 +4053,22 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E74">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3980,19 +4079,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E75">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -4006,19 +4105,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -4032,19 +4131,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D77" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -4058,22 +4157,22 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4084,19 +4183,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D79" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -4110,19 +4209,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -4136,19 +4235,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -4162,19 +4261,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D82" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -4188,19 +4287,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E83">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -4214,22 +4313,22 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -4240,19 +4339,19 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D85" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -4266,19 +4365,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -4292,19 +4391,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -4318,19 +4417,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E88">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -4344,19 +4443,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D89" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E89">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -4370,19 +4469,19 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -4396,45 +4495,45 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E91">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -4448,19 +4547,19 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D93" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E93">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -4474,19 +4573,19 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D94" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -4500,19 +4599,19 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" t="s">
         <v>77</v>
       </c>
-      <c r="C95" t="s">
-        <v>83</v>
-      </c>
       <c r="D95" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -4526,19 +4625,19 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -4552,19 +4651,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C97" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -4578,42 +4677,42 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E98">
+        <v>7</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>5</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -4630,19 +4729,19 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -4656,19 +4755,19 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -4682,22 +4781,22 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D102" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4708,19 +4807,19 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C103" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E103">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
@@ -4734,16 +4833,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E104">
         <v>10</v>
@@ -4760,16 +4859,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C105" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -4786,16 +4885,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C106" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D106" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -4812,16 +4911,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D107" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -4838,19 +4937,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C108" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D108" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108">
         <v>7</v>
-      </c>
-      <c r="E108">
-        <v>5</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -4864,22 +4963,22 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D109" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E109">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -4890,19 +4989,19 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B110" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
-        <v>479</v>
+        <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E110">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -4916,19 +5015,19 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
-        <v>479</v>
+        <v>87</v>
       </c>
       <c r="D111" t="s">
-        <v>480</v>
+        <v>41</v>
       </c>
       <c r="E111">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -4942,19 +5041,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C112" t="s">
-        <v>479</v>
+        <v>87</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -4963,24 +5062,24 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C113" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D113" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E113">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -4994,19 +5093,19 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C114" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
@@ -5020,19 +5119,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C115" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D115" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E115">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
@@ -5046,19 +5145,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C116" t="s">
-        <v>482</v>
+        <v>88</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E116">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
@@ -5072,19 +5171,19 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C117" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D117" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E117">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -5098,19 +5197,19 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C118" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D118" t="s">
-        <v>59</v>
+        <v>479</v>
       </c>
       <c r="E118">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
@@ -5124,19 +5223,19 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C119" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D119" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E119">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
@@ -5145,24 +5244,24 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C120" t="s">
-        <v>482</v>
+        <v>90</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E120">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -5176,19 +5275,19 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C121" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -5202,19 +5301,19 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C122" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
@@ -5228,22 +5327,22 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C123" t="s">
-        <v>95</v>
+        <v>481</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -5254,19 +5353,19 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B124" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C124" t="s">
-        <v>95</v>
+        <v>481</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -5280,19 +5379,19 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C125" t="s">
-        <v>95</v>
+        <v>481</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
@@ -5306,16 +5405,16 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C126" t="s">
-        <v>96</v>
+        <v>481</v>
       </c>
       <c r="D126" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -5332,19 +5431,19 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C127" t="s">
-        <v>97</v>
+        <v>481</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
@@ -5358,19 +5457,19 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C128" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D128" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E128">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -5384,19 +5483,19 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C129" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E129">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
@@ -5410,16 +5509,16 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C130" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -5436,13 +5535,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C131" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -5462,13 +5561,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C132" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
@@ -5488,19 +5587,19 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B133" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C133" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D133" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E133">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
@@ -5514,19 +5613,19 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B134" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C134" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D134" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="E134">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
@@ -5540,19 +5639,19 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C135" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D135" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="E135">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
@@ -5566,19 +5665,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B136" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C136" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D136" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E136">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
@@ -5592,22 +5691,22 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B137" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C137" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D137" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E137">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -5618,19 +5717,19 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B138" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C138" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D138" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -5644,19 +5743,19 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B139" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C139" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
@@ -5670,16 +5769,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B140" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C140" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D140" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E140">
         <v>30</v>
@@ -5696,16 +5795,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B141" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C141" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D141" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E141">
         <v>25</v>
@@ -5722,19 +5821,19 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B142" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C142" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D142" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="E142">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -5748,19 +5847,19 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B143" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C143" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D143" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
@@ -5774,19 +5873,19 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B144" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C144" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D144" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
@@ -5800,16 +5899,16 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B145" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C145" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E145">
         <v>5</v>
@@ -5826,19 +5925,19 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B146" t="s">
+        <v>103</v>
+      </c>
+      <c r="C146" t="s">
         <v>104</v>
       </c>
-      <c r="C146" t="s">
-        <v>109</v>
-      </c>
       <c r="D146" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E146">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
@@ -5852,19 +5951,19 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B147" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C147" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E147">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -5878,19 +5977,19 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C148" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E148">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
@@ -5904,19 +6003,19 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B149" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C149" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D149" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="E149">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -5930,19 +6029,19 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B150" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C150" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D150" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="E150">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
@@ -5956,19 +6055,19 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B151" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C151" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D151" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E151">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
@@ -5982,19 +6081,19 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B152" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C152" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D152" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E152">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -6008,19 +6107,19 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B153" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C153" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D153" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E153">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
@@ -6034,19 +6133,19 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B154" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C154" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
@@ -6060,19 +6159,19 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C155" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
@@ -6086,19 +6185,19 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B156" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C156" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="E156">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F156" t="b">
         <v>0</v>
@@ -6112,19 +6211,19 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B157" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C157" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D157" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="E157">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
@@ -6138,19 +6237,19 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B158" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C158" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D158" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="E158">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F158" t="b">
         <v>0</v>
@@ -6164,19 +6263,19 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B159" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C159" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D159" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E159">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
@@ -6190,19 +6289,19 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C160" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D160" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F160" t="b">
         <v>0</v>
@@ -6216,13 +6315,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B161" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C161" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
@@ -6242,16 +6341,16 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B162" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C162" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D162" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -6268,16 +6367,16 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B163" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C163" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D163" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="E163">
         <v>5</v>
@@ -6294,16 +6393,16 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B164" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C164" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E164">
         <v>5</v>
@@ -6320,19 +6419,19 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B165" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C165" t="s">
-        <v>118</v>
+        <v>540</v>
       </c>
       <c r="D165" t="s">
-        <v>52</v>
+        <v>538</v>
       </c>
       <c r="E165">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F165" t="b">
         <v>0</v>
@@ -6346,19 +6445,19 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B166" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C166" t="s">
-        <v>122</v>
+        <v>540</v>
       </c>
       <c r="D166" t="s">
-        <v>20</v>
+        <v>479</v>
       </c>
       <c r="E166">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F166" t="b">
         <v>0</v>
@@ -6372,19 +6471,19 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B167" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C167" t="s">
-        <v>122</v>
+        <v>540</v>
       </c>
       <c r="D167" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E167">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -6393,24 +6492,24 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B168" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C168" t="s">
-        <v>484</v>
+        <v>115</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="E168">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F168" t="b">
         <v>0</v>
@@ -6424,19 +6523,19 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B169" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C169" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D169" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E169">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F169" t="b">
         <v>0</v>
@@ -6450,19 +6549,19 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B170" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C170" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D170" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E170">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F170" t="b">
         <v>0</v>
@@ -6476,19 +6575,19 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B171" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C171" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
       </c>
       <c r="E171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F171" t="b">
         <v>0</v>
@@ -6502,19 +6601,19 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B172" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C172" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D172" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="E172">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F172" t="b">
         <v>0</v>
@@ -6528,19 +6627,19 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B173" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C173" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D173" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="E173">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F173" t="b">
         <v>0</v>
@@ -6554,22 +6653,22 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B174" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C174" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D174" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -6580,19 +6679,19 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B175" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C175" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -6606,19 +6705,19 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B176" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C176" t="s">
-        <v>125</v>
+        <v>537</v>
       </c>
       <c r="D176" t="s">
-        <v>8</v>
+        <v>538</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
@@ -6632,19 +6731,19 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B177" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C177" t="s">
-        <v>125</v>
+        <v>537</v>
       </c>
       <c r="D177" t="s">
-        <v>52</v>
+        <v>479</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
@@ -6658,19 +6757,19 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B178" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C178" t="s">
-        <v>126</v>
+        <v>537</v>
       </c>
       <c r="D178" t="s">
-        <v>127</v>
+        <v>539</v>
       </c>
       <c r="E178">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
@@ -6684,16 +6783,16 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B179" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C179" t="s">
-        <v>126</v>
+        <v>537</v>
       </c>
       <c r="D179" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E179">
         <v>5</v>
@@ -6705,24 +6804,24 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B180" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C180" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D180" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="E180">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
@@ -6736,19 +6835,19 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B181" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C181" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D181" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="E181">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
@@ -6762,19 +6861,19 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B182" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C182" t="s">
-        <v>128</v>
+        <v>483</v>
       </c>
       <c r="D182" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E182">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
@@ -6788,19 +6887,19 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B183" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C183" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D183" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="E183">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
@@ -6814,19 +6913,19 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B184" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C184" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D184" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E184">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
@@ -6840,19 +6939,19 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B185" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C185" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D185" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E185">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
@@ -6866,16 +6965,16 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B186" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C186" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D186" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E186">
         <v>10</v>
@@ -6892,19 +6991,19 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B187" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C187" t="s">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="D187" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="E187">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -6918,19 +7017,19 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B188" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C188" t="s">
-        <v>488</v>
+        <v>124</v>
       </c>
       <c r="D188" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="E188">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
@@ -6944,22 +7043,22 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B189" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C189" t="s">
-        <v>488</v>
+        <v>124</v>
       </c>
       <c r="D189" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="E189">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -6970,19 +7069,19 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B190" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C190" t="s">
-        <v>488</v>
+        <v>124</v>
       </c>
       <c r="D190" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
@@ -6996,19 +7095,19 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B191" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C191" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D191" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="E191">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -7022,19 +7121,19 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B192" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C192" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D192" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="E192">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
@@ -7048,19 +7147,19 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B193" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C193" t="s">
-        <v>130</v>
+        <v>535</v>
       </c>
       <c r="D193" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="E193">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
@@ -7074,19 +7173,19 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B194" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C194" t="s">
-        <v>131</v>
+        <v>535</v>
       </c>
       <c r="D194" t="s">
         <v>112</v>
       </c>
       <c r="E194">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -7100,19 +7199,19 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B195" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C195" t="s">
-        <v>131</v>
+        <v>535</v>
       </c>
       <c r="D195" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="E195">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -7126,19 +7225,19 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B196" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C196" t="s">
-        <v>131</v>
+        <v>535</v>
       </c>
       <c r="D196" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="E196">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
@@ -7147,50 +7246,50 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B197" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C197" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="D197" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="E197">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B198" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C198" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="D198" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="E198">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
@@ -7199,24 +7298,24 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B199" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C199" t="s">
-        <v>489</v>
+        <v>125</v>
       </c>
       <c r="D199" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E199">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
@@ -7230,19 +7329,19 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B200" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C200" t="s">
-        <v>489</v>
+        <v>125</v>
       </c>
       <c r="D200" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E200">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
@@ -7256,16 +7355,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B201" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C201" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D201" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E201">
         <v>70</v>
@@ -7282,16 +7381,16 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B202" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C202" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D202" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E202">
         <v>50</v>
@@ -7308,16 +7407,16 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B203" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C203" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E203">
         <v>10</v>
@@ -7334,19 +7433,19 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B204" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C204" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D204" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E204">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
@@ -7360,22 +7459,22 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B205" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C205" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D205" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -7386,19 +7485,19 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B206" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C206" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F206" t="b">
         <v>0</v>
@@ -7412,19 +7511,19 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B207" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C207" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D207" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F207" t="b">
         <v>0</v>
@@ -7438,19 +7537,19 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B208" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C208" t="s">
-        <v>135</v>
+        <v>487</v>
       </c>
       <c r="D208" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E208">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F208" t="b">
         <v>0</v>
@@ -7464,16 +7563,16 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B209" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C209" t="s">
-        <v>135</v>
+        <v>487</v>
       </c>
       <c r="D209" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E209">
         <v>50</v>
@@ -7490,19 +7589,19 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B210" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C210" t="s">
-        <v>135</v>
+        <v>487</v>
       </c>
       <c r="D210" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="E210">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
@@ -7516,19 +7615,19 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B211" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C211" t="s">
-        <v>135</v>
+        <v>487</v>
       </c>
       <c r="D211" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E211">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
@@ -7542,19 +7641,19 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B212" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C212" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D212" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="E212">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
@@ -7568,19 +7667,19 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B213" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C213" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D213" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E213">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -7594,19 +7693,19 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B214" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C214" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D214" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="E214">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
@@ -7620,19 +7719,19 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B215" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C215" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D215" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="E215">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F215" t="b">
         <v>0</v>
@@ -7641,50 +7740,50 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B216" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C216" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D216" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E216">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B217" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C217" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D217" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="E217">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F217" t="b">
         <v>0</v>
@@ -7693,24 +7792,24 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>142</v>
+        <v>400</v>
+      </c>
+      <c r="B218" t="s">
+        <v>103</v>
       </c>
       <c r="C218" t="s">
-        <v>143</v>
+        <v>488</v>
       </c>
       <c r="D218" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E218">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F218" t="b">
         <v>0</v>
@@ -7724,19 +7823,19 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>142</v>
+        <v>401</v>
+      </c>
+      <c r="B219" t="s">
+        <v>103</v>
       </c>
       <c r="C219" t="s">
-        <v>143</v>
+        <v>488</v>
       </c>
       <c r="D219" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E219">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F219" t="b">
         <v>0</v>
@@ -7750,19 +7849,19 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>142</v>
+        <v>402</v>
+      </c>
+      <c r="B220" t="s">
+        <v>103</v>
       </c>
       <c r="C220" t="s">
-        <v>143</v>
+        <v>488</v>
       </c>
       <c r="D220" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E220">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F220" t="b">
         <v>0</v>
@@ -7776,19 +7875,19 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>142</v>
+        <v>403</v>
+      </c>
+      <c r="B221" t="s">
+        <v>103</v>
       </c>
       <c r="C221" t="s">
-        <v>145</v>
+        <v>488</v>
       </c>
       <c r="D221" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="E221">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F221" t="b">
         <v>0</v>
@@ -7802,19 +7901,19 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>142</v>
+        <v>404</v>
+      </c>
+      <c r="B222" t="s">
+        <v>103</v>
       </c>
       <c r="C222" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D222" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="E222">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F222" t="b">
         <v>0</v>
@@ -7828,19 +7927,19 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>142</v>
+        <v>405</v>
+      </c>
+      <c r="B223" t="s">
+        <v>103</v>
       </c>
       <c r="C223" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D223" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="E223">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F223" t="b">
         <v>0</v>
@@ -7854,16 +7953,16 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>142</v>
+        <v>406</v>
+      </c>
+      <c r="B224" t="s">
+        <v>103</v>
       </c>
       <c r="C224" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D224" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="E224">
         <v>10</v>
@@ -7880,19 +7979,19 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>142</v>
+        <v>407</v>
+      </c>
+      <c r="B225" t="s">
+        <v>103</v>
       </c>
       <c r="C225" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D225" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F225" t="b">
         <v>0</v>
@@ -7906,22 +8005,22 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>142</v>
+        <v>408</v>
+      </c>
+      <c r="B226" t="s">
+        <v>103</v>
       </c>
       <c r="C226" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D226" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="E226">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -7932,19 +8031,19 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>142</v>
+        <v>409</v>
+      </c>
+      <c r="B227" t="s">
+        <v>103</v>
       </c>
       <c r="C227" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D227" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="E227">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F227" t="b">
         <v>0</v>
@@ -7958,19 +8057,19 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>142</v>
+        <v>410</v>
+      </c>
+      <c r="B228" t="s">
+        <v>103</v>
       </c>
       <c r="C228" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D228" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E228">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F228" t="b">
         <v>0</v>
@@ -7984,19 +8083,19 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>142</v>
+        <v>411</v>
+      </c>
+      <c r="B229" t="s">
+        <v>103</v>
       </c>
       <c r="C229" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D229" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="E229">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -8010,19 +8109,19 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>142</v>
+        <v>412</v>
+      </c>
+      <c r="B230" t="s">
+        <v>103</v>
       </c>
       <c r="C230" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D230" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E230">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F230" t="b">
         <v>0</v>
@@ -8036,19 +8135,19 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>142</v>
+        <v>413</v>
+      </c>
+      <c r="B231" t="s">
+        <v>103</v>
       </c>
       <c r="C231" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D231" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="E231">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F231" t="b">
         <v>0</v>
@@ -8062,19 +8161,19 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>142</v>
+        <v>414</v>
+      </c>
+      <c r="B232" t="s">
+        <v>103</v>
       </c>
       <c r="C232" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E232">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F232" t="b">
         <v>0</v>
@@ -8088,19 +8187,19 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>142</v>
+        <v>415</v>
+      </c>
+      <c r="B233" t="s">
+        <v>103</v>
       </c>
       <c r="C233" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D233" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E233">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F233" t="b">
         <v>0</v>
@@ -8114,19 +8213,19 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>142</v>
+        <v>416</v>
+      </c>
+      <c r="B234" t="s">
+        <v>103</v>
       </c>
       <c r="C234" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D234" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="E234">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
@@ -8140,22 +8239,22 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>142</v>
+        <v>417</v>
+      </c>
+      <c r="B235" t="s">
+        <v>103</v>
       </c>
       <c r="C235" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D235" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E235">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -8166,19 +8265,19 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>142</v>
+        <v>418</v>
+      </c>
+      <c r="B236" t="s">
+        <v>103</v>
       </c>
       <c r="C236" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F236" t="b">
         <v>0</v>
@@ -8187,50 +8286,50 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>142</v>
+        <v>419</v>
+      </c>
+      <c r="B237" t="s">
+        <v>103</v>
       </c>
       <c r="C237" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D237" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B238" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="C238" t="s">
-        <v>470</v>
+        <v>134</v>
       </c>
       <c r="D238" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="E238">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F238" t="b">
         <v>0</v>
@@ -8239,27 +8338,27 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B239" t="s">
-        <v>154</v>
+        <v>421</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C239" t="s">
-        <v>470</v>
+        <v>142</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E239">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -8270,19 +8369,19 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B240" t="s">
-        <v>154</v>
+        <v>422</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C240" t="s">
-        <v>470</v>
+        <v>142</v>
       </c>
       <c r="D240" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E240">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F240" t="b">
         <v>0</v>
@@ -8296,16 +8395,16 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B241" t="s">
-        <v>154</v>
+        <v>423</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C241" t="s">
-        <v>470</v>
+        <v>142</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="E241">
         <v>5</v>
@@ -8322,19 +8421,19 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B242" t="s">
-        <v>154</v>
+        <v>424</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C242" t="s">
-        <v>470</v>
+        <v>144</v>
       </c>
       <c r="D242" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E242">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F242" t="b">
         <v>0</v>
@@ -8348,16 +8447,16 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B243" t="s">
-        <v>154</v>
+        <v>425</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C243" t="s">
-        <v>471</v>
+        <v>144</v>
       </c>
       <c r="D243" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E243">
         <v>10</v>
@@ -8374,19 +8473,19 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C244" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D244" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E244">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F244" t="b">
         <v>0</v>
@@ -8400,16 +8499,16 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B245" t="s">
-        <v>154</v>
+        <v>427</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C245" t="s">
-        <v>472</v>
+        <v>144</v>
       </c>
       <c r="D245" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="E245">
         <v>10</v>
@@ -8426,19 +8525,19 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C246" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D246" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E246">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F246" t="b">
         <v>0</v>
@@ -8452,16 +8551,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C247" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D247" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E247">
         <v>10</v>
@@ -8478,19 +8577,19 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C248" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="E248">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F248" t="b">
         <v>0</v>
@@ -8504,19 +8603,19 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C249" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D249" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E249">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
@@ -8530,16 +8629,16 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C250" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D250" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E250">
         <v>10</v>
@@ -8556,16 +8655,16 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C251" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D251" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="E251">
         <v>5</v>
@@ -8582,16 +8681,16 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C252" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D252" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E252">
         <v>5</v>
@@ -8608,16 +8707,16 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C253" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D253" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="E253">
         <v>5</v>
@@ -8634,19 +8733,19 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B254" t="s">
-        <v>154</v>
+        <v>436</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C254" t="s">
-        <v>473</v>
+        <v>152</v>
       </c>
       <c r="D254" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E254">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F254" t="b">
         <v>0</v>
@@ -8660,19 +8759,19 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C255" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D255" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="E255">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F255" t="b">
         <v>0</v>
@@ -8686,22 +8785,22 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C256" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D256" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E256">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -8712,19 +8811,19 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C257" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D257" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E257">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F257" t="b">
         <v>0</v>
@@ -8738,19 +8837,19 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C258" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D258" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F258" t="b">
         <v>0</v>
@@ -8764,16 +8863,16 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B259" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C259" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D259" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E259">
         <v>10</v>
@@ -8790,22 +8889,22 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>154</v>
+        <v>442</v>
+      </c>
+      <c r="B260" t="s">
+        <v>153</v>
       </c>
       <c r="C260" t="s">
-        <v>162</v>
+        <v>469</v>
       </c>
       <c r="D260" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E260">
         <v>5</v>
       </c>
       <c r="F260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -8816,16 +8915,16 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>154</v>
+        <v>443</v>
+      </c>
+      <c r="B261" t="s">
+        <v>153</v>
       </c>
       <c r="C261" t="s">
-        <v>162</v>
+        <v>469</v>
       </c>
       <c r="D261" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="E261">
         <v>5</v>
@@ -8842,13 +8941,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>154</v>
+        <v>444</v>
+      </c>
+      <c r="B262" t="s">
+        <v>153</v>
       </c>
       <c r="C262" t="s">
-        <v>162</v>
+        <v>469</v>
       </c>
       <c r="D262" t="s">
         <v>7</v>
@@ -8868,19 +8967,19 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>154</v>
+        <v>445</v>
+      </c>
+      <c r="B263" t="s">
+        <v>153</v>
       </c>
       <c r="C263" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
       <c r="D263" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E263">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F263" t="b">
         <v>0</v>
@@ -8894,19 +8993,19 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>154</v>
+        <v>446</v>
+      </c>
+      <c r="B264" t="s">
+        <v>153</v>
       </c>
       <c r="C264" t="s">
-        <v>164</v>
+        <v>470</v>
       </c>
       <c r="D264" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E264">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F264" t="b">
         <v>0</v>
@@ -8920,19 +9019,19 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C265" t="s">
         <v>154</v>
       </c>
-      <c r="C265" t="s">
-        <v>164</v>
-      </c>
       <c r="D265" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E265">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F265" t="b">
         <v>0</v>
@@ -8946,19 +9045,19 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>154</v>
+        <v>448</v>
+      </c>
+      <c r="B266" t="s">
+        <v>153</v>
       </c>
       <c r="C266" t="s">
-        <v>164</v>
+        <v>471</v>
       </c>
       <c r="D266" t="s">
-        <v>532</v>
+        <v>41</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F266" t="b">
         <v>0</v>
@@ -8972,19 +9071,19 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B267" t="s">
-        <v>154</v>
+        <v>449</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C267" t="s">
-        <v>486</v>
+        <v>155</v>
       </c>
       <c r="D267" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E267">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F267" t="b">
         <v>0</v>
@@ -8998,19 +9097,19 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C268" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D268" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E268">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F268" t="b">
         <v>0</v>
@@ -9024,16 +9123,16 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C269" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D269" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E269">
         <v>5</v>
@@ -9050,19 +9149,19 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C270" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D270" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E270">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F270" t="b">
         <v>0</v>
@@ -9076,19 +9175,19 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C271" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D271" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E271">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F271" t="b">
         <v>0</v>
@@ -9102,19 +9201,19 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C272" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D272" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="E272">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F272" t="b">
         <v>0</v>
@@ -9128,16 +9227,16 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C273" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D273" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E273">
         <v>5</v>
@@ -9154,16 +9253,16 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C274" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="E274">
         <v>5</v>
@@ -9180,16 +9279,16 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B275" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C275" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="D275" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E275">
         <v>10</v>
@@ -9206,19 +9305,19 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B276" t="s">
-        <v>154</v>
+        <v>464</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C276" t="s">
-        <v>490</v>
+        <v>158</v>
       </c>
       <c r="D276" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="E276">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F276" t="b">
         <v>0</v>
@@ -9232,19 +9331,19 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B277" t="s">
-        <v>154</v>
+        <v>465</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C277" t="s">
-        <v>490</v>
+        <v>158</v>
       </c>
       <c r="D277" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E277">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F277" t="b">
         <v>0</v>
@@ -9258,19 +9357,19 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C278" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D278" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E278">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F278" t="b">
         <v>0</v>
@@ -9284,19 +9383,19 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C279" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D279" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E279">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F279" t="b">
         <v>0</v>
@@ -9310,19 +9409,19 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>154</v>
+        <v>490</v>
+      </c>
+      <c r="B280" t="s">
+        <v>153</v>
       </c>
       <c r="C280" t="s">
-        <v>167</v>
+        <v>480</v>
       </c>
       <c r="D280" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E280">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F280" t="b">
         <v>0</v>
@@ -9336,19 +9435,19 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C281" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D281" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F281" t="b">
         <v>0</v>
@@ -9362,19 +9461,19 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C282" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D282" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F282" t="b">
         <v>0</v>
@@ -9388,22 +9487,22 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C283" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -9414,19 +9513,19 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C284" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D284" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E284">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F284" t="b">
         <v>0</v>
@@ -9440,19 +9539,19 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C285" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D285" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="E285">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F285" t="b">
         <v>0</v>
@@ -9466,19 +9565,19 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C286" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D286" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="E286">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F286" t="b">
         <v>0</v>
@@ -9492,19 +9591,19 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C287" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D287" t="s">
-        <v>170</v>
+        <v>531</v>
       </c>
       <c r="E287">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F287" t="b">
         <v>0</v>
@@ -9518,16 +9617,16 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>168</v>
+        <v>498</v>
+      </c>
+      <c r="B288" t="s">
+        <v>153</v>
       </c>
       <c r="C288" t="s">
-        <v>171</v>
+        <v>485</v>
       </c>
       <c r="D288" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -9544,13 +9643,13 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C289" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D289" t="s">
         <v>6</v>
@@ -9570,22 +9669,22 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C290" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D290" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="E290">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -9596,19 +9695,19 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C291" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D291" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="E291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F291" t="b">
         <v>0</v>
@@ -9622,19 +9721,19 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C292" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D292" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E292">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F292" t="b">
         <v>0</v>
@@ -9648,19 +9747,19 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C293" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D293" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E293">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F293" t="b">
         <v>0</v>
@@ -9674,22 +9773,22 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C294" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D294" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -9700,19 +9799,19 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C295" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D295" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E295">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F295" t="b">
         <v>0</v>
@@ -9726,16 +9825,16 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>168</v>
+        <v>506</v>
+      </c>
+      <c r="B296" t="s">
+        <v>153</v>
       </c>
       <c r="C296" t="s">
-        <v>175</v>
+        <v>489</v>
       </c>
       <c r="D296" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E296">
         <v>10</v>
@@ -9752,16 +9851,16 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>168</v>
+        <v>507</v>
+      </c>
+      <c r="B297" t="s">
+        <v>153</v>
       </c>
       <c r="C297" t="s">
-        <v>175</v>
+        <v>489</v>
       </c>
       <c r="D297" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="E297">
         <v>5</v>
@@ -9778,19 +9877,19 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>168</v>
+        <v>508</v>
+      </c>
+      <c r="B298" t="s">
+        <v>153</v>
       </c>
       <c r="C298" t="s">
-        <v>176</v>
+        <v>489</v>
       </c>
       <c r="D298" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="E298">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F298" t="b">
         <v>0</v>
@@ -9804,19 +9903,19 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C299" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D299" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="E299">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F299" t="b">
         <v>0</v>
@@ -9830,22 +9929,22 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C300" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D300" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -9856,19 +9955,19 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C301" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D301" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F301" t="b">
         <v>0</v>
@@ -9882,19 +9981,19 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B302" t="s">
-        <v>179</v>
+        <v>512</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C302" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D302" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="E302">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F302" t="b">
         <v>0</v>
@@ -9908,19 +10007,19 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B303" t="s">
-        <v>179</v>
+        <v>513</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C303" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D303" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
       <c r="E303">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F303" t="b">
         <v>0</v>
@@ -9934,22 +10033,22 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B304" t="s">
-        <v>179</v>
+        <v>514</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="C304" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D304" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="E304">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -9960,19 +10059,19 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B305" t="s">
-        <v>179</v>
+        <v>515</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C305" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E305">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F305" t="b">
         <v>0</v>
@@ -9986,16 +10085,16 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B306" t="s">
-        <v>179</v>
+        <v>516</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C306" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D306" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="E306">
         <v>5</v>
@@ -10012,19 +10111,19 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B307" t="s">
-        <v>179</v>
+        <v>517</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C307" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D307" t="s">
-        <v>462</v>
+        <v>41</v>
       </c>
       <c r="E307">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F307" t="b">
         <v>0</v>
@@ -10038,19 +10137,19 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B308" t="s">
-        <v>179</v>
+        <v>518</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C308" t="s">
-        <v>469</v>
+        <v>170</v>
       </c>
       <c r="D308" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="E308">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F308" t="b">
         <v>0</v>
@@ -10064,16 +10163,16 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="B309" t="s">
-        <v>179</v>
+        <v>519</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C309" t="s">
-        <v>469</v>
+        <v>170</v>
       </c>
       <c r="D309" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="E309">
         <v>5</v>
@@ -10090,19 +10189,19 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B310" t="s">
-        <v>179</v>
+        <v>520</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C310" t="s">
-        <v>469</v>
+        <v>172</v>
       </c>
       <c r="D310" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E310">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F310" t="b">
         <v>0</v>
@@ -10116,22 +10215,22 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B311" t="s">
-        <v>179</v>
+        <v>521</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C311" t="s">
-        <v>474</v>
+        <v>172</v>
       </c>
       <c r="D311" t="s">
-        <v>475</v>
+        <v>169</v>
       </c>
       <c r="E311">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -10142,19 +10241,19 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="B312" t="s">
-        <v>179</v>
+        <v>522</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C312" t="s">
-        <v>474</v>
+        <v>172</v>
       </c>
       <c r="D312" t="s">
-        <v>476</v>
+        <v>171</v>
       </c>
       <c r="E312">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F312" t="b">
         <v>0</v>
@@ -10168,19 +10267,19 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="B313" t="s">
-        <v>179</v>
+        <v>523</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C313" t="s">
-        <v>474</v>
+        <v>173</v>
       </c>
       <c r="D313" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E313">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F313" t="b">
         <v>0</v>
@@ -10194,16 +10293,16 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B314" t="s">
-        <v>179</v>
+        <v>524</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C314" t="s">
-        <v>477</v>
+        <v>173</v>
       </c>
       <c r="D314" t="s">
-        <v>478</v>
+        <v>6</v>
       </c>
       <c r="E314">
         <v>25</v>
@@ -10220,22 +10319,22 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="B315" t="s">
-        <v>179</v>
+        <v>525</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C315" t="s">
-        <v>477</v>
+        <v>173</v>
       </c>
       <c r="D315" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="E315">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -10246,19 +10345,19 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B316" t="s">
-        <v>179</v>
+        <v>526</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C316" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D316" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E316">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F316" t="b">
         <v>0</v>
@@ -10272,16 +10371,16 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B317" t="s">
-        <v>179</v>
+        <v>527</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C317" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D317" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E317">
         <v>10</v>
@@ -10298,16 +10397,16 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B318" t="s">
-        <v>179</v>
+        <v>528</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C318" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D318" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -10324,19 +10423,19 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B319" t="s">
-        <v>179</v>
+        <v>529</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C319" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D319" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E319">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F319" t="b">
         <v>0</v>
@@ -10350,16 +10449,16 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B320" t="s">
-        <v>179</v>
+        <v>530</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C320" t="s">
-        <v>483</v>
+        <v>175</v>
       </c>
       <c r="D320" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="E320">
         <v>5</v>
@@ -10376,22 +10475,22 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B321" t="s">
-        <v>179</v>
+        <v>533</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C321" t="s">
-        <v>485</v>
+        <v>176</v>
       </c>
       <c r="D321" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="E321">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -10402,31 +10501,583 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="B322" t="s">
+        <v>534</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C322" t="s">
+        <v>176</v>
+      </c>
+      <c r="D322" t="s">
+        <v>177</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322" t="b">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B323" t="s">
+        <v>178</v>
+      </c>
+      <c r="C323" t="s">
         <v>179</v>
       </c>
-      <c r="C322" t="s">
-        <v>487</v>
-      </c>
-      <c r="D322" t="s">
-        <v>70</v>
-      </c>
-      <c r="E322">
+      <c r="D323" t="s">
+        <v>180</v>
+      </c>
+      <c r="E323">
+        <v>40</v>
+      </c>
+      <c r="F323" t="b">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B324" t="s">
+        <v>178</v>
+      </c>
+      <c r="C324" t="s">
+        <v>179</v>
+      </c>
+      <c r="D324" t="s">
+        <v>41</v>
+      </c>
+      <c r="E324">
+        <v>10</v>
+      </c>
+      <c r="F324" t="b">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B325" t="s">
+        <v>178</v>
+      </c>
+      <c r="C325" t="s">
+        <v>179</v>
+      </c>
+      <c r="D325" t="s">
+        <v>157</v>
+      </c>
+      <c r="E325">
         <v>5</v>
       </c>
-      <c r="F322" t="b">
-        <v>0</v>
-      </c>
-      <c r="G322">
-        <v>0</v>
-      </c>
-      <c r="H322">
+      <c r="F325" t="b">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B326" t="s">
+        <v>178</v>
+      </c>
+      <c r="C326" t="s">
+        <v>179</v>
+      </c>
+      <c r="D326" t="s">
+        <v>27</v>
+      </c>
+      <c r="E326">
+        <v>5</v>
+      </c>
+      <c r="F326" t="b">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B327" t="s">
+        <v>178</v>
+      </c>
+      <c r="C327" t="s">
+        <v>179</v>
+      </c>
+      <c r="D327" t="s">
+        <v>69</v>
+      </c>
+      <c r="E327">
+        <v>5</v>
+      </c>
+      <c r="F327" t="b">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B328" t="s">
+        <v>178</v>
+      </c>
+      <c r="C328" t="s">
+        <v>179</v>
+      </c>
+      <c r="D328" t="s">
+        <v>461</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328" t="b">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B329" t="s">
+        <v>178</v>
+      </c>
+      <c r="C329" t="s">
+        <v>468</v>
+      </c>
+      <c r="D329" t="s">
+        <v>41</v>
+      </c>
+      <c r="E329">
+        <v>10</v>
+      </c>
+      <c r="F329" t="b">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B330" t="s">
+        <v>178</v>
+      </c>
+      <c r="C330" t="s">
+        <v>468</v>
+      </c>
+      <c r="D330" t="s">
+        <v>69</v>
+      </c>
+      <c r="E330">
+        <v>5</v>
+      </c>
+      <c r="F330" t="b">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B331" t="s">
+        <v>178</v>
+      </c>
+      <c r="C331" t="s">
+        <v>468</v>
+      </c>
+      <c r="D331" t="s">
+        <v>7</v>
+      </c>
+      <c r="E331">
+        <v>5</v>
+      </c>
+      <c r="F331" t="b">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B332" t="s">
+        <v>178</v>
+      </c>
+      <c r="C332" t="s">
+        <v>473</v>
+      </c>
+      <c r="D332" t="s">
+        <v>474</v>
+      </c>
+      <c r="E332">
+        <v>15</v>
+      </c>
+      <c r="F332" t="b">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B333" t="s">
+        <v>178</v>
+      </c>
+      <c r="C333" t="s">
+        <v>473</v>
+      </c>
+      <c r="D333" t="s">
+        <v>475</v>
+      </c>
+      <c r="E333">
+        <v>5</v>
+      </c>
+      <c r="F333" t="b">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B334" t="s">
+        <v>178</v>
+      </c>
+      <c r="C334" t="s">
+        <v>473</v>
+      </c>
+      <c r="D334" t="s">
+        <v>69</v>
+      </c>
+      <c r="E334">
+        <v>5</v>
+      </c>
+      <c r="F334" t="b">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B335" t="s">
+        <v>178</v>
+      </c>
+      <c r="C335" t="s">
+        <v>476</v>
+      </c>
+      <c r="D335" t="s">
+        <v>477</v>
+      </c>
+      <c r="E335">
+        <v>25</v>
+      </c>
+      <c r="F335" t="b">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B336" t="s">
+        <v>178</v>
+      </c>
+      <c r="C336" t="s">
+        <v>476</v>
+      </c>
+      <c r="D336" t="s">
+        <v>41</v>
+      </c>
+      <c r="E336">
+        <v>10</v>
+      </c>
+      <c r="F336" t="b">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B337" t="s">
+        <v>178</v>
+      </c>
+      <c r="C337" t="s">
+        <v>182</v>
+      </c>
+      <c r="D337" t="s">
+        <v>69</v>
+      </c>
+      <c r="E337">
+        <v>5</v>
+      </c>
+      <c r="F337" t="b">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B338" t="s">
+        <v>178</v>
+      </c>
+      <c r="C338" t="s">
+        <v>181</v>
+      </c>
+      <c r="D338" t="s">
+        <v>41</v>
+      </c>
+      <c r="E338">
+        <v>10</v>
+      </c>
+      <c r="F338" t="b">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B339" t="s">
+        <v>178</v>
+      </c>
+      <c r="C339" t="s">
+        <v>181</v>
+      </c>
+      <c r="D339" t="s">
+        <v>157</v>
+      </c>
+      <c r="E339">
+        <v>5</v>
+      </c>
+      <c r="F339" t="b">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B340" t="s">
+        <v>178</v>
+      </c>
+      <c r="C340" t="s">
+        <v>181</v>
+      </c>
+      <c r="D340" t="s">
+        <v>69</v>
+      </c>
+      <c r="E340">
+        <v>5</v>
+      </c>
+      <c r="F340" t="b">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B341" t="s">
+        <v>178</v>
+      </c>
+      <c r="C341" t="s">
+        <v>482</v>
+      </c>
+      <c r="D341" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341">
+        <v>5</v>
+      </c>
+      <c r="F341" t="b">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B342" t="s">
+        <v>178</v>
+      </c>
+      <c r="C342" t="s">
+        <v>484</v>
+      </c>
+      <c r="D342" t="s">
+        <v>69</v>
+      </c>
+      <c r="E342">
+        <v>5</v>
+      </c>
+      <c r="F342" t="b">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B343" t="s">
+        <v>178</v>
+      </c>
+      <c r="C343" t="s">
+        <v>486</v>
+      </c>
+      <c r="D343" t="s">
+        <v>69</v>
+      </c>
+      <c r="E343">
+        <v>5</v>
+      </c>
+      <c r="F343" t="b">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H343" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H343">
+      <sortCondition ref="B2:B343"/>
+      <sortCondition ref="C2:C343"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H322">
     <sortCondition ref="B2:B322"/>
     <sortCondition ref="C2:C322"/>

--- a/src/mesbg_options.xlsx
+++ b/src/mesbg_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B91AF99-0E10-48B0-80C3-112D8D901611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E447136-6C72-4D49-8094-687AF84D6E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0E6438-1EB7-4493-91C9-83873EACB085}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="options" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">options!$A$1:$H$344</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">options!$A$1:$H$364</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="597">
   <si>
     <t>faction</t>
   </si>
@@ -1752,6 +1752,84 @@
   </si>
   <si>
     <t>The Serpent Horde</t>
+  </si>
+  <si>
+    <t>The Return of the King</t>
+  </si>
+  <si>
+    <t>Host of the Dragon Emperor</t>
+  </si>
+  <si>
+    <t>OPT0344</t>
+  </si>
+  <si>
+    <t>OPT0345</t>
+  </si>
+  <si>
+    <t>OPT0346</t>
+  </si>
+  <si>
+    <t>OPT0347</t>
+  </si>
+  <si>
+    <t>OPT0348</t>
+  </si>
+  <si>
+    <t>OPT0349</t>
+  </si>
+  <si>
+    <t>OPT0350</t>
+  </si>
+  <si>
+    <t>OPT0351</t>
+  </si>
+  <si>
+    <t>OPT0352</t>
+  </si>
+  <si>
+    <t>OPT0353</t>
+  </si>
+  <si>
+    <t>OPT0354</t>
+  </si>
+  <si>
+    <t>OPT0355</t>
+  </si>
+  <si>
+    <t>OPT0356</t>
+  </si>
+  <si>
+    <t>OPT0357</t>
+  </si>
+  <si>
+    <t>OPT0358</t>
+  </si>
+  <si>
+    <t>OPT0359</t>
+  </si>
+  <si>
+    <t>OPT0360</t>
+  </si>
+  <si>
+    <t>OPT0361</t>
+  </si>
+  <si>
+    <t>OPT0362</t>
+  </si>
+  <si>
+    <t>OPT0363</t>
+  </si>
+  <si>
+    <t>OPT0364</t>
+  </si>
+  <si>
+    <t>OPT0365</t>
+  </si>
+  <si>
+    <t>OPT0366</t>
+  </si>
+  <si>
+    <t>OPT0367</t>
   </si>
 </sst>
 </file>
@@ -2146,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}">
-  <dimension ref="A1:H344"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="B342" sqref="B342"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2427,16 +2505,16 @@
         <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2453,16 +2531,16 @@
         <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C12" t="s">
-        <v>538</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>536</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -2479,16 +2557,16 @@
         <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C13" t="s">
-        <v>538</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2505,16 +2583,16 @@
         <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C14" t="s">
-        <v>538</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2523,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2531,13 +2609,13 @@
         <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>25</v>
@@ -2557,16 +2635,16 @@
         <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2583,16 +2661,16 @@
         <v>193</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2609,16 +2687,16 @@
         <v>194</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>456</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2635,16 +2713,16 @@
         <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2661,16 +2739,16 @@
         <v>196</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2687,16 +2765,16 @@
         <v>197</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C21" t="s">
-        <v>535</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2713,16 +2791,16 @@
         <v>198</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C22" t="s">
-        <v>535</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2739,16 +2817,16 @@
         <v>199</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C23" t="s">
-        <v>535</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2765,19 +2843,19 @@
         <v>200</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C24" t="s">
-        <v>539</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>540</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2791,16 +2869,16 @@
         <v>201</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>456</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2820,13 +2898,13 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2846,16 +2924,16 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>538</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>536</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2872,13 +2950,13 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>538</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>537</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -2898,13 +2976,13 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>538</v>
       </c>
       <c r="D29" t="s">
-        <v>457</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -2913,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2924,13 +3002,13 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -2950,13 +3028,13 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -2976,13 +3054,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -3002,13 +3080,13 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -3028,16 +3106,16 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3054,13 +3132,13 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -3080,13 +3158,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>535</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -3103,16 +3181,16 @@
         <v>213</v>
       </c>
       <c r="B37" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>535</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -3129,16 +3207,16 @@
         <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>535</v>
       </c>
       <c r="D38" t="s">
-        <v>473</v>
+        <v>47</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -3155,16 +3233,16 @@
         <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>539</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>540</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -3173,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3181,16 +3259,16 @@
         <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -3207,16 +3285,16 @@
         <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -3233,19 +3311,19 @@
         <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3259,19 +3337,19 @@
         <v>219</v>
       </c>
       <c r="B43" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3285,16 +3363,16 @@
         <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>457</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3311,16 +3389,16 @@
         <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -3337,16 +3415,16 @@
         <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -3363,16 +3441,16 @@
         <v>223</v>
       </c>
       <c r="B47" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -3389,19 +3467,19 @@
         <v>224</v>
       </c>
       <c r="B48" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3415,19 +3493,19 @@
         <v>225</v>
       </c>
       <c r="B49" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3441,13 +3519,13 @@
         <v>226</v>
       </c>
       <c r="B50" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3467,16 +3545,16 @@
         <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>562</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3493,16 +3571,16 @@
         <v>228</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3519,16 +3597,16 @@
         <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>473</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3545,16 +3623,16 @@
         <v>230</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3563,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -3571,16 +3649,16 @@
         <v>231</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3597,13 +3675,13 @@
         <v>232</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E56">
         <v>5</v>
@@ -3623,13 +3701,13 @@
         <v>233</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E57">
         <v>5</v>
@@ -3649,19 +3727,19 @@
         <v>234</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3675,19 +3753,19 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3701,13 +3779,13 @@
         <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3727,10 +3805,10 @@
         <v>237</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -3753,10 +3831,10 @@
         <v>238</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -3779,16 +3857,16 @@
         <v>239</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -3805,10 +3883,10 @@
         <v>240</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -3831,13 +3909,13 @@
         <v>241</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C65" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3857,16 +3935,16 @@
         <v>242</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>562</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>563</v>
       </c>
       <c r="E66">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3886,13 +3964,13 @@
         <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E67">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -3912,13 +3990,13 @@
         <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3938,10 +4016,10 @@
         <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E69">
         <v>5</v>
@@ -3964,13 +4042,13 @@
         <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3990,10 +4068,10 @@
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -4016,10 +4094,10 @@
         <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E72">
         <v>5</v>
@@ -4042,13 +4120,13 @@
         <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -4068,16 +4146,16 @@
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4094,13 +4172,13 @@
         <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E75">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -4120,16 +4198,16 @@
         <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4146,13 +4224,13 @@
         <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -4172,16 +4250,16 @@
         <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4198,10 +4276,10 @@
         <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4221,16 +4299,16 @@
         <v>256</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E80">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -4247,16 +4325,16 @@
         <v>257</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D81" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E81">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -4273,16 +4351,16 @@
         <v>258</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E82">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -4299,17 +4377,17 @@
         <v>259</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83">
         <v>10</v>
       </c>
-      <c r="E83">
-        <v>7</v>
-      </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
@@ -4317,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -4325,13 +4403,13 @@
         <v>260</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -4351,16 +4429,16 @@
         <v>261</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D85" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E85">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -4377,16 +4455,16 @@
         <v>262</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -4403,13 +4481,13 @@
         <v>263</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C87" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -4429,13 +4507,13 @@
         <v>264</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -4455,16 +4533,16 @@
         <v>265</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -4481,16 +4559,16 @@
         <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C90" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -4507,19 +4585,19 @@
         <v>267</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4533,16 +4611,16 @@
         <v>268</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D92" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -4559,16 +4637,16 @@
         <v>269</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E93">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -4585,19 +4663,19 @@
         <v>270</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D94" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -4614,7 +4692,7 @@
         <v>72</v>
       </c>
       <c r="C95" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D95" t="s">
         <v>21</v>
@@ -4640,13 +4718,13 @@
         <v>72</v>
       </c>
       <c r="C96" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D96" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -4666,13 +4744,13 @@
         <v>72</v>
       </c>
       <c r="C97" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -4692,13 +4770,13 @@
         <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D98" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -4707,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -4718,10 +4796,10 @@
         <v>72</v>
       </c>
       <c r="C99" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -4744,13 +4822,13 @@
         <v>72</v>
       </c>
       <c r="C100" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -4770,13 +4848,13 @@
         <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D101" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E101">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -4796,13 +4874,13 @@
         <v>72</v>
       </c>
       <c r="C102" t="s">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="D102" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E102">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
@@ -4822,13 +4900,13 @@
         <v>72</v>
       </c>
       <c r="C103" t="s">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="D103" t="s">
-        <v>473</v>
+        <v>6</v>
       </c>
       <c r="E103">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
@@ -4848,14 +4926,14 @@
         <v>72</v>
       </c>
       <c r="C104" t="s">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="D104" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104">
         <v>10</v>
       </c>
-      <c r="E104">
-        <v>7</v>
-      </c>
       <c r="F104" t="b">
         <v>0</v>
       </c>
@@ -4863,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -4874,13 +4952,13 @@
         <v>72</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D105" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="E105">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
@@ -4900,13 +4978,13 @@
         <v>72</v>
       </c>
       <c r="C106" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D106" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -4926,13 +5004,13 @@
         <v>72</v>
       </c>
       <c r="C107" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D107" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -4952,13 +5030,13 @@
         <v>72</v>
       </c>
       <c r="C108" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E108">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -4978,16 +5056,16 @@
         <v>72</v>
       </c>
       <c r="C109" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E109">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5004,13 +5082,13 @@
         <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>475</v>
+        <v>83</v>
       </c>
       <c r="D110" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E110">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -5030,13 +5108,13 @@
         <v>72</v>
       </c>
       <c r="C111" t="s">
-        <v>475</v>
+        <v>83</v>
       </c>
       <c r="D111" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E111">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -5056,10 +5134,10 @@
         <v>72</v>
       </c>
       <c r="C112" t="s">
-        <v>475</v>
+        <v>83</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -5082,13 +5160,13 @@
         <v>72</v>
       </c>
       <c r="C113" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E113">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -5108,13 +5186,13 @@
         <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D114" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
@@ -5134,16 +5212,16 @@
         <v>72</v>
       </c>
       <c r="C115" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5160,13 +5238,13 @@
         <v>72</v>
       </c>
       <c r="C116" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
@@ -5186,13 +5264,13 @@
         <v>72</v>
       </c>
       <c r="C117" t="s">
-        <v>90</v>
+        <v>472</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -5212,13 +5290,13 @@
         <v>72</v>
       </c>
       <c r="C118" t="s">
-        <v>91</v>
+        <v>472</v>
       </c>
       <c r="D118" t="s">
-        <v>65</v>
+        <v>473</v>
       </c>
       <c r="E118">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
@@ -5238,14 +5316,14 @@
         <v>72</v>
       </c>
       <c r="C119" t="s">
-        <v>92</v>
+        <v>472</v>
       </c>
       <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119">
         <v>7</v>
       </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
@@ -5253,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -5264,13 +5342,13 @@
         <v>72</v>
       </c>
       <c r="C120" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E120">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -5290,13 +5368,13 @@
         <v>72</v>
       </c>
       <c r="C121" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E121">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -5316,16 +5394,16 @@
         <v>72</v>
       </c>
       <c r="C122" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -5342,13 +5420,13 @@
         <v>72</v>
       </c>
       <c r="C123" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="D123" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
@@ -5368,13 +5446,13 @@
         <v>72</v>
       </c>
       <c r="C124" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -5391,16 +5469,16 @@
         <v>301</v>
       </c>
       <c r="B125" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C125" t="s">
-        <v>99</v>
+        <v>475</v>
       </c>
       <c r="D125" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E125">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
@@ -5417,16 +5495,16 @@
         <v>302</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C126" t="s">
-        <v>101</v>
+        <v>475</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E126">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
@@ -5443,16 +5521,16 @@
         <v>303</v>
       </c>
       <c r="B127" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C127" t="s">
-        <v>101</v>
+        <v>475</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E127">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
@@ -5469,16 +5547,16 @@
         <v>304</v>
       </c>
       <c r="B128" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C128" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D128" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E128">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -5495,16 +5573,16 @@
         <v>305</v>
       </c>
       <c r="B129" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C129" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D129" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
@@ -5521,19 +5599,19 @@
         <v>306</v>
       </c>
       <c r="B130" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C130" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D130" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -5547,16 +5625,16 @@
         <v>307</v>
       </c>
       <c r="B131" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C131" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D131" t="s">
         <v>6</v>
       </c>
       <c r="E131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
@@ -5573,16 +5651,16 @@
         <v>308</v>
       </c>
       <c r="B132" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C132" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D132" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
@@ -5599,13 +5677,13 @@
         <v>309</v>
       </c>
       <c r="B133" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C133" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E133">
         <v>5</v>
@@ -5625,16 +5703,16 @@
         <v>310</v>
       </c>
       <c r="B134" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C134" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
@@ -5651,16 +5729,16 @@
         <v>311</v>
       </c>
       <c r="B135" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C135" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D135" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E135">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
@@ -5677,16 +5755,16 @@
         <v>312</v>
       </c>
       <c r="B136" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C136" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D136" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="E136">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
@@ -5703,19 +5781,19 @@
         <v>313</v>
       </c>
       <c r="B137" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C137" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E137">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -5729,16 +5807,16 @@
         <v>314</v>
       </c>
       <c r="B138" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C138" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D138" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E138">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -5755,16 +5833,16 @@
         <v>315</v>
       </c>
       <c r="B139" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C139" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E139">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
@@ -5784,13 +5862,13 @@
         <v>98</v>
       </c>
       <c r="C140" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
@@ -5810,13 +5888,13 @@
         <v>98</v>
       </c>
       <c r="C141" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
@@ -5836,13 +5914,13 @@
         <v>98</v>
       </c>
       <c r="C142" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -5862,13 +5940,13 @@
         <v>98</v>
       </c>
       <c r="C143" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D143" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
@@ -5888,13 +5966,13 @@
         <v>98</v>
       </c>
       <c r="C144" t="s">
-        <v>534</v>
+        <v>100</v>
       </c>
       <c r="D144" t="s">
-        <v>532</v>
+        <v>33</v>
       </c>
       <c r="E144">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
@@ -5914,13 +5992,13 @@
         <v>98</v>
       </c>
       <c r="C145" t="s">
-        <v>534</v>
+        <v>100</v>
       </c>
       <c r="D145" t="s">
-        <v>473</v>
+        <v>47</v>
       </c>
       <c r="E145">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
@@ -5940,10 +6018,10 @@
         <v>98</v>
       </c>
       <c r="C146" t="s">
-        <v>534</v>
+        <v>102</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E146">
         <v>5</v>
@@ -5955,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -5966,13 +6044,13 @@
         <v>98</v>
       </c>
       <c r="C147" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D147" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="E147">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -5992,13 +6070,13 @@
         <v>98</v>
       </c>
       <c r="C148" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E148">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
@@ -6018,13 +6096,13 @@
         <v>98</v>
       </c>
       <c r="C149" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D149" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -6044,13 +6122,13 @@
         <v>98</v>
       </c>
       <c r="C150" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D150" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
@@ -6070,13 +6148,13 @@
         <v>98</v>
       </c>
       <c r="C151" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D151" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
@@ -6096,13 +6174,13 @@
         <v>98</v>
       </c>
       <c r="C152" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D152" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="E152">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -6122,13 +6200,13 @@
         <v>98</v>
       </c>
       <c r="C153" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D153" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E153">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
@@ -6148,13 +6226,13 @@
         <v>98</v>
       </c>
       <c r="C154" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D154" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E154">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
@@ -6174,13 +6252,13 @@
         <v>98</v>
       </c>
       <c r="C155" t="s">
-        <v>531</v>
+        <v>109</v>
       </c>
       <c r="D155" t="s">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="E155">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
@@ -6200,13 +6278,13 @@
         <v>98</v>
       </c>
       <c r="C156" t="s">
-        <v>531</v>
+        <v>109</v>
       </c>
       <c r="D156" t="s">
-        <v>473</v>
+        <v>7</v>
       </c>
       <c r="E156">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F156" t="b">
         <v>0</v>
@@ -6226,10 +6304,10 @@
         <v>98</v>
       </c>
       <c r="C157" t="s">
-        <v>531</v>
+        <v>108</v>
       </c>
       <c r="D157" t="s">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="E157">
         <v>5</v>
@@ -6252,10 +6330,10 @@
         <v>98</v>
       </c>
       <c r="C158" t="s">
-        <v>531</v>
+        <v>108</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E158">
         <v>5</v>
@@ -6267,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -6278,13 +6356,13 @@
         <v>98</v>
       </c>
       <c r="C159" t="s">
-        <v>116</v>
+        <v>534</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>532</v>
       </c>
       <c r="E159">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
@@ -6304,13 +6382,13 @@
         <v>98</v>
       </c>
       <c r="C160" t="s">
-        <v>116</v>
+        <v>534</v>
       </c>
       <c r="D160" t="s">
-        <v>5</v>
+        <v>473</v>
       </c>
       <c r="E160">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F160" t="b">
         <v>0</v>
@@ -6330,13 +6408,13 @@
         <v>98</v>
       </c>
       <c r="C161" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="D161" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E161">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -6345,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -6356,13 +6434,13 @@
         <v>98</v>
       </c>
       <c r="C162" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D162" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="E162">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
@@ -6382,13 +6460,13 @@
         <v>98</v>
       </c>
       <c r="C163" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D163" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="E163">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -6408,13 +6486,13 @@
         <v>98</v>
       </c>
       <c r="C164" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D164" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="E164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
@@ -6434,13 +6512,13 @@
         <v>98</v>
       </c>
       <c r="C165" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D165" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E165">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F165" t="b">
         <v>0</v>
@@ -6460,13 +6538,13 @@
         <v>98</v>
       </c>
       <c r="C166" t="s">
-        <v>530</v>
+        <v>114</v>
       </c>
       <c r="D166" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="E166">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F166" t="b">
         <v>0</v>
@@ -6486,13 +6564,13 @@
         <v>98</v>
       </c>
       <c r="C167" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D167" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="E167">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -6512,16 +6590,16 @@
         <v>98</v>
       </c>
       <c r="C168" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D168" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -6538,13 +6616,13 @@
         <v>98</v>
       </c>
       <c r="C169" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D169" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F169" t="b">
         <v>0</v>
@@ -6564,13 +6642,13 @@
         <v>98</v>
       </c>
       <c r="C170" t="s">
-        <v>119</v>
+        <v>531</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>532</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F170" t="b">
         <v>0</v>
@@ -6590,13 +6668,13 @@
         <v>98</v>
       </c>
       <c r="C171" t="s">
-        <v>119</v>
+        <v>531</v>
       </c>
       <c r="D171" t="s">
-        <v>47</v>
+        <v>473</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F171" t="b">
         <v>0</v>
@@ -6616,13 +6694,13 @@
         <v>98</v>
       </c>
       <c r="C172" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D172" t="s">
-        <v>106</v>
+        <v>533</v>
       </c>
       <c r="E172">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="F172" t="b">
         <v>0</v>
@@ -6642,13 +6720,13 @@
         <v>98</v>
       </c>
       <c r="C173" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D173" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E173">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F173" t="b">
         <v>0</v>
@@ -6657,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -6668,13 +6746,13 @@
         <v>98</v>
       </c>
       <c r="C174" t="s">
-        <v>529</v>
+        <v>116</v>
       </c>
       <c r="D174" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E174">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F174" t="b">
         <v>0</v>
@@ -6694,13 +6772,13 @@
         <v>98</v>
       </c>
       <c r="C175" t="s">
-        <v>529</v>
+        <v>116</v>
       </c>
       <c r="D175" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="E175">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -6709,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -6720,22 +6798,22 @@
         <v>98</v>
       </c>
       <c r="C176" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
       <c r="D176" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="E176">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -6746,13 +6824,13 @@
         <v>98</v>
       </c>
       <c r="C177" t="s">
-        <v>529</v>
+        <v>117</v>
       </c>
       <c r="D177" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="E177">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
@@ -6761,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -6772,13 +6850,13 @@
         <v>98</v>
       </c>
       <c r="C178" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D178" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E178">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
@@ -6798,10 +6876,10 @@
         <v>98</v>
       </c>
       <c r="C179" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D179" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E179">
         <v>5</v>
@@ -6824,13 +6902,13 @@
         <v>98</v>
       </c>
       <c r="C180" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D180" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E180">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
@@ -6850,13 +6928,13 @@
         <v>98</v>
       </c>
       <c r="C181" t="s">
-        <v>122</v>
+        <v>530</v>
       </c>
       <c r="D181" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="E181">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
@@ -6876,13 +6954,13 @@
         <v>98</v>
       </c>
       <c r="C182" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D182" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E182">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
@@ -6902,16 +6980,16 @@
         <v>98</v>
       </c>
       <c r="C183" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D183" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E183">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -6928,13 +7006,13 @@
         <v>98</v>
       </c>
       <c r="C184" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D184" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E184">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
@@ -6954,13 +7032,13 @@
         <v>98</v>
       </c>
       <c r="C185" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E185">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
@@ -6980,13 +7058,13 @@
         <v>98</v>
       </c>
       <c r="C186" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D186" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E186">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
@@ -7006,13 +7084,13 @@
         <v>98</v>
       </c>
       <c r="C187" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="D187" t="s">
         <v>106</v>
       </c>
       <c r="E187">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -7032,7 +7110,7 @@
         <v>98</v>
       </c>
       <c r="C188" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="D188" t="s">
         <v>107</v>
@@ -7058,13 +7136,13 @@
         <v>98</v>
       </c>
       <c r="C189" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="D189" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E189">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
@@ -7084,13 +7162,13 @@
         <v>98</v>
       </c>
       <c r="C190" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="D190" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="E190">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
@@ -7099,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -7110,22 +7188,22 @@
         <v>98</v>
       </c>
       <c r="C191" t="s">
-        <v>124</v>
+        <v>529</v>
       </c>
       <c r="D191" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E191">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -7136,13 +7214,13 @@
         <v>98</v>
       </c>
       <c r="C192" t="s">
-        <v>124</v>
+        <v>529</v>
       </c>
       <c r="D192" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E192">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
@@ -7151,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -7162,10 +7240,10 @@
         <v>98</v>
       </c>
       <c r="C193" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D193" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="E193">
         <v>10</v>
@@ -7188,13 +7266,13 @@
         <v>98</v>
       </c>
       <c r="C194" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D194" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="E194">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -7214,13 +7292,13 @@
         <v>98</v>
       </c>
       <c r="C195" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D195" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E195">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -7240,13 +7318,13 @@
         <v>98</v>
       </c>
       <c r="C196" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D196" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="E196">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
@@ -7266,13 +7344,13 @@
         <v>98</v>
       </c>
       <c r="C197" t="s">
-        <v>482</v>
+        <v>122</v>
       </c>
       <c r="D197" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E197">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
@@ -7292,13 +7370,13 @@
         <v>98</v>
       </c>
       <c r="C198" t="s">
-        <v>482</v>
+        <v>123</v>
       </c>
       <c r="D198" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E198">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
@@ -7318,13 +7396,13 @@
         <v>98</v>
       </c>
       <c r="C199" t="s">
-        <v>482</v>
+        <v>123</v>
       </c>
       <c r="D199" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="E199">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
@@ -7344,13 +7422,13 @@
         <v>98</v>
       </c>
       <c r="C200" t="s">
-        <v>482</v>
+        <v>123</v>
       </c>
       <c r="D200" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E200">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
@@ -7370,13 +7448,13 @@
         <v>98</v>
       </c>
       <c r="C201" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D201" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E201">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -7396,13 +7474,13 @@
         <v>98</v>
       </c>
       <c r="C202" t="s">
-        <v>126</v>
+        <v>481</v>
       </c>
       <c r="D202" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E202">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
@@ -7422,13 +7500,13 @@
         <v>98</v>
       </c>
       <c r="C203" t="s">
-        <v>126</v>
+        <v>481</v>
       </c>
       <c r="D203" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="E203">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -7448,13 +7526,13 @@
         <v>98</v>
       </c>
       <c r="C204" t="s">
-        <v>127</v>
+        <v>481</v>
       </c>
       <c r="D204" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E204">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
@@ -7474,16 +7552,16 @@
         <v>98</v>
       </c>
       <c r="C205" t="s">
-        <v>127</v>
+        <v>481</v>
       </c>
       <c r="D205" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -7500,13 +7578,13 @@
         <v>98</v>
       </c>
       <c r="C206" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D206" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F206" t="b">
         <v>0</v>
@@ -7526,13 +7604,13 @@
         <v>98</v>
       </c>
       <c r="C207" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D207" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F207" t="b">
         <v>0</v>
@@ -7552,13 +7630,13 @@
         <v>98</v>
       </c>
       <c r="C208" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D208" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E208">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F208" t="b">
         <v>0</v>
@@ -7578,13 +7656,13 @@
         <v>98</v>
       </c>
       <c r="C209" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D209" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E209">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F209" t="b">
         <v>0</v>
@@ -7604,13 +7682,13 @@
         <v>98</v>
       </c>
       <c r="C210" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D210" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E210">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F210" t="b">
         <v>0</v>
@@ -7630,13 +7708,13 @@
         <v>98</v>
       </c>
       <c r="C211" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D211" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E211">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
@@ -7656,13 +7734,13 @@
         <v>98</v>
       </c>
       <c r="C212" t="s">
-        <v>129</v>
+        <v>482</v>
       </c>
       <c r="D212" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="E212">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
@@ -7682,13 +7760,13 @@
         <v>98</v>
       </c>
       <c r="C213" t="s">
-        <v>129</v>
+        <v>482</v>
       </c>
       <c r="D213" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E213">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -7708,13 +7786,13 @@
         <v>98</v>
       </c>
       <c r="C214" t="s">
-        <v>129</v>
+        <v>482</v>
       </c>
       <c r="D214" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="E214">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
@@ -7734,13 +7812,13 @@
         <v>98</v>
       </c>
       <c r="C215" t="s">
-        <v>129</v>
+        <v>482</v>
       </c>
       <c r="D215" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="E215">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F215" t="b">
         <v>0</v>
@@ -7749,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -7760,22 +7838,22 @@
         <v>98</v>
       </c>
       <c r="C216" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D216" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E216">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -7786,13 +7864,13 @@
         <v>98</v>
       </c>
       <c r="C217" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D217" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="E217">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F217" t="b">
         <v>0</v>
@@ -7801,21 +7879,21 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>136</v>
+      <c r="B218" t="s">
+        <v>98</v>
       </c>
       <c r="C218" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D218" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="E218">
         <v>10</v>
@@ -7834,17 +7912,17 @@
       <c r="A219" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>136</v>
+      <c r="B219" t="s">
+        <v>98</v>
       </c>
       <c r="C219" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D219" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F219" t="b">
         <v>0</v>
@@ -7860,20 +7938,20 @@
       <c r="A220" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>136</v>
+      <c r="B220" t="s">
+        <v>98</v>
       </c>
       <c r="C220" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D220" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="E220">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -7886,17 +7964,17 @@
       <c r="A221" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>136</v>
+      <c r="B221" t="s">
+        <v>98</v>
       </c>
       <c r="C221" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D221" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F221" t="b">
         <v>0</v>
@@ -7912,17 +7990,17 @@
       <c r="A222" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>136</v>
+      <c r="B222" t="s">
+        <v>98</v>
       </c>
       <c r="C222" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D222" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="E222">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F222" t="b">
         <v>0</v>
@@ -7938,17 +8016,17 @@
       <c r="A223" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>136</v>
+      <c r="B223" t="s">
+        <v>98</v>
       </c>
       <c r="C223" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D223" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="E223">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F223" t="b">
         <v>0</v>
@@ -7964,17 +8042,17 @@
       <c r="A224" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>136</v>
+      <c r="B224" t="s">
+        <v>98</v>
       </c>
       <c r="C224" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D224" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="E224">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F224" t="b">
         <v>0</v>
@@ -7990,17 +8068,17 @@
       <c r="A225" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>136</v>
+      <c r="B225" t="s">
+        <v>98</v>
       </c>
       <c r="C225" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D225" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="E225">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F225" t="b">
         <v>0</v>
@@ -8016,17 +8094,17 @@
       <c r="A226" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>136</v>
+      <c r="B226" t="s">
+        <v>98</v>
       </c>
       <c r="C226" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D226" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E226">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F226" t="b">
         <v>0</v>
@@ -8042,17 +8120,17 @@
       <c r="A227" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>136</v>
+      <c r="B227" t="s">
+        <v>98</v>
       </c>
       <c r="C227" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D227" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="E227">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F227" t="b">
         <v>0</v>
@@ -8068,14 +8146,14 @@
       <c r="A228" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>136</v>
+      <c r="B228" t="s">
+        <v>98</v>
       </c>
       <c r="C228" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D228" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E228">
         <v>10</v>
@@ -8094,17 +8172,17 @@
       <c r="A229" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>136</v>
+      <c r="B229" t="s">
+        <v>98</v>
       </c>
       <c r="C229" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D229" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="E229">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -8120,14 +8198,14 @@
       <c r="A230" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>136</v>
+      <c r="B230" t="s">
+        <v>98</v>
       </c>
       <c r="C230" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D230" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="E230">
         <v>5</v>
@@ -8139,21 +8217,21 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>136</v>
+      <c r="B231" t="s">
+        <v>98</v>
       </c>
       <c r="C231" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D231" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="E231">
         <v>5</v>
@@ -8162,24 +8240,24 @@
         <v>0</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>136</v>
+      <c r="B232" t="s">
+        <v>98</v>
       </c>
       <c r="C232" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D232" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="E232">
         <v>5</v>
@@ -8191,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -8202,13 +8280,13 @@
         <v>136</v>
       </c>
       <c r="C233" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D233" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="E233">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F233" t="b">
         <v>0</v>
@@ -8228,13 +8306,13 @@
         <v>136</v>
       </c>
       <c r="C234" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D234" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E234">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
@@ -8254,16 +8332,16 @@
         <v>136</v>
       </c>
       <c r="C235" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D235" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E235">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -8280,13 +8358,13 @@
         <v>136</v>
       </c>
       <c r="C236" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D236" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F236" t="b">
         <v>0</v>
@@ -8306,13 +8384,13 @@
         <v>136</v>
       </c>
       <c r="C237" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
@@ -8328,14 +8406,14 @@
       <c r="A238" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B238" t="s">
-        <v>148</v>
+      <c r="B238" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C238" t="s">
-        <v>463</v>
+        <v>139</v>
       </c>
       <c r="D238" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="E238">
         <v>10</v>
@@ -8354,20 +8432,20 @@
       <c r="A239" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B239" t="s">
-        <v>148</v>
+      <c r="B239" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C239" t="s">
-        <v>463</v>
+        <v>139</v>
       </c>
       <c r="D239" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="E239">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -8380,17 +8458,17 @@
       <c r="A240" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B240" t="s">
-        <v>148</v>
+      <c r="B240" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C240" t="s">
-        <v>463</v>
+        <v>143</v>
       </c>
       <c r="D240" t="s">
         <v>54</v>
       </c>
       <c r="E240">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F240" t="b">
         <v>0</v>
@@ -8406,17 +8484,17 @@
       <c r="A241" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B241" t="s">
-        <v>148</v>
+      <c r="B241" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C241" t="s">
-        <v>463</v>
+        <v>143</v>
       </c>
       <c r="D241" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E241">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F241" t="b">
         <v>0</v>
@@ -8432,17 +8510,17 @@
       <c r="A242" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B242" t="s">
-        <v>148</v>
+      <c r="B242" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C242" t="s">
-        <v>463</v>
+        <v>144</v>
       </c>
       <c r="D242" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E242">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F242" t="b">
         <v>0</v>
@@ -8458,14 +8536,14 @@
       <c r="A243" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B243" t="s">
-        <v>148</v>
+      <c r="B243" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C243" t="s">
-        <v>464</v>
+        <v>144</v>
       </c>
       <c r="D243" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="E243">
         <v>10</v>
@@ -8485,16 +8563,16 @@
         <v>420</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C244" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D244" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E244">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F244" t="b">
         <v>0</v>
@@ -8510,17 +8588,17 @@
       <c r="A245" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B245" t="s">
-        <v>148</v>
+      <c r="B245" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C245" t="s">
-        <v>465</v>
+        <v>146</v>
       </c>
       <c r="D245" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E245">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F245" t="b">
         <v>0</v>
@@ -8537,16 +8615,16 @@
         <v>422</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C246" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D246" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E246">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F246" t="b">
         <v>0</v>
@@ -8563,16 +8641,16 @@
         <v>423</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C247" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D247" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E247">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F247" t="b">
         <v>0</v>
@@ -8589,16 +8667,16 @@
         <v>424</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C248" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D248" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E248">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F248" t="b">
         <v>0</v>
@@ -8615,16 +8693,16 @@
         <v>425</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C249" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D249" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
@@ -8641,19 +8719,19 @@
         <v>426</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C250" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D250" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E250">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -8667,16 +8745,16 @@
         <v>427</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C251" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D251" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="E251">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F251" t="b">
         <v>0</v>
@@ -8693,16 +8771,16 @@
         <v>428</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C252" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E252">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F252" t="b">
         <v>0</v>
@@ -8718,17 +8796,17 @@
       <c r="A253" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" t="s">
         <v>148</v>
       </c>
       <c r="C253" t="s">
-        <v>151</v>
+        <v>463</v>
       </c>
       <c r="D253" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E253">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F253" t="b">
         <v>0</v>
@@ -8748,16 +8826,16 @@
         <v>148</v>
       </c>
       <c r="C254" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D254" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E254">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -8770,17 +8848,17 @@
       <c r="A255" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" t="s">
         <v>148</v>
       </c>
       <c r="C255" t="s">
-        <v>153</v>
+        <v>463</v>
       </c>
       <c r="D255" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="E255">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F255" t="b">
         <v>0</v>
@@ -8796,17 +8874,17 @@
       <c r="A256" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" t="s">
         <v>148</v>
       </c>
       <c r="C256" t="s">
-        <v>153</v>
+        <v>463</v>
       </c>
       <c r="D256" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E256">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F256" t="b">
         <v>0</v>
@@ -8822,17 +8900,17 @@
       <c r="A257" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" t="s">
         <v>148</v>
       </c>
       <c r="C257" t="s">
-        <v>155</v>
+        <v>463</v>
       </c>
       <c r="D257" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="E257">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F257" t="b">
         <v>0</v>
@@ -8848,17 +8926,17 @@
       <c r="A258" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" t="s">
         <v>148</v>
       </c>
       <c r="C258" t="s">
-        <v>155</v>
+        <v>464</v>
       </c>
       <c r="D258" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E258">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F258" t="b">
         <v>0</v>
@@ -8874,17 +8952,17 @@
       <c r="A259" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C259" t="s">
-        <v>474</v>
+        <v>149</v>
       </c>
       <c r="D259" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="E259">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F259" t="b">
         <v>0</v>
@@ -8900,17 +8978,17 @@
       <c r="A260" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" t="s">
         <v>148</v>
       </c>
       <c r="C260" t="s">
-        <v>156</v>
+        <v>465</v>
       </c>
       <c r="D260" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E260">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F260" t="b">
         <v>0</v>
@@ -8930,13 +9008,13 @@
         <v>148</v>
       </c>
       <c r="C261" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D261" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="E261">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F261" t="b">
         <v>0</v>
@@ -8956,13 +9034,13 @@
         <v>148</v>
       </c>
       <c r="C262" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D262" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E262">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F262" t="b">
         <v>0</v>
@@ -8982,13 +9060,13 @@
         <v>148</v>
       </c>
       <c r="C263" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D263" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E263">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F263" t="b">
         <v>0</v>
@@ -9008,13 +9086,13 @@
         <v>148</v>
       </c>
       <c r="C264" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D264" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="E264">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F264" t="b">
         <v>0</v>
@@ -9034,13 +9112,13 @@
         <v>148</v>
       </c>
       <c r="C265" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D265" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E265">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F265" t="b">
         <v>0</v>
@@ -9060,13 +9138,13 @@
         <v>148</v>
       </c>
       <c r="C266" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D266" t="s">
-        <v>525</v>
+        <v>152</v>
       </c>
       <c r="E266">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F266" t="b">
         <v>0</v>
@@ -9082,14 +9160,14 @@
       <c r="A267" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C267" t="s">
-        <v>479</v>
+        <v>151</v>
       </c>
       <c r="D267" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E267">
         <v>5</v>
@@ -9112,13 +9190,13 @@
         <v>148</v>
       </c>
       <c r="C268" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D268" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="E268">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F268" t="b">
         <v>0</v>
@@ -9134,17 +9212,17 @@
       <c r="A269" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" t="s">
         <v>148</v>
       </c>
       <c r="C269" t="s">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="D269" t="s">
         <v>37</v>
       </c>
       <c r="E269">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F269" t="b">
         <v>0</v>
@@ -9164,13 +9242,13 @@
         <v>148</v>
       </c>
       <c r="C270" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D270" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="E270">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F270" t="b">
         <v>0</v>
@@ -9190,13 +9268,13 @@
         <v>148</v>
       </c>
       <c r="C271" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D271" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E271">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F271" t="b">
         <v>0</v>
@@ -9216,7 +9294,7 @@
         <v>148</v>
       </c>
       <c r="C272" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D272" t="s">
         <v>37</v>
@@ -9242,10 +9320,10 @@
         <v>148</v>
       </c>
       <c r="C273" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D273" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E273">
         <v>5</v>
@@ -9264,17 +9342,17 @@
       <c r="A274" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" t="s">
         <v>148</v>
       </c>
       <c r="C274" t="s">
-        <v>160</v>
+        <v>474</v>
       </c>
       <c r="D274" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E274">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F274" t="b">
         <v>0</v>
@@ -9290,17 +9368,17 @@
       <c r="A275" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C275" t="s">
-        <v>483</v>
+        <v>156</v>
       </c>
       <c r="D275" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E275">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F275" t="b">
         <v>0</v>
@@ -9316,14 +9394,14 @@
       <c r="A276" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C276" t="s">
-        <v>483</v>
+        <v>156</v>
       </c>
       <c r="D276" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="E276">
         <v>5</v>
@@ -9342,14 +9420,14 @@
       <c r="A277" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C277" t="s">
-        <v>483</v>
+        <v>156</v>
       </c>
       <c r="D277" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="E277">
         <v>5</v>
@@ -9372,7 +9450,7 @@
         <v>148</v>
       </c>
       <c r="C278" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D278" t="s">
         <v>17</v>
@@ -9398,7 +9476,7 @@
         <v>148</v>
       </c>
       <c r="C279" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D279" t="s">
         <v>5</v>
@@ -9424,7 +9502,7 @@
         <v>148</v>
       </c>
       <c r="C280" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D280" t="s">
         <v>128</v>
@@ -9450,10 +9528,10 @@
         <v>148</v>
       </c>
       <c r="C281" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D281" t="s">
-        <v>6</v>
+        <v>525</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -9472,17 +9550,17 @@
       <c r="A282" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" t="s">
         <v>148</v>
       </c>
       <c r="C282" t="s">
-        <v>161</v>
+        <v>479</v>
       </c>
       <c r="D282" t="s">
-        <v>526</v>
+        <v>37</v>
       </c>
       <c r="E282">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F282" t="b">
         <v>0</v>
@@ -9502,16 +9580,16 @@
         <v>148</v>
       </c>
       <c r="C283" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D283" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E283">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -9524,17 +9602,17 @@
       <c r="A284" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B284" t="s">
-        <v>567</v>
+      <c r="B284" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C284" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="D284" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E284">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F284" t="b">
         <v>0</v>
@@ -9550,17 +9628,17 @@
       <c r="A285" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B285" t="s">
-        <v>567</v>
+      <c r="B285" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C285" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="D285" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="E285">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F285" t="b">
         <v>0</v>
@@ -9576,17 +9654,17 @@
       <c r="A286" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B286" t="s">
-        <v>567</v>
+      <c r="B286" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="D286" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E286">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F286" t="b">
         <v>0</v>
@@ -9602,17 +9680,17 @@
       <c r="A287" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B287" t="s">
-        <v>567</v>
+      <c r="B287" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C287" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="D287" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E287">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F287" t="b">
         <v>0</v>
@@ -9628,17 +9706,17 @@
       <c r="A288" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B288" t="s">
-        <v>567</v>
+      <c r="B288" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C288" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="D288" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E288">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F288" t="b">
         <v>0</v>
@@ -9654,17 +9732,17 @@
       <c r="A289" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B289" t="s">
-        <v>567</v>
+      <c r="B289" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C289" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="D289" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E289">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F289" t="b">
         <v>0</v>
@@ -9681,16 +9759,16 @@
         <v>494</v>
       </c>
       <c r="B290" t="s">
-        <v>567</v>
+        <v>148</v>
       </c>
       <c r="C290" t="s">
-        <v>26</v>
+        <v>483</v>
       </c>
       <c r="D290" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E290">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F290" t="b">
         <v>0</v>
@@ -9707,16 +9785,16 @@
         <v>495</v>
       </c>
       <c r="B291" t="s">
-        <v>567</v>
+        <v>148</v>
       </c>
       <c r="C291" t="s">
-        <v>26</v>
+        <v>483</v>
       </c>
       <c r="D291" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E291">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F291" t="b">
         <v>0</v>
@@ -9733,16 +9811,16 @@
         <v>496</v>
       </c>
       <c r="B292" t="s">
-        <v>567</v>
+        <v>148</v>
       </c>
       <c r="C292" t="s">
-        <v>26</v>
+        <v>483</v>
       </c>
       <c r="D292" t="s">
-        <v>456</v>
+        <v>128</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F292" t="b">
         <v>0</v>
@@ -9758,17 +9836,17 @@
       <c r="A293" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B293" t="s">
-        <v>567</v>
+      <c r="B293" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C293" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="D293" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E293">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F293" t="b">
         <v>0</v>
@@ -9784,11 +9862,11 @@
       <c r="A294" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B294" t="s">
-        <v>567</v>
+      <c r="B294" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C294" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="D294" t="s">
         <v>5</v>
@@ -9810,14 +9888,14 @@
       <c r="A295" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B295" t="s">
-        <v>567</v>
+      <c r="B295" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C295" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="D295" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="E295">
         <v>2</v>
@@ -9836,14 +9914,14 @@
       <c r="A296" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B296" t="s">
-        <v>567</v>
+      <c r="B296" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C296" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="D296" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -9862,14 +9940,14 @@
       <c r="A297" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B297" t="s">
-        <v>567</v>
+      <c r="B297" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C297" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="D297" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -9888,11 +9966,11 @@
       <c r="A298" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B298" t="s">
-        <v>567</v>
+      <c r="B298" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C298" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="D298" t="s">
         <v>24</v>
@@ -9918,13 +9996,13 @@
         <v>567</v>
       </c>
       <c r="C299" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D299" t="s">
-        <v>456</v>
+        <v>21</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F299" t="b">
         <v>0</v>
@@ -9941,16 +10019,16 @@
         <v>504</v>
       </c>
       <c r="B300" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C300" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="D300" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="E300">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F300" t="b">
         <v>0</v>
@@ -9967,16 +10045,16 @@
         <v>505</v>
       </c>
       <c r="B301" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C301" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="D301" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E301">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F301" t="b">
         <v>0</v>
@@ -9993,13 +10071,13 @@
         <v>506</v>
       </c>
       <c r="B302" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C302" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="D302" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="E302">
         <v>5</v>
@@ -10019,16 +10097,16 @@
         <v>507</v>
       </c>
       <c r="B303" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C303" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="D303" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E303">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F303" t="b">
         <v>0</v>
@@ -10045,16 +10123,16 @@
         <v>508</v>
       </c>
       <c r="B304" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C304" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="D304" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E304">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F304" t="b">
         <v>0</v>
@@ -10071,16 +10149,16 @@
         <v>509</v>
       </c>
       <c r="B305" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C305" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="D305" t="s">
-        <v>455</v>
+        <v>27</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F305" t="b">
         <v>0</v>
@@ -10097,16 +10175,16 @@
         <v>510</v>
       </c>
       <c r="B306" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C306" t="s">
-        <v>462</v>
+        <v>26</v>
       </c>
       <c r="D306" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E306">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F306" t="b">
         <v>0</v>
@@ -10123,16 +10201,16 @@
         <v>511</v>
       </c>
       <c r="B307" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C307" t="s">
-        <v>462</v>
+        <v>29</v>
       </c>
       <c r="D307" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E307">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F307" t="b">
         <v>0</v>
@@ -10149,16 +10227,16 @@
         <v>512</v>
       </c>
       <c r="B308" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C308" t="s">
-        <v>462</v>
+        <v>30</v>
       </c>
       <c r="D308" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E308">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F308" t="b">
         <v>0</v>
@@ -10175,16 +10253,16 @@
         <v>513</v>
       </c>
       <c r="B309" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C309" t="s">
-        <v>467</v>
+        <v>30</v>
       </c>
       <c r="D309" t="s">
-        <v>468</v>
+        <v>28</v>
       </c>
       <c r="E309">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F309" t="b">
         <v>0</v>
@@ -10201,16 +10279,16 @@
         <v>514</v>
       </c>
       <c r="B310" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C310" t="s">
-        <v>467</v>
+        <v>30</v>
       </c>
       <c r="D310" t="s">
-        <v>469</v>
+        <v>31</v>
       </c>
       <c r="E310">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F310" t="b">
         <v>0</v>
@@ -10227,16 +10305,16 @@
         <v>515</v>
       </c>
       <c r="B311" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C311" t="s">
-        <v>467</v>
+        <v>30</v>
       </c>
       <c r="D311" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E311">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F311" t="b">
         <v>0</v>
@@ -10253,19 +10331,19 @@
         <v>516</v>
       </c>
       <c r="B312" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C312" t="s">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="D312" t="s">
-        <v>471</v>
+        <v>24</v>
       </c>
       <c r="E312">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -10279,16 +10357,16 @@
         <v>517</v>
       </c>
       <c r="B313" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C313" t="s">
-        <v>470</v>
+        <v>105</v>
       </c>
       <c r="D313" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="E313">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F313" t="b">
         <v>0</v>
@@ -10305,16 +10383,16 @@
         <v>518</v>
       </c>
       <c r="B314" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C314" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="D314" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E314">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F314" t="b">
         <v>0</v>
@@ -10331,16 +10409,16 @@
         <v>519</v>
       </c>
       <c r="B315" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C315" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="D315" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E315">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F315" t="b">
         <v>0</v>
@@ -10357,16 +10435,16 @@
         <v>520</v>
       </c>
       <c r="B316" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C316" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="D316" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="E316">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F316" t="b">
         <v>0</v>
@@ -10386,13 +10464,13 @@
         <v>172</v>
       </c>
       <c r="C317" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D317" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="E317">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F317" t="b">
         <v>0</v>
@@ -10412,13 +10490,13 @@
         <v>172</v>
       </c>
       <c r="C318" t="s">
-        <v>476</v>
+        <v>173</v>
       </c>
       <c r="D318" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E318">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F318" t="b">
         <v>0</v>
@@ -10438,10 +10516,10 @@
         <v>172</v>
       </c>
       <c r="C319" t="s">
-        <v>478</v>
+        <v>173</v>
       </c>
       <c r="D319" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E319">
         <v>5</v>
@@ -10464,10 +10542,10 @@
         <v>172</v>
       </c>
       <c r="C320" t="s">
-        <v>480</v>
+        <v>173</v>
       </c>
       <c r="D320" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E320">
         <v>5</v>
@@ -10487,16 +10565,16 @@
         <v>527</v>
       </c>
       <c r="B321" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C321" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="D321" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E321">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F321" t="b">
         <v>0</v>
@@ -10513,16 +10591,16 @@
         <v>528</v>
       </c>
       <c r="B322" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C322" t="s">
-        <v>32</v>
+        <v>462</v>
       </c>
       <c r="D322" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E322">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F322" t="b">
         <v>0</v>
@@ -10539,16 +10617,16 @@
         <v>541</v>
       </c>
       <c r="B323" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C323" t="s">
-        <v>32</v>
+        <v>462</v>
       </c>
       <c r="D323" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E323">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F323" t="b">
         <v>0</v>
@@ -10565,16 +10643,16 @@
         <v>542</v>
       </c>
       <c r="B324" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C324" t="s">
-        <v>32</v>
+        <v>462</v>
       </c>
       <c r="D324" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E324">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F324" t="b">
         <v>0</v>
@@ -10591,13 +10669,13 @@
         <v>543</v>
       </c>
       <c r="B325" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C325" t="s">
-        <v>34</v>
+        <v>467</v>
       </c>
       <c r="D325" t="s">
-        <v>21</v>
+        <v>468</v>
       </c>
       <c r="E325">
         <v>15</v>
@@ -10617,13 +10695,13 @@
         <v>544</v>
       </c>
       <c r="B326" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C326" t="s">
-        <v>34</v>
+        <v>467</v>
       </c>
       <c r="D326" t="s">
-        <v>33</v>
+        <v>469</v>
       </c>
       <c r="E326">
         <v>5</v>
@@ -10642,17 +10720,17 @@
       <c r="A327" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B327" s="2" t="s">
-        <v>570</v>
+      <c r="B327" t="s">
+        <v>172</v>
       </c>
       <c r="C327" t="s">
-        <v>162</v>
+        <v>467</v>
       </c>
       <c r="D327" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E327">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F327" t="b">
         <v>0</v>
@@ -10668,17 +10746,17 @@
       <c r="A328" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B328" s="2" t="s">
-        <v>570</v>
+      <c r="B328" t="s">
+        <v>172</v>
       </c>
       <c r="C328" t="s">
-        <v>162</v>
+        <v>470</v>
       </c>
       <c r="D328" t="s">
-        <v>163</v>
+        <v>471</v>
       </c>
       <c r="E328">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F328" t="b">
         <v>0</v>
@@ -10694,17 +10772,17 @@
       <c r="A329" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>570</v>
+      <c r="B329" t="s">
+        <v>172</v>
       </c>
       <c r="C329" t="s">
-        <v>164</v>
+        <v>470</v>
       </c>
       <c r="D329" t="s">
         <v>37</v>
       </c>
       <c r="E329">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F329" t="b">
         <v>0</v>
@@ -10720,14 +10798,14 @@
       <c r="A330" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>570</v>
+      <c r="B330" t="s">
+        <v>172</v>
       </c>
       <c r="C330" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D330" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="E330">
         <v>5</v>
@@ -10746,17 +10824,17 @@
       <c r="A331" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>570</v>
+      <c r="B331" t="s">
+        <v>172</v>
       </c>
       <c r="C331" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D331" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="E331">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F331" t="b">
         <v>0</v>
@@ -10772,17 +10850,17 @@
       <c r="A332" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B332" s="2" t="s">
-        <v>570</v>
+      <c r="B332" t="s">
+        <v>172</v>
       </c>
       <c r="C332" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D332" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="E332">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F332" t="b">
         <v>0</v>
@@ -10798,20 +10876,20 @@
       <c r="A333" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>570</v>
+      <c r="B333" t="s">
+        <v>172</v>
       </c>
       <c r="C333" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D333" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="E333">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333">
         <v>0</v>
@@ -10824,17 +10902,17 @@
       <c r="A334" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B334" s="2" t="s">
-        <v>570</v>
+      <c r="B334" t="s">
+        <v>172</v>
       </c>
       <c r="C334" t="s">
-        <v>166</v>
+        <v>476</v>
       </c>
       <c r="D334" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="E334">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F334" t="b">
         <v>0</v>
@@ -10850,17 +10928,17 @@
       <c r="A335" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>570</v>
+      <c r="B335" t="s">
+        <v>172</v>
       </c>
       <c r="C335" t="s">
-        <v>167</v>
+        <v>478</v>
       </c>
       <c r="D335" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E335">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F335" t="b">
         <v>0</v>
@@ -10876,17 +10954,17 @@
       <c r="A336" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>570</v>
+      <c r="B336" t="s">
+        <v>172</v>
       </c>
       <c r="C336" t="s">
-        <v>167</v>
+        <v>480</v>
       </c>
       <c r="D336" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E336">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F336" t="b">
         <v>0</v>
@@ -10902,20 +10980,20 @@
       <c r="A337" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B337" s="2" t="s">
-        <v>570</v>
+      <c r="B337" t="s">
+        <v>568</v>
       </c>
       <c r="C337" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="D337" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="E337">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G337">
         <v>0</v>
@@ -10928,17 +11006,17 @@
       <c r="A338" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B338" s="2" t="s">
-        <v>570</v>
+      <c r="B338" t="s">
+        <v>568</v>
       </c>
       <c r="C338" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="D338" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E338">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F338" t="b">
         <v>0</v>
@@ -10954,17 +11032,17 @@
       <c r="A339" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B339" s="2" t="s">
-        <v>570</v>
+      <c r="B339" t="s">
+        <v>568</v>
       </c>
       <c r="C339" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D339" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E339">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F339" t="b">
         <v>0</v>
@@ -10980,17 +11058,17 @@
       <c r="A340" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B340" s="2" t="s">
-        <v>570</v>
+      <c r="B340" t="s">
+        <v>568</v>
       </c>
       <c r="C340" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D340" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="E340">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F340" t="b">
         <v>0</v>
@@ -11006,11 +11084,11 @@
       <c r="A341" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B341" s="2" t="s">
-        <v>570</v>
+      <c r="B341" t="s">
+        <v>568</v>
       </c>
       <c r="C341" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="D341" t="s">
         <v>21</v>
@@ -11032,14 +11110,14 @@
       <c r="A342" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B342" s="2" t="s">
-        <v>570</v>
+      <c r="B342" t="s">
+        <v>568</v>
       </c>
       <c r="C342" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="D342" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="E342">
         <v>5</v>
@@ -11058,20 +11136,20 @@
       <c r="A343" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B343" s="2" t="s">
-        <v>570</v>
+      <c r="B343" t="s">
+        <v>571</v>
       </c>
       <c r="C343" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D343" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G343">
         <v>0</v>
@@ -11084,40 +11162,658 @@
       <c r="A344" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" t="s">
+        <v>571</v>
+      </c>
+      <c r="C344" t="s">
+        <v>173</v>
+      </c>
+      <c r="D344" t="s">
+        <v>455</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344" t="b">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B345" t="s">
+        <v>571</v>
+      </c>
+      <c r="C345" t="s">
+        <v>176</v>
+      </c>
+      <c r="D345" t="s">
+        <v>65</v>
+      </c>
+      <c r="E345">
+        <v>5</v>
+      </c>
+      <c r="F345" t="b">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B346" t="s">
+        <v>571</v>
+      </c>
+      <c r="C346" t="s">
+        <v>175</v>
+      </c>
+      <c r="D346" t="s">
+        <v>152</v>
+      </c>
+      <c r="E346">
+        <v>5</v>
+      </c>
+      <c r="F346" t="b">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B347" t="s">
+        <v>571</v>
+      </c>
+      <c r="C347" t="s">
+        <v>175</v>
+      </c>
+      <c r="D347" t="s">
+        <v>65</v>
+      </c>
+      <c r="E347">
+        <v>5</v>
+      </c>
+      <c r="F347" t="b">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B348" t="s">
+        <v>571</v>
+      </c>
+      <c r="C348" t="s">
+        <v>4</v>
+      </c>
+      <c r="D348" t="s">
+        <v>5</v>
+      </c>
+      <c r="E348">
+        <v>25</v>
+      </c>
+      <c r="F348" t="b">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B349" t="s">
+        <v>571</v>
+      </c>
+      <c r="C349" t="s">
+        <v>4</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+      <c r="F349" t="b">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B350" t="s">
+        <v>571</v>
+      </c>
+      <c r="C350" t="s">
+        <v>4</v>
+      </c>
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350" t="b">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B351" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C351" t="s">
+        <v>162</v>
+      </c>
+      <c r="D351" t="s">
+        <v>37</v>
+      </c>
+      <c r="E351">
+        <v>10</v>
+      </c>
+      <c r="F351" t="b">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C352" t="s">
+        <v>162</v>
+      </c>
+      <c r="D352" t="s">
+        <v>163</v>
+      </c>
+      <c r="E352">
+        <v>5</v>
+      </c>
+      <c r="F352" t="b">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C353" t="s">
+        <v>164</v>
+      </c>
+      <c r="D353" t="s">
+        <v>37</v>
+      </c>
+      <c r="E353">
+        <v>15</v>
+      </c>
+      <c r="F353" t="b">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C354" t="s">
+        <v>164</v>
+      </c>
+      <c r="D354" t="s">
+        <v>163</v>
+      </c>
+      <c r="E354">
+        <v>5</v>
+      </c>
+      <c r="F354" t="b">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C355" t="s">
+        <v>164</v>
+      </c>
+      <c r="D355" t="s">
+        <v>165</v>
+      </c>
+      <c r="E355">
+        <v>5</v>
+      </c>
+      <c r="F355" t="b">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C356" t="s">
+        <v>166</v>
+      </c>
+      <c r="D356" t="s">
+        <v>5</v>
+      </c>
+      <c r="E356">
+        <v>25</v>
+      </c>
+      <c r="F356" t="b">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C357" t="s">
+        <v>166</v>
+      </c>
+      <c r="D357" t="s">
+        <v>163</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357" t="b">
+        <v>1</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C358" t="s">
+        <v>166</v>
+      </c>
+      <c r="D358" t="s">
+        <v>165</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358" t="b">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C359" t="s">
+        <v>167</v>
+      </c>
+      <c r="D359" t="s">
+        <v>17</v>
+      </c>
+      <c r="E359">
+        <v>30</v>
+      </c>
+      <c r="F359" t="b">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C360" t="s">
+        <v>167</v>
+      </c>
+      <c r="D360" t="s">
+        <v>5</v>
+      </c>
+      <c r="E360">
+        <v>25</v>
+      </c>
+      <c r="F360" t="b">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C361" t="s">
+        <v>167</v>
+      </c>
+      <c r="D361" t="s">
+        <v>163</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361" t="b">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C362" t="s">
+        <v>167</v>
+      </c>
+      <c r="D362" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362" t="b">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C363" t="s">
+        <v>168</v>
+      </c>
+      <c r="D363" t="s">
+        <v>37</v>
+      </c>
+      <c r="E363">
+        <v>10</v>
+      </c>
+      <c r="F363" t="b">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C364" t="s">
+        <v>168</v>
+      </c>
+      <c r="D364" t="s">
+        <v>163</v>
+      </c>
+      <c r="E364">
+        <v>5</v>
+      </c>
+      <c r="F364" t="b">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C365" t="s">
+        <v>169</v>
+      </c>
+      <c r="D365" t="s">
+        <v>21</v>
+      </c>
+      <c r="E365">
+        <v>15</v>
+      </c>
+      <c r="F365" t="b">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C366" t="s">
+        <v>169</v>
+      </c>
+      <c r="D366" t="s">
+        <v>163</v>
+      </c>
+      <c r="E366">
+        <v>5</v>
+      </c>
+      <c r="F366" t="b">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C367" t="s">
         <v>170</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D367" t="s">
+        <v>163</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367" t="b">
+        <v>1</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C368" t="s">
+        <v>170</v>
+      </c>
+      <c r="D368" t="s">
         <v>171</v>
       </c>
-      <c r="E344">
-        <v>0</v>
-      </c>
-      <c r="F344" t="b">
-        <v>0</v>
-      </c>
-      <c r="G344">
-        <v>0</v>
-      </c>
-      <c r="H344">
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368" t="b">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H344" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H344">
-      <sortCondition ref="B2:B344"/>
-      <sortCondition ref="C2:C344"/>
-      <sortCondition descending="1" ref="E2:E344"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H323">
-    <sortCondition ref="B2:B323"/>
-    <sortCondition ref="C2:C323"/>
-    <sortCondition descending="1" ref="E2:E323"/>
+  <autoFilter ref="A1:H364" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H368">
+    <sortCondition ref="B2:B368"/>
+    <sortCondition ref="C2:C368"/>
+    <sortCondition descending="1" ref="E2:E368"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mesbg_options.xlsx
+++ b/src/mesbg_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Downloads\mesbg\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E447136-6C72-4D49-8094-687AF84D6E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57128A68-0627-4E27-847A-82C7744587A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C0E6438-1EB7-4493-91C9-83873EACB085}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="options" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">options!$A$1:$H$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">options!$A$1:$H$365</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="643">
   <si>
     <t>faction</t>
   </si>
@@ -1830,6 +1830,144 @@
   </si>
   <si>
     <t>OPT0367</t>
+  </si>
+  <si>
+    <t>Axeman of Lossarnach</t>
+  </si>
+  <si>
+    <t>Replace axe with banner</t>
+  </si>
+  <si>
+    <t>Blackroot Vale Archer</t>
+  </si>
+  <si>
+    <t>War horn</t>
+  </si>
+  <si>
+    <t>Captain of Dol Amroth</t>
+  </si>
+  <si>
+    <t>Dunlending Chieftan</t>
+  </si>
+  <si>
+    <t>Swap Two-Handed Axe for Axe and Shield - FREE</t>
+  </si>
+  <si>
+    <t>Dunlending Warrior</t>
+  </si>
+  <si>
+    <t>Swap Axe for Dagger and Bow</t>
+  </si>
+  <si>
+    <t>Dwarf King</t>
+  </si>
+  <si>
+    <t>Forlong the Fat</t>
+  </si>
+  <si>
+    <t>Gil-Galad</t>
+  </si>
+  <si>
+    <t>Gorulf Ironskin</t>
+  </si>
+  <si>
+    <t>Lindir</t>
+  </si>
+  <si>
+    <t>Man-at-Arms of Dol Amroth</t>
+  </si>
+  <si>
+    <t>Rivendell Knight</t>
+  </si>
+  <si>
+    <t>Thrydan Wolfsbane</t>
+  </si>
+  <si>
+    <t>Wild Man of Dunland</t>
+  </si>
+  <si>
+    <t>OPT0368</t>
+  </si>
+  <si>
+    <t>OPT0369</t>
+  </si>
+  <si>
+    <t>OPT0370</t>
+  </si>
+  <si>
+    <t>OPT0371</t>
+  </si>
+  <si>
+    <t>OPT0372</t>
+  </si>
+  <si>
+    <t>OPT0373</t>
+  </si>
+  <si>
+    <t>OPT0374</t>
+  </si>
+  <si>
+    <t>OPT0375</t>
+  </si>
+  <si>
+    <t>OPT0376</t>
+  </si>
+  <si>
+    <t>OPT0377</t>
+  </si>
+  <si>
+    <t>OPT0378</t>
+  </si>
+  <si>
+    <t>OPT0379</t>
+  </si>
+  <si>
+    <t>OPT0380</t>
+  </si>
+  <si>
+    <t>OPT0381</t>
+  </si>
+  <si>
+    <t>OPT0382</t>
+  </si>
+  <si>
+    <t>OPT0383</t>
+  </si>
+  <si>
+    <t>OPT0384</t>
+  </si>
+  <si>
+    <t>OPT0385</t>
+  </si>
+  <si>
+    <t>OPT0386</t>
+  </si>
+  <si>
+    <t>OPT0387</t>
+  </si>
+  <si>
+    <t>OPT0388</t>
+  </si>
+  <si>
+    <t>OPT0389</t>
+  </si>
+  <si>
+    <t>OPT0390</t>
+  </si>
+  <si>
+    <t>OPT0391</t>
+  </si>
+  <si>
+    <t>OPT0392</t>
+  </si>
+  <si>
+    <t>OPT0393</t>
+  </si>
+  <si>
+    <t>King's Guard Upgrade</t>
+  </si>
+  <si>
+    <t>OPT0394</t>
   </si>
 </sst>
 </file>
@@ -2224,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}">
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2898,16 +3036,16 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>602</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2924,13 +3062,13 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="D27" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2950,13 +3088,13 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="D28" t="s">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -2976,13 +3114,13 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -2991,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -3002,13 +3140,13 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>604</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3028,16 +3166,16 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>604</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>605</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3054,13 +3192,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>609</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -3080,7 +3218,7 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
         <v>37</v>
@@ -3106,13 +3244,13 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>538</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>536</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -3132,13 +3270,13 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>538</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>537</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -3158,13 +3296,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -3173,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3184,13 +3322,13 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>535</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -3210,13 +3348,13 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>535</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -3236,13 +3374,13 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>539</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>540</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -3262,13 +3400,13 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -3288,13 +3426,13 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -3314,16 +3452,16 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3340,13 +3478,13 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>613</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -3366,13 +3504,13 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>535</v>
       </c>
       <c r="D44" t="s">
-        <v>457</v>
+        <v>51</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3392,10 +3530,10 @@
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>535</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -3418,10 +3556,10 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>535</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -3444,13 +3582,13 @@
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>539</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>540</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -3470,7 +3608,7 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -3496,16 +3634,16 @@
         <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3522,16 +3660,16 @@
         <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -3548,10 +3686,10 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3571,16 +3709,16 @@
         <v>228</v>
       </c>
       <c r="B52" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>457</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3597,16 +3735,16 @@
         <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>473</v>
+        <v>46</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3623,16 +3761,16 @@
         <v>230</v>
       </c>
       <c r="B54" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3641,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -3649,13 +3787,13 @@
         <v>231</v>
       </c>
       <c r="B55" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -3675,16 +3813,16 @@
         <v>232</v>
       </c>
       <c r="B56" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3701,19 +3839,19 @@
         <v>233</v>
       </c>
       <c r="B57" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -3727,19 +3865,19 @@
         <v>234</v>
       </c>
       <c r="B58" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3753,13 +3891,13 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3779,10 +3917,10 @@
         <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>614</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -3808,13 +3946,13 @@
         <v>566</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -3834,13 +3972,13 @@
         <v>566</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>473</v>
       </c>
       <c r="E62">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -3860,22 +3998,22 @@
         <v>566</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -3886,13 +4024,13 @@
         <v>566</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3912,13 +4050,13 @@
         <v>566</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3938,13 +4076,13 @@
         <v>566</v>
       </c>
       <c r="C66" t="s">
-        <v>562</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>563</v>
+        <v>13</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3961,16 +4099,16 @@
         <v>243</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>606</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -3987,13 +4125,13 @@
         <v>244</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>606</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -4013,19 +4151,19 @@
         <v>245</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4039,16 +4177,16 @@
         <v>246</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E70">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -4065,16 +4203,16 @@
         <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -4091,16 +4229,16 @@
         <v>248</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -4117,10 +4255,10 @@
         <v>249</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C73" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -4143,16 +4281,16 @@
         <v>250</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
@@ -4169,10 +4307,10 @@
         <v>251</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
@@ -4195,16 +4333,16 @@
         <v>252</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C76" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -4221,16 +4359,16 @@
         <v>253</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>562</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>563</v>
       </c>
       <c r="E77">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -4250,16 +4388,16 @@
         <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4276,13 +4414,13 @@
         <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -4302,13 +4440,13 @@
         <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -4328,13 +4466,13 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E81">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -4354,13 +4492,13 @@
         <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E82">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -4380,13 +4518,13 @@
         <v>52</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D83" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -4406,13 +4544,13 @@
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D84" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -4432,16 +4570,16 @@
         <v>52</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4458,13 +4596,13 @@
         <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -4484,13 +4622,13 @@
         <v>52</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D87" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -4510,13 +4648,13 @@
         <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D88" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -4536,16 +4674,16 @@
         <v>52</v>
       </c>
       <c r="C89" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -4562,13 +4700,13 @@
         <v>52</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E90">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -4588,16 +4726,16 @@
         <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D91" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4614,13 +4752,13 @@
         <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -4640,13 +4778,13 @@
         <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -4666,13 +4804,13 @@
         <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -4689,16 +4827,16 @@
         <v>271</v>
       </c>
       <c r="B95" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E95">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -4715,16 +4853,16 @@
         <v>272</v>
       </c>
       <c r="B96" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E96">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -4741,16 +4879,16 @@
         <v>273</v>
       </c>
       <c r="B97" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D97" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E97">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -4767,16 +4905,16 @@
         <v>274</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -4785,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -4793,13 +4931,13 @@
         <v>275</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -4819,16 +4957,16 @@
         <v>276</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D100" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E100">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -4845,16 +4983,16 @@
         <v>277</v>
       </c>
       <c r="B101" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -4871,19 +5009,19 @@
         <v>278</v>
       </c>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C102" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4897,16 +5035,16 @@
         <v>279</v>
       </c>
       <c r="B103" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C103" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D103" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
@@ -4923,16 +5061,16 @@
         <v>280</v>
       </c>
       <c r="B104" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C104" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E104">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
@@ -4949,16 +5087,16 @@
         <v>281</v>
       </c>
       <c r="B105" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C105" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
@@ -4978,13 +5116,13 @@
         <v>72</v>
       </c>
       <c r="C106" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D106" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -5004,13 +5142,13 @@
         <v>72</v>
       </c>
       <c r="C107" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D107" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="E107">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -5030,13 +5168,13 @@
         <v>72</v>
       </c>
       <c r="C108" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D108" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E108">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -5056,22 +5194,22 @@
         <v>72</v>
       </c>
       <c r="C109" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D109" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -5082,13 +5220,13 @@
         <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E110">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -5108,13 +5246,13 @@
         <v>72</v>
       </c>
       <c r="C111" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E111">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -5134,13 +5272,13 @@
         <v>72</v>
       </c>
       <c r="C112" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E112">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -5160,10 +5298,10 @@
         <v>72</v>
       </c>
       <c r="C113" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D113" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E113">
         <v>5</v>
@@ -5186,10 +5324,10 @@
         <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E114">
         <v>5</v>
@@ -5212,13 +5350,13 @@
         <v>72</v>
       </c>
       <c r="C115" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D115" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
@@ -5238,13 +5376,13 @@
         <v>72</v>
       </c>
       <c r="C116" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D116" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="E116">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
@@ -5264,13 +5402,13 @@
         <v>72</v>
       </c>
       <c r="C117" t="s">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="D117" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E117">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -5290,13 +5428,13 @@
         <v>72</v>
       </c>
       <c r="C118" t="s">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="D118" t="s">
-        <v>473</v>
+        <v>6</v>
       </c>
       <c r="E118">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
@@ -5316,10 +5454,10 @@
         <v>72</v>
       </c>
       <c r="C119" t="s">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E119">
         <v>7</v>
@@ -5331,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -5342,16 +5480,16 @@
         <v>72</v>
       </c>
       <c r="C120" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D120" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E120">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -5368,13 +5506,13 @@
         <v>72</v>
       </c>
       <c r="C121" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D121" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -5394,13 +5532,13 @@
         <v>72</v>
       </c>
       <c r="C122" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D122" t="s">
         <v>37</v>
       </c>
       <c r="E122">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
@@ -5420,13 +5558,13 @@
         <v>72</v>
       </c>
       <c r="C123" t="s">
-        <v>475</v>
+        <v>83</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E123">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
@@ -5446,13 +5584,13 @@
         <v>72</v>
       </c>
       <c r="C124" t="s">
-        <v>475</v>
+        <v>83</v>
       </c>
       <c r="D124" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E124">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -5472,10 +5610,10 @@
         <v>72</v>
       </c>
       <c r="C125" t="s">
-        <v>475</v>
+        <v>83</v>
       </c>
       <c r="D125" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E125">
         <v>5</v>
@@ -5498,10 +5636,10 @@
         <v>72</v>
       </c>
       <c r="C126" t="s">
-        <v>475</v>
+        <v>83</v>
       </c>
       <c r="D126" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -5524,13 +5662,13 @@
         <v>72</v>
       </c>
       <c r="C127" t="s">
-        <v>475</v>
+        <v>84</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E127">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
@@ -5550,13 +5688,13 @@
         <v>72</v>
       </c>
       <c r="C128" t="s">
-        <v>89</v>
+        <v>472</v>
       </c>
       <c r="D128" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="E128">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -5576,13 +5714,13 @@
         <v>72</v>
       </c>
       <c r="C129" t="s">
-        <v>89</v>
+        <v>472</v>
       </c>
       <c r="D129" t="s">
-        <v>6</v>
+        <v>473</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
@@ -5602,22 +5740,22 @@
         <v>72</v>
       </c>
       <c r="C130" t="s">
-        <v>90</v>
+        <v>472</v>
       </c>
       <c r="D130" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -5628,13 +5766,13 @@
         <v>72</v>
       </c>
       <c r="C131" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D131" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
@@ -5654,10 +5792,10 @@
         <v>72</v>
       </c>
       <c r="C132" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -5680,13 +5818,13 @@
         <v>72</v>
       </c>
       <c r="C133" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D133" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E133">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
@@ -5706,13 +5844,13 @@
         <v>72</v>
       </c>
       <c r="C134" t="s">
-        <v>92</v>
+        <v>475</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
@@ -5732,13 +5870,13 @@
         <v>72</v>
       </c>
       <c r="C135" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E135">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
@@ -5758,13 +5896,13 @@
         <v>72</v>
       </c>
       <c r="C136" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E136">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
@@ -5784,16 +5922,16 @@
         <v>72</v>
       </c>
       <c r="C137" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -5810,13 +5948,13 @@
         <v>72</v>
       </c>
       <c r="C138" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="D138" t="s">
         <v>6</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -5836,13 +5974,13 @@
         <v>72</v>
       </c>
       <c r="C139" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
@@ -5859,16 +5997,16 @@
         <v>316</v>
       </c>
       <c r="B140" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C140" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E140">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
@@ -5885,19 +6023,19 @@
         <v>317</v>
       </c>
       <c r="B141" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C141" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E141">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -5911,16 +6049,16 @@
         <v>318</v>
       </c>
       <c r="B142" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C142" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E142">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -5937,16 +6075,16 @@
         <v>319</v>
       </c>
       <c r="B143" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C143" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D143" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E143">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
@@ -5963,13 +6101,13 @@
         <v>320</v>
       </c>
       <c r="B144" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C144" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D144" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E144">
         <v>5</v>
@@ -5989,16 +6127,16 @@
         <v>321</v>
       </c>
       <c r="B145" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C145" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D145" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
@@ -6015,16 +6153,16 @@
         <v>322</v>
       </c>
       <c r="B146" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C146" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D146" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E146">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
@@ -6041,16 +6179,16 @@
         <v>323</v>
       </c>
       <c r="B147" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C147" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D147" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -6067,19 +6205,19 @@
         <v>324</v>
       </c>
       <c r="B148" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C148" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E148">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -6093,16 +6231,16 @@
         <v>325</v>
       </c>
       <c r="B149" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C149" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D149" t="s">
         <v>6</v>
       </c>
       <c r="E149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -6119,16 +6257,16 @@
         <v>326</v>
       </c>
       <c r="B150" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C150" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D150" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="E150">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
@@ -6148,13 +6286,13 @@
         <v>98</v>
       </c>
       <c r="C151" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D151" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
@@ -6174,13 +6312,13 @@
         <v>98</v>
       </c>
       <c r="C152" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D152" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E152">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -6200,13 +6338,13 @@
         <v>98</v>
       </c>
       <c r="C153" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D153" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
@@ -6226,13 +6364,13 @@
         <v>98</v>
       </c>
       <c r="C154" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D154" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E154">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F154" t="b">
         <v>0</v>
@@ -6252,13 +6390,13 @@
         <v>98</v>
       </c>
       <c r="C155" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D155" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
@@ -6278,13 +6416,13 @@
         <v>98</v>
       </c>
       <c r="C156" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F156" t="b">
         <v>0</v>
@@ -6304,7 +6442,7 @@
         <v>98</v>
       </c>
       <c r="C157" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D157" t="s">
         <v>6</v>
@@ -6330,13 +6468,13 @@
         <v>98</v>
       </c>
       <c r="C158" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D158" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E158">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F158" t="b">
         <v>0</v>
@@ -6356,13 +6494,13 @@
         <v>98</v>
       </c>
       <c r="C159" t="s">
-        <v>534</v>
+        <v>103</v>
       </c>
       <c r="D159" t="s">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
@@ -6382,13 +6520,13 @@
         <v>98</v>
       </c>
       <c r="C160" t="s">
-        <v>534</v>
+        <v>104</v>
       </c>
       <c r="D160" t="s">
-        <v>473</v>
+        <v>6</v>
       </c>
       <c r="E160">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F160" t="b">
         <v>0</v>
@@ -6408,13 +6546,13 @@
         <v>98</v>
       </c>
       <c r="C161" t="s">
-        <v>534</v>
+        <v>105</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="E161">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -6423,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -6434,13 +6572,13 @@
         <v>98</v>
       </c>
       <c r="C162" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D162" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E162">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
@@ -6460,13 +6598,13 @@
         <v>98</v>
       </c>
       <c r="C163" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D163" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E163">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -6486,13 +6624,13 @@
         <v>98</v>
       </c>
       <c r="C164" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D164" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
@@ -6512,13 +6650,13 @@
         <v>98</v>
       </c>
       <c r="C165" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F165" t="b">
         <v>0</v>
@@ -6538,10 +6676,10 @@
         <v>98</v>
       </c>
       <c r="C166" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D166" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -6564,13 +6702,13 @@
         <v>98</v>
       </c>
       <c r="C167" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D167" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="E167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -6590,7 +6728,7 @@
         <v>98</v>
       </c>
       <c r="C168" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D168" t="s">
         <v>6</v>
@@ -6616,7 +6754,7 @@
         <v>98</v>
       </c>
       <c r="C169" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D169" t="s">
         <v>47</v>
@@ -6642,7 +6780,7 @@
         <v>98</v>
       </c>
       <c r="C170" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D170" t="s">
         <v>532</v>
@@ -6668,7 +6806,7 @@
         <v>98</v>
       </c>
       <c r="C171" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D171" t="s">
         <v>473</v>
@@ -6694,10 +6832,10 @@
         <v>98</v>
       </c>
       <c r="C172" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D172" t="s">
-        <v>533</v>
+        <v>10</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -6709,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -6720,13 +6858,13 @@
         <v>98</v>
       </c>
       <c r="C173" t="s">
-        <v>531</v>
+        <v>110</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="E173">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F173" t="b">
         <v>0</v>
@@ -6735,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -6746,13 +6884,13 @@
         <v>98</v>
       </c>
       <c r="C174" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F174" t="b">
         <v>0</v>
@@ -6772,13 +6910,13 @@
         <v>98</v>
       </c>
       <c r="C175" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="E175">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -6798,13 +6936,13 @@
         <v>98</v>
       </c>
       <c r="C176" t="s">
-        <v>477</v>
+        <v>114</v>
       </c>
       <c r="D176" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E176">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
@@ -6824,13 +6962,13 @@
         <v>98</v>
       </c>
       <c r="C177" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D177" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="E177">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
@@ -6850,7 +6988,7 @@
         <v>98</v>
       </c>
       <c r="C178" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D178" t="s">
         <v>113</v>
@@ -6876,7 +7014,7 @@
         <v>98</v>
       </c>
       <c r="C179" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D179" t="s">
         <v>6</v>
@@ -6902,13 +7040,13 @@
         <v>98</v>
       </c>
       <c r="C180" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D180" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E180">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
@@ -6928,13 +7066,13 @@
         <v>98</v>
       </c>
       <c r="C181" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D181" t="s">
-        <v>44</v>
+        <v>532</v>
       </c>
       <c r="E181">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
@@ -6954,13 +7092,13 @@
         <v>98</v>
       </c>
       <c r="C182" t="s">
-        <v>119</v>
+        <v>531</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>473</v>
       </c>
       <c r="E182">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
@@ -6980,16 +7118,16 @@
         <v>98</v>
       </c>
       <c r="C183" t="s">
-        <v>119</v>
+        <v>531</v>
       </c>
       <c r="D183" t="s">
-        <v>113</v>
+        <v>533</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -7006,13 +7144,13 @@
         <v>98</v>
       </c>
       <c r="C184" t="s">
-        <v>119</v>
+        <v>531</v>
       </c>
       <c r="D184" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
@@ -7021,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -7032,13 +7170,13 @@
         <v>98</v>
       </c>
       <c r="C185" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
@@ -7058,13 +7196,13 @@
         <v>98</v>
       </c>
       <c r="C186" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D186" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
@@ -7084,13 +7222,13 @@
         <v>98</v>
       </c>
       <c r="C187" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
       <c r="D187" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E187">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -7110,13 +7248,13 @@
         <v>98</v>
       </c>
       <c r="C188" t="s">
-        <v>529</v>
+        <v>117</v>
       </c>
       <c r="D188" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="E188">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
@@ -7136,13 +7274,13 @@
         <v>98</v>
       </c>
       <c r="C189" t="s">
-        <v>529</v>
+        <v>117</v>
       </c>
       <c r="D189" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="E189">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
@@ -7162,10 +7300,10 @@
         <v>98</v>
       </c>
       <c r="C190" t="s">
-        <v>529</v>
+        <v>117</v>
       </c>
       <c r="D190" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -7177,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -7188,22 +7326,22 @@
         <v>98</v>
       </c>
       <c r="C191" t="s">
-        <v>529</v>
+        <v>118</v>
       </c>
       <c r="D191" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="E191">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -7214,13 +7352,13 @@
         <v>98</v>
       </c>
       <c r="C192" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D192" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="E192">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
@@ -7229,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -7240,13 +7378,13 @@
         <v>98</v>
       </c>
       <c r="C193" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D193" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="E193">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
@@ -7266,16 +7404,16 @@
         <v>98</v>
       </c>
       <c r="C194" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D194" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="E194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -7292,13 +7430,13 @@
         <v>98</v>
       </c>
       <c r="C195" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D195" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="E195">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -7318,13 +7456,13 @@
         <v>98</v>
       </c>
       <c r="C196" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D196" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="E196">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
@@ -7344,13 +7482,13 @@
         <v>98</v>
       </c>
       <c r="C197" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D197" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E197">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
@@ -7370,13 +7508,13 @@
         <v>98</v>
       </c>
       <c r="C198" t="s">
-        <v>123</v>
+        <v>529</v>
       </c>
       <c r="D198" t="s">
         <v>106</v>
       </c>
       <c r="E198">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
@@ -7396,7 +7534,7 @@
         <v>98</v>
       </c>
       <c r="C199" t="s">
-        <v>123</v>
+        <v>529</v>
       </c>
       <c r="D199" t="s">
         <v>107</v>
@@ -7422,13 +7560,13 @@
         <v>98</v>
       </c>
       <c r="C200" t="s">
-        <v>123</v>
+        <v>529</v>
       </c>
       <c r="D200" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E200">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
@@ -7448,13 +7586,13 @@
         <v>98</v>
       </c>
       <c r="C201" t="s">
-        <v>123</v>
+        <v>529</v>
       </c>
       <c r="D201" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="E201">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -7463,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -7474,22 +7612,22 @@
         <v>98</v>
       </c>
       <c r="C202" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="D202" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E202">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -7500,13 +7638,13 @@
         <v>98</v>
       </c>
       <c r="C203" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="D203" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="E203">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -7515,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -7526,13 +7664,13 @@
         <v>98</v>
       </c>
       <c r="C204" t="s">
-        <v>481</v>
+        <v>120</v>
       </c>
       <c r="D204" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E204">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
@@ -7552,13 +7690,13 @@
         <v>98</v>
       </c>
       <c r="C205" t="s">
-        <v>481</v>
+        <v>120</v>
       </c>
       <c r="D205" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E205">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
@@ -7578,7 +7716,7 @@
         <v>98</v>
       </c>
       <c r="C206" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D206" t="s">
         <v>106</v>
@@ -7604,7 +7742,7 @@
         <v>98</v>
       </c>
       <c r="C207" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D207" t="s">
         <v>107</v>
@@ -7630,7 +7768,7 @@
         <v>98</v>
       </c>
       <c r="C208" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D208" t="s">
         <v>37</v>
@@ -7656,7 +7794,7 @@
         <v>98</v>
       </c>
       <c r="C209" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D209" t="s">
         <v>106</v>
@@ -7682,7 +7820,7 @@
         <v>98</v>
       </c>
       <c r="C210" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D210" t="s">
         <v>107</v>
@@ -7708,13 +7846,13 @@
         <v>98</v>
       </c>
       <c r="C211" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D211" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E211">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F211" t="b">
         <v>0</v>
@@ -7734,13 +7872,13 @@
         <v>98</v>
       </c>
       <c r="C212" t="s">
-        <v>482</v>
+        <v>123</v>
       </c>
       <c r="D212" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E212">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F212" t="b">
         <v>0</v>
@@ -7760,13 +7898,13 @@
         <v>98</v>
       </c>
       <c r="C213" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D213" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E213">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -7786,13 +7924,13 @@
         <v>98</v>
       </c>
       <c r="C214" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D214" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="E214">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
@@ -7812,13 +7950,13 @@
         <v>98</v>
       </c>
       <c r="C215" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D215" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E215">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F215" t="b">
         <v>0</v>
@@ -7838,13 +7976,13 @@
         <v>98</v>
       </c>
       <c r="C216" t="s">
-        <v>126</v>
+        <v>481</v>
       </c>
       <c r="D216" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E216">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
@@ -7864,13 +8002,13 @@
         <v>98</v>
       </c>
       <c r="C217" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D217" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E217">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F217" t="b">
         <v>0</v>
@@ -7890,13 +8028,13 @@
         <v>98</v>
       </c>
       <c r="C218" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D218" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="E218">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F218" t="b">
         <v>0</v>
@@ -7916,13 +8054,13 @@
         <v>98</v>
       </c>
       <c r="C219" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D219" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E219">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F219" t="b">
         <v>0</v>
@@ -7942,16 +8080,16 @@
         <v>98</v>
       </c>
       <c r="C220" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D220" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -7968,13 +8106,13 @@
         <v>98</v>
       </c>
       <c r="C221" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D221" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F221" t="b">
         <v>0</v>
@@ -7994,13 +8132,13 @@
         <v>98</v>
       </c>
       <c r="C222" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D222" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F222" t="b">
         <v>0</v>
@@ -8020,13 +8158,13 @@
         <v>98</v>
       </c>
       <c r="C223" t="s">
-        <v>129</v>
+        <v>482</v>
       </c>
       <c r="D223" t="s">
         <v>106</v>
       </c>
       <c r="E223">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F223" t="b">
         <v>0</v>
@@ -8046,7 +8184,7 @@
         <v>98</v>
       </c>
       <c r="C224" t="s">
-        <v>129</v>
+        <v>482</v>
       </c>
       <c r="D224" t="s">
         <v>107</v>
@@ -8072,13 +8210,13 @@
         <v>98</v>
       </c>
       <c r="C225" t="s">
-        <v>129</v>
+        <v>482</v>
       </c>
       <c r="D225" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="E225">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F225" t="b">
         <v>0</v>
@@ -8098,13 +8236,13 @@
         <v>98</v>
       </c>
       <c r="C226" t="s">
-        <v>129</v>
+        <v>482</v>
       </c>
       <c r="D226" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E226">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F226" t="b">
         <v>0</v>
@@ -8124,13 +8262,13 @@
         <v>98</v>
       </c>
       <c r="C227" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D227" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="E227">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F227" t="b">
         <v>0</v>
@@ -8150,13 +8288,13 @@
         <v>98</v>
       </c>
       <c r="C228" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D228" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E228">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F228" t="b">
         <v>0</v>
@@ -8176,13 +8314,13 @@
         <v>98</v>
       </c>
       <c r="C229" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D229" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="E229">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -8202,13 +8340,13 @@
         <v>98</v>
       </c>
       <c r="C230" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D230" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="E230">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F230" t="b">
         <v>0</v>
@@ -8217,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -8228,22 +8366,22 @@
         <v>98</v>
       </c>
       <c r="C231" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D231" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E231">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -8254,13 +8392,13 @@
         <v>98</v>
       </c>
       <c r="C232" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D232" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="E232">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F232" t="b">
         <v>0</v>
@@ -8269,24 +8407,24 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>136</v>
+      <c r="B233" t="s">
+        <v>98</v>
       </c>
       <c r="C233" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D233" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E233">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F233" t="b">
         <v>0</v>
@@ -8302,17 +8440,17 @@
       <c r="A234" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>136</v>
+      <c r="B234" t="s">
+        <v>98</v>
       </c>
       <c r="C234" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D234" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="E234">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
@@ -8328,17 +8466,17 @@
       <c r="A235" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>136</v>
+      <c r="B235" t="s">
+        <v>98</v>
       </c>
       <c r="C235" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D235" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E235">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F235" t="b">
         <v>0</v>
@@ -8354,17 +8492,17 @@
       <c r="A236" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>136</v>
+      <c r="B236" t="s">
+        <v>98</v>
       </c>
       <c r="C236" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D236" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E236">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F236" t="b">
         <v>0</v>
@@ -8380,17 +8518,17 @@
       <c r="A237" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>136</v>
+      <c r="B237" t="s">
+        <v>98</v>
       </c>
       <c r="C237" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D237" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E237">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
@@ -8406,14 +8544,14 @@
       <c r="A238" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>136</v>
+      <c r="B238" t="s">
+        <v>98</v>
       </c>
       <c r="C238" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D238" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E238">
         <v>10</v>
@@ -8432,14 +8570,14 @@
       <c r="A239" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>136</v>
+      <c r="B239" t="s">
+        <v>98</v>
       </c>
       <c r="C239" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D239" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E239">
         <v>10</v>
@@ -8458,17 +8596,17 @@
       <c r="A240" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>136</v>
+      <c r="B240" t="s">
+        <v>98</v>
       </c>
       <c r="C240" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D240" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="E240">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F240" t="b">
         <v>0</v>
@@ -8484,17 +8622,17 @@
       <c r="A241" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>136</v>
+      <c r="B241" t="s">
+        <v>98</v>
       </c>
       <c r="C241" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D241" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="E241">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F241" t="b">
         <v>0</v>
@@ -8503,50 +8641,50 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>136</v>
+      <c r="B242" t="s">
+        <v>98</v>
       </c>
       <c r="C242" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D242" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E242">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F242" t="b">
         <v>0</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>136</v>
+      <c r="B243" t="s">
+        <v>98</v>
       </c>
       <c r="C243" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D243" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E243">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F243" t="b">
         <v>0</v>
@@ -8555,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -8566,10 +8704,10 @@
         <v>136</v>
       </c>
       <c r="C244" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D244" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="E244">
         <v>10</v>
@@ -8592,13 +8730,13 @@
         <v>136</v>
       </c>
       <c r="C245" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D245" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E245">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F245" t="b">
         <v>0</v>
@@ -8618,10 +8756,10 @@
         <v>136</v>
       </c>
       <c r="C246" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D246" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E246">
         <v>5</v>
@@ -8644,13 +8782,13 @@
         <v>136</v>
       </c>
       <c r="C247" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D247" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="E247">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F247" t="b">
         <v>0</v>
@@ -8670,13 +8808,13 @@
         <v>136</v>
       </c>
       <c r="C248" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D248" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E248">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F248" t="b">
         <v>0</v>
@@ -8696,13 +8834,13 @@
         <v>136</v>
       </c>
       <c r="C249" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D249" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="E249">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
@@ -8722,16 +8860,16 @@
         <v>136</v>
       </c>
       <c r="C250" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D250" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="E250">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -8748,13 +8886,13 @@
         <v>136</v>
       </c>
       <c r="C251" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D251" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F251" t="b">
         <v>0</v>
@@ -8774,13 +8912,13 @@
         <v>136</v>
       </c>
       <c r="C252" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D252" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F252" t="b">
         <v>0</v>
@@ -8797,10 +8935,10 @@
         <v>429</v>
       </c>
       <c r="B253" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C253" t="s">
-        <v>463</v>
+        <v>608</v>
       </c>
       <c r="D253" t="s">
         <v>37</v>
@@ -8823,19 +8961,19 @@
         <v>430</v>
       </c>
       <c r="B254" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C254" t="s">
-        <v>463</v>
+        <v>608</v>
       </c>
       <c r="D254" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E254">
         <v>5</v>
       </c>
       <c r="F254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -8848,17 +8986,17 @@
       <c r="A255" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B255" t="s">
-        <v>148</v>
+      <c r="B255" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C255" t="s">
-        <v>463</v>
+        <v>144</v>
       </c>
       <c r="D255" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="E255">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F255" t="b">
         <v>0</v>
@@ -8874,17 +9012,17 @@
       <c r="A256" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B256" t="s">
-        <v>148</v>
+      <c r="B256" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C256" t="s">
-        <v>463</v>
+        <v>144</v>
       </c>
       <c r="D256" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="E256">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F256" t="b">
         <v>0</v>
@@ -8900,17 +9038,17 @@
       <c r="A257" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B257" t="s">
-        <v>148</v>
+      <c r="B257" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C257" t="s">
-        <v>463</v>
+        <v>146</v>
       </c>
       <c r="D257" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E257">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F257" t="b">
         <v>0</v>
@@ -8926,17 +9064,17 @@
       <c r="A258" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B258" t="s">
-        <v>148</v>
+      <c r="B258" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C258" t="s">
-        <v>464</v>
+        <v>146</v>
       </c>
       <c r="D258" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E258">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F258" t="b">
         <v>0</v>
@@ -8953,13 +9091,13 @@
         <v>435</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C259" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D259" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E259">
         <v>5</v>
@@ -8978,17 +9116,17 @@
       <c r="A260" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B260" t="s">
-        <v>148</v>
+      <c r="B260" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C260" t="s">
-        <v>465</v>
+        <v>146</v>
       </c>
       <c r="D260" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E260">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F260" t="b">
         <v>0</v>
@@ -9005,16 +9143,16 @@
         <v>437</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C261" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D261" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E261">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F261" t="b">
         <v>0</v>
@@ -9031,16 +9169,16 @@
         <v>438</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C262" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D262" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E262">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F262" t="b">
         <v>0</v>
@@ -9057,19 +9195,19 @@
         <v>439</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C263" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D263" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E263">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -9083,16 +9221,16 @@
         <v>440</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C264" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D264" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="E264">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F264" t="b">
         <v>0</v>
@@ -9109,16 +9247,16 @@
         <v>441</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C265" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D265" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E265">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F265" t="b">
         <v>0</v>
@@ -9135,16 +9273,16 @@
         <v>442</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C266" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D266" t="s">
-        <v>152</v>
+        <v>641</v>
       </c>
       <c r="E266">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F266" t="b">
         <v>0</v>
@@ -9160,17 +9298,17 @@
       <c r="A267" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>148</v>
+      <c r="B267" t="s">
+        <v>136</v>
       </c>
       <c r="C267" t="s">
-        <v>151</v>
+        <v>610</v>
       </c>
       <c r="D267" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E267">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F267" t="b">
         <v>0</v>
@@ -9186,17 +9324,17 @@
       <c r="A268" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>148</v>
+      <c r="B268" t="s">
+        <v>136</v>
       </c>
       <c r="C268" t="s">
-        <v>151</v>
+        <v>610</v>
       </c>
       <c r="D268" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="E268">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F268" t="b">
         <v>0</v>
@@ -9213,16 +9351,16 @@
         <v>445</v>
       </c>
       <c r="B269" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C269" t="s">
-        <v>466</v>
+        <v>612</v>
       </c>
       <c r="D269" t="s">
-        <v>37</v>
+        <v>600</v>
       </c>
       <c r="E269">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F269" t="b">
         <v>0</v>
@@ -9238,17 +9376,17 @@
       <c r="A270" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>148</v>
+      <c r="B270" t="s">
+        <v>136</v>
       </c>
       <c r="C270" t="s">
-        <v>153</v>
+        <v>612</v>
       </c>
       <c r="D270" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="E270">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F270" t="b">
         <v>0</v>
@@ -9264,17 +9402,17 @@
       <c r="A271" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>148</v>
+      <c r="B271" t="s">
+        <v>136</v>
       </c>
       <c r="C271" t="s">
-        <v>153</v>
+        <v>612</v>
       </c>
       <c r="D271" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E271">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F271" t="b">
         <v>0</v>
@@ -9290,11 +9428,11 @@
       <c r="A272" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" t="s">
         <v>148</v>
       </c>
       <c r="C272" t="s">
-        <v>155</v>
+        <v>463</v>
       </c>
       <c r="D272" t="s">
         <v>37</v>
@@ -9316,20 +9454,20 @@
       <c r="A273" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" t="s">
         <v>148</v>
       </c>
       <c r="C273" t="s">
-        <v>155</v>
+        <v>463</v>
       </c>
       <c r="D273" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E273">
         <v>5</v>
       </c>
       <c r="F273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -9346,13 +9484,13 @@
         <v>148</v>
       </c>
       <c r="C274" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D274" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E274">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F274" t="b">
         <v>0</v>
@@ -9368,14 +9506,14 @@
       <c r="A275" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" t="s">
         <v>148</v>
       </c>
       <c r="C275" t="s">
-        <v>156</v>
+        <v>463</v>
       </c>
       <c r="D275" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E275">
         <v>5</v>
@@ -9394,14 +9532,14 @@
       <c r="A276" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" t="s">
         <v>148</v>
       </c>
       <c r="C276" t="s">
-        <v>156</v>
+        <v>463</v>
       </c>
       <c r="D276" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="E276">
         <v>5</v>
@@ -9420,17 +9558,17 @@
       <c r="A277" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" t="s">
         <v>148</v>
       </c>
       <c r="C277" t="s">
-        <v>156</v>
+        <v>464</v>
       </c>
       <c r="D277" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E277">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F277" t="b">
         <v>0</v>
@@ -9450,13 +9588,13 @@
         <v>148</v>
       </c>
       <c r="C278" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D278" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="E278">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F278" t="b">
         <v>0</v>
@@ -9472,17 +9610,17 @@
       <c r="A279" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" t="s">
         <v>148</v>
       </c>
       <c r="C279" t="s">
-        <v>158</v>
+        <v>465</v>
       </c>
       <c r="D279" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E279">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F279" t="b">
         <v>0</v>
@@ -9502,13 +9640,13 @@
         <v>148</v>
       </c>
       <c r="C280" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D280" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="E280">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F280" t="b">
         <v>0</v>
@@ -9528,13 +9666,13 @@
         <v>148</v>
       </c>
       <c r="C281" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D281" t="s">
-        <v>525</v>
+        <v>37</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F281" t="b">
         <v>0</v>
@@ -9550,14 +9688,14 @@
       <c r="A282" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C282" t="s">
-        <v>479</v>
+        <v>150</v>
       </c>
       <c r="D282" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E282">
         <v>5</v>
@@ -9580,13 +9718,13 @@
         <v>148</v>
       </c>
       <c r="C283" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D283" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="E283">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F283" t="b">
         <v>0</v>
@@ -9606,13 +9744,13 @@
         <v>148</v>
       </c>
       <c r="C284" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D284" t="s">
         <v>37</v>
       </c>
       <c r="E284">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F284" t="b">
         <v>0</v>
@@ -9632,13 +9770,13 @@
         <v>148</v>
       </c>
       <c r="C285" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D285" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="E285">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F285" t="b">
         <v>0</v>
@@ -9658,13 +9796,13 @@
         <v>148</v>
       </c>
       <c r="C286" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D286" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E286">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F286" t="b">
         <v>0</v>
@@ -9684,13 +9822,13 @@
         <v>148</v>
       </c>
       <c r="C287" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D287" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="E287">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F287" t="b">
         <v>0</v>
@@ -9706,17 +9844,17 @@
       <c r="A288" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" t="s">
         <v>148</v>
       </c>
       <c r="C288" t="s">
-        <v>160</v>
+        <v>466</v>
       </c>
       <c r="D288" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E288">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F288" t="b">
         <v>0</v>
@@ -9736,13 +9874,13 @@
         <v>148</v>
       </c>
       <c r="C289" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D289" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="E289">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F289" t="b">
         <v>0</v>
@@ -9758,11 +9896,11 @@
       <c r="A290" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C290" t="s">
-        <v>483</v>
+        <v>153</v>
       </c>
       <c r="D290" t="s">
         <v>37</v>
@@ -9784,17 +9922,17 @@
       <c r="A291" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C291" t="s">
-        <v>483</v>
+        <v>155</v>
       </c>
       <c r="D291" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E291">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F291" t="b">
         <v>0</v>
@@ -9810,14 +9948,14 @@
       <c r="A292" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C292" t="s">
-        <v>483</v>
+        <v>155</v>
       </c>
       <c r="D292" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="E292">
         <v>5</v>
@@ -9836,17 +9974,17 @@
       <c r="A293" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" t="s">
         <v>148</v>
       </c>
       <c r="C293" t="s">
-        <v>161</v>
+        <v>474</v>
       </c>
       <c r="D293" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E293">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F293" t="b">
         <v>0</v>
@@ -9866,13 +10004,13 @@
         <v>148</v>
       </c>
       <c r="C294" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D294" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="E294">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F294" t="b">
         <v>0</v>
@@ -9892,13 +10030,13 @@
         <v>148</v>
       </c>
       <c r="C295" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D295" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E295">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F295" t="b">
         <v>0</v>
@@ -9918,13 +10056,13 @@
         <v>148</v>
       </c>
       <c r="C296" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D296" t="s">
         <v>6</v>
       </c>
       <c r="E296">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F296" t="b">
         <v>0</v>
@@ -9944,13 +10082,13 @@
         <v>148</v>
       </c>
       <c r="C297" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D297" t="s">
-        <v>526</v>
+        <v>17</v>
       </c>
       <c r="E297">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F297" t="b">
         <v>0</v>
@@ -9970,16 +10108,16 @@
         <v>148</v>
       </c>
       <c r="C298" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D298" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -9992,17 +10130,17 @@
       <c r="A299" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B299" t="s">
-        <v>567</v>
+      <c r="B299" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C299" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="D299" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E299">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F299" t="b">
         <v>0</v>
@@ -10018,17 +10156,17 @@
       <c r="A300" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B300" t="s">
-        <v>567</v>
+      <c r="B300" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C300" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="D300" t="s">
-        <v>23</v>
+        <v>525</v>
       </c>
       <c r="E300">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F300" t="b">
         <v>0</v>
@@ -10045,13 +10183,13 @@
         <v>505</v>
       </c>
       <c r="B301" t="s">
-        <v>567</v>
+        <v>148</v>
       </c>
       <c r="C301" t="s">
-        <v>22</v>
+        <v>479</v>
       </c>
       <c r="D301" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E301">
         <v>5</v>
@@ -10070,17 +10208,17 @@
       <c r="A302" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B302" t="s">
-        <v>567</v>
+      <c r="B302" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C302" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="D302" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E302">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F302" t="b">
         <v>0</v>
@@ -10096,17 +10234,17 @@
       <c r="A303" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B303" t="s">
-        <v>567</v>
+      <c r="B303" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C303" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D303" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E303">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F303" t="b">
         <v>0</v>
@@ -10122,17 +10260,17 @@
       <c r="A304" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B304" t="s">
-        <v>567</v>
+      <c r="B304" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C304" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="D304" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="E304">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F304" t="b">
         <v>0</v>
@@ -10148,14 +10286,14 @@
       <c r="A305" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B305" t="s">
-        <v>567</v>
+      <c r="B305" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C305" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="D305" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E305">
         <v>15</v>
@@ -10174,17 +10312,17 @@
       <c r="A306" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B306" t="s">
-        <v>567</v>
+      <c r="B306" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C306" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="D306" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E306">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F306" t="b">
         <v>0</v>
@@ -10200,17 +10338,17 @@
       <c r="A307" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B307" t="s">
-        <v>567</v>
+      <c r="B307" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C307" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="D307" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E307">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F307" t="b">
         <v>0</v>
@@ -10226,17 +10364,17 @@
       <c r="A308" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B308" t="s">
-        <v>567</v>
+      <c r="B308" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C308" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="D308" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E308">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F308" t="b">
         <v>0</v>
@@ -10253,16 +10391,16 @@
         <v>513</v>
       </c>
       <c r="B309" t="s">
-        <v>567</v>
+        <v>148</v>
       </c>
       <c r="C309" t="s">
-        <v>30</v>
+        <v>483</v>
       </c>
       <c r="D309" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E309">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F309" t="b">
         <v>0</v>
@@ -10279,16 +10417,16 @@
         <v>514</v>
       </c>
       <c r="B310" t="s">
-        <v>567</v>
+        <v>148</v>
       </c>
       <c r="C310" t="s">
-        <v>30</v>
+        <v>483</v>
       </c>
       <c r="D310" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E310">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F310" t="b">
         <v>0</v>
@@ -10305,16 +10443,16 @@
         <v>515</v>
       </c>
       <c r="B311" t="s">
-        <v>567</v>
+        <v>148</v>
       </c>
       <c r="C311" t="s">
-        <v>30</v>
+        <v>483</v>
       </c>
       <c r="D311" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="E311">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F311" t="b">
         <v>0</v>
@@ -10330,20 +10468,20 @@
       <c r="A312" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B312" t="s">
-        <v>567</v>
+      <c r="B312" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C312" t="s">
+        <v>161</v>
+      </c>
+      <c r="D312" t="s">
+        <v>17</v>
+      </c>
+      <c r="E312">
         <v>30</v>
       </c>
-      <c r="D312" t="s">
-        <v>24</v>
-      </c>
-      <c r="E312">
-        <v>1</v>
-      </c>
       <c r="F312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -10356,17 +10494,17 @@
       <c r="A313" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B313" t="s">
-        <v>567</v>
+      <c r="B313" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C313" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="D313" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="E313">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F313" t="b">
         <v>0</v>
@@ -10382,17 +10520,17 @@
       <c r="A314" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B314" t="s">
-        <v>567</v>
+      <c r="B314" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C314" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="D314" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E314">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F314" t="b">
         <v>0</v>
@@ -10408,17 +10546,17 @@
       <c r="A315" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B315" t="s">
-        <v>567</v>
+      <c r="B315" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C315" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="D315" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E315">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F315" t="b">
         <v>0</v>
@@ -10434,17 +10572,17 @@
       <c r="A316" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B316" t="s">
-        <v>567</v>
+      <c r="B316" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C316" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="D316" t="s">
-        <v>37</v>
+        <v>526</v>
       </c>
       <c r="E316">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F316" t="b">
         <v>0</v>
@@ -10460,20 +10598,20 @@
       <c r="A317" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B317" t="s">
-        <v>172</v>
+      <c r="B317" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="C317" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D317" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="E317">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G317">
         <v>0</v>
@@ -10487,16 +10625,16 @@
         <v>522</v>
       </c>
       <c r="B318" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C318" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="D318" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E318">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F318" t="b">
         <v>0</v>
@@ -10513,16 +10651,16 @@
         <v>523</v>
       </c>
       <c r="B319" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C319" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="D319" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="E319">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F319" t="b">
         <v>0</v>
@@ -10539,10 +10677,10 @@
         <v>524</v>
       </c>
       <c r="B320" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C320" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="D320" t="s">
         <v>24</v>
@@ -10565,13 +10703,13 @@
         <v>527</v>
       </c>
       <c r="B321" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C321" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="D321" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E321">
         <v>5</v>
@@ -10591,16 +10729,16 @@
         <v>528</v>
       </c>
       <c r="B322" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C322" t="s">
-        <v>462</v>
+        <v>25</v>
       </c>
       <c r="D322" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E322">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F322" t="b">
         <v>0</v>
@@ -10617,16 +10755,16 @@
         <v>541</v>
       </c>
       <c r="B323" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C323" t="s">
-        <v>462</v>
+        <v>26</v>
       </c>
       <c r="D323" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E323">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F323" t="b">
         <v>0</v>
@@ -10643,16 +10781,16 @@
         <v>542</v>
       </c>
       <c r="B324" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C324" t="s">
-        <v>462</v>
+        <v>26</v>
       </c>
       <c r="D324" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E324">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F324" t="b">
         <v>0</v>
@@ -10669,16 +10807,16 @@
         <v>543</v>
       </c>
       <c r="B325" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C325" t="s">
-        <v>467</v>
+        <v>26</v>
       </c>
       <c r="D325" t="s">
-        <v>468</v>
+        <v>28</v>
       </c>
       <c r="E325">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F325" t="b">
         <v>0</v>
@@ -10695,16 +10833,16 @@
         <v>544</v>
       </c>
       <c r="B326" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C326" t="s">
-        <v>467</v>
+        <v>29</v>
       </c>
       <c r="D326" t="s">
-        <v>469</v>
+        <v>21</v>
       </c>
       <c r="E326">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F326" t="b">
         <v>0</v>
@@ -10721,16 +10859,16 @@
         <v>545</v>
       </c>
       <c r="B327" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C327" t="s">
-        <v>467</v>
+        <v>30</v>
       </c>
       <c r="D327" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E327">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F327" t="b">
         <v>0</v>
@@ -10747,16 +10885,16 @@
         <v>546</v>
       </c>
       <c r="B328" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C328" t="s">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="D328" t="s">
-        <v>471</v>
+        <v>28</v>
       </c>
       <c r="E328">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F328" t="b">
         <v>0</v>
@@ -10773,16 +10911,16 @@
         <v>547</v>
       </c>
       <c r="B329" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C329" t="s">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="D329" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E329">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F329" t="b">
         <v>0</v>
@@ -10799,16 +10937,16 @@
         <v>548</v>
       </c>
       <c r="B330" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C330" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="D330" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E330">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F330" t="b">
         <v>0</v>
@@ -10825,19 +10963,19 @@
         <v>549</v>
       </c>
       <c r="B331" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C331" t="s">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="D331" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E331">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G331">
         <v>0</v>
@@ -10851,16 +10989,16 @@
         <v>550</v>
       </c>
       <c r="B332" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C332" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="D332" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E332">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F332" t="b">
         <v>0</v>
@@ -10877,16 +11015,16 @@
         <v>551</v>
       </c>
       <c r="B333" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C333" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="D333" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E333">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F333" t="b">
         <v>0</v>
@@ -10903,16 +11041,16 @@
         <v>552</v>
       </c>
       <c r="B334" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C334" t="s">
-        <v>476</v>
+        <v>105</v>
       </c>
       <c r="D334" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E334">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F334" t="b">
         <v>0</v>
@@ -10929,16 +11067,16 @@
         <v>553</v>
       </c>
       <c r="B335" t="s">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="C335" t="s">
-        <v>478</v>
+        <v>105</v>
       </c>
       <c r="D335" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E335">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F335" t="b">
         <v>0</v>
@@ -10958,13 +11096,13 @@
         <v>172</v>
       </c>
       <c r="C336" t="s">
-        <v>480</v>
+        <v>173</v>
       </c>
       <c r="D336" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="E336">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F336" t="b">
         <v>0</v>
@@ -10981,16 +11119,16 @@
         <v>555</v>
       </c>
       <c r="B337" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C337" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="D337" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E337">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F337" t="b">
         <v>0</v>
@@ -11007,16 +11145,16 @@
         <v>556</v>
       </c>
       <c r="B338" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C338" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="D338" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="E338">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F338" t="b">
         <v>0</v>
@@ -11033,16 +11171,16 @@
         <v>557</v>
       </c>
       <c r="B339" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C339" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="D339" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E339">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F339" t="b">
         <v>0</v>
@@ -11059,16 +11197,16 @@
         <v>558</v>
       </c>
       <c r="B340" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C340" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="D340" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E340">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F340" t="b">
         <v>0</v>
@@ -11085,16 +11223,16 @@
         <v>559</v>
       </c>
       <c r="B341" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C341" t="s">
-        <v>34</v>
+        <v>462</v>
       </c>
       <c r="D341" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E341">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F341" t="b">
         <v>0</v>
@@ -11111,13 +11249,13 @@
         <v>560</v>
       </c>
       <c r="B342" t="s">
-        <v>568</v>
+        <v>172</v>
       </c>
       <c r="C342" t="s">
-        <v>34</v>
+        <v>462</v>
       </c>
       <c r="D342" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E342">
         <v>5</v>
@@ -11137,13 +11275,13 @@
         <v>561</v>
       </c>
       <c r="B343" t="s">
-        <v>571</v>
+        <v>172</v>
       </c>
       <c r="C343" t="s">
-        <v>173</v>
+        <v>462</v>
       </c>
       <c r="D343" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E343">
         <v>5</v>
@@ -11163,16 +11301,16 @@
         <v>564</v>
       </c>
       <c r="B344" t="s">
-        <v>571</v>
+        <v>172</v>
       </c>
       <c r="C344" t="s">
-        <v>173</v>
+        <v>467</v>
       </c>
       <c r="D344" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="E344">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F344" t="b">
         <v>0</v>
@@ -11189,13 +11327,13 @@
         <v>573</v>
       </c>
       <c r="B345" t="s">
-        <v>571</v>
+        <v>172</v>
       </c>
       <c r="C345" t="s">
-        <v>176</v>
+        <v>467</v>
       </c>
       <c r="D345" t="s">
-        <v>65</v>
+        <v>469</v>
       </c>
       <c r="E345">
         <v>5</v>
@@ -11215,13 +11353,13 @@
         <v>574</v>
       </c>
       <c r="B346" t="s">
-        <v>571</v>
+        <v>172</v>
       </c>
       <c r="C346" t="s">
-        <v>175</v>
+        <v>467</v>
       </c>
       <c r="D346" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="E346">
         <v>5</v>
@@ -11241,16 +11379,16 @@
         <v>575</v>
       </c>
       <c r="B347" t="s">
-        <v>571</v>
+        <v>172</v>
       </c>
       <c r="C347" t="s">
-        <v>175</v>
+        <v>470</v>
       </c>
       <c r="D347" t="s">
-        <v>65</v>
+        <v>471</v>
       </c>
       <c r="E347">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F347" t="b">
         <v>0</v>
@@ -11267,16 +11405,16 @@
         <v>576</v>
       </c>
       <c r="B348" t="s">
-        <v>571</v>
+        <v>172</v>
       </c>
       <c r="C348" t="s">
-        <v>4</v>
+        <v>470</v>
       </c>
       <c r="D348" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E348">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F348" t="b">
         <v>0</v>
@@ -11293,16 +11431,16 @@
         <v>577</v>
       </c>
       <c r="B349" t="s">
-        <v>571</v>
+        <v>172</v>
       </c>
       <c r="C349" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="D349" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="E349">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F349" t="b">
         <v>0</v>
@@ -11319,16 +11457,16 @@
         <v>578</v>
       </c>
       <c r="B350" t="s">
-        <v>571</v>
+        <v>172</v>
       </c>
       <c r="C350" t="s">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="D350" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E350">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F350" t="b">
         <v>0</v>
@@ -11344,17 +11482,17 @@
       <c r="A351" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B351" s="2" t="s">
-        <v>570</v>
+      <c r="B351" t="s">
+        <v>172</v>
       </c>
       <c r="C351" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D351" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="E351">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F351" t="b">
         <v>0</v>
@@ -11370,14 +11508,14 @@
       <c r="A352" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B352" s="2" t="s">
-        <v>570</v>
+      <c r="B352" t="s">
+        <v>172</v>
       </c>
       <c r="C352" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D352" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="E352">
         <v>5</v>
@@ -11396,17 +11534,17 @@
       <c r="A353" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B353" s="2" t="s">
-        <v>570</v>
+      <c r="B353" t="s">
+        <v>172</v>
       </c>
       <c r="C353" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
       <c r="D353" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E353">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F353" t="b">
         <v>0</v>
@@ -11422,14 +11560,14 @@
       <c r="A354" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B354" s="2" t="s">
-        <v>570</v>
+      <c r="B354" t="s">
+        <v>172</v>
       </c>
       <c r="C354" t="s">
-        <v>164</v>
+        <v>478</v>
       </c>
       <c r="D354" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="E354">
         <v>5</v>
@@ -11448,14 +11586,14 @@
       <c r="A355" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B355" s="2" t="s">
-        <v>570</v>
+      <c r="B355" t="s">
+        <v>172</v>
       </c>
       <c r="C355" t="s">
-        <v>164</v>
+        <v>480</v>
       </c>
       <c r="D355" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="E355">
         <v>5</v>
@@ -11474,14 +11612,14 @@
       <c r="A356" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>570</v>
+      <c r="B356" t="s">
+        <v>568</v>
       </c>
       <c r="C356" t="s">
-        <v>166</v>
+        <v>597</v>
       </c>
       <c r="D356" t="s">
-        <v>5</v>
+        <v>598</v>
       </c>
       <c r="E356">
         <v>25</v>
@@ -11500,20 +11638,20 @@
       <c r="A357" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>570</v>
+      <c r="B357" t="s">
+        <v>568</v>
       </c>
       <c r="C357" t="s">
-        <v>166</v>
+        <v>599</v>
       </c>
       <c r="D357" t="s">
-        <v>163</v>
+        <v>600</v>
       </c>
       <c r="E357">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G357">
         <v>0</v>
@@ -11526,17 +11664,17 @@
       <c r="A358" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>570</v>
+      <c r="B358" t="s">
+        <v>568</v>
       </c>
       <c r="C358" t="s">
-        <v>166</v>
+        <v>599</v>
       </c>
       <c r="D358" t="s">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="E358">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F358" t="b">
         <v>0</v>
@@ -11552,17 +11690,17 @@
       <c r="A359" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>570</v>
+      <c r="B359" t="s">
+        <v>568</v>
       </c>
       <c r="C359" t="s">
-        <v>167</v>
+        <v>599</v>
       </c>
       <c r="D359" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E359">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F359" t="b">
         <v>0</v>
@@ -11578,17 +11716,17 @@
       <c r="A360" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>570</v>
+      <c r="B360" t="s">
+        <v>568</v>
       </c>
       <c r="C360" t="s">
-        <v>167</v>
+        <v>601</v>
       </c>
       <c r="D360" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E360">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F360" t="b">
         <v>0</v>
@@ -11604,20 +11742,20 @@
       <c r="A361" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>570</v>
+      <c r="B361" t="s">
+        <v>568</v>
       </c>
       <c r="C361" t="s">
-        <v>167</v>
+        <v>601</v>
       </c>
       <c r="D361" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="E361">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G361">
         <v>0</v>
@@ -11630,17 +11768,17 @@
       <c r="A362" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B362" s="2" t="s">
-        <v>570</v>
+      <c r="B362" t="s">
+        <v>568</v>
       </c>
       <c r="C362" t="s">
-        <v>167</v>
+        <v>607</v>
       </c>
       <c r="D362" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E362">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F362" t="b">
         <v>0</v>
@@ -11656,17 +11794,17 @@
       <c r="A363" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B363" s="2" t="s">
-        <v>570</v>
+      <c r="B363" t="s">
+        <v>568</v>
       </c>
       <c r="C363" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D363" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E363">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F363" t="b">
         <v>0</v>
@@ -11682,17 +11820,17 @@
       <c r="A364" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B364" s="2" t="s">
-        <v>570</v>
+      <c r="B364" t="s">
+        <v>568</v>
       </c>
       <c r="C364" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D364" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="E364">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F364" t="b">
         <v>0</v>
@@ -11708,17 +11846,17 @@
       <c r="A365" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B365" s="2" t="s">
-        <v>570</v>
+      <c r="B365" t="s">
+        <v>568</v>
       </c>
       <c r="C365" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="D365" t="s">
         <v>21</v>
       </c>
       <c r="E365">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F365" t="b">
         <v>0</v>
@@ -11734,17 +11872,17 @@
       <c r="A366" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B366" s="2" t="s">
-        <v>570</v>
+      <c r="B366" t="s">
+        <v>568</v>
       </c>
       <c r="C366" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="D366" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="E366">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F366" t="b">
         <v>0</v>
@@ -11760,20 +11898,20 @@
       <c r="A367" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>570</v>
+      <c r="B367" t="s">
+        <v>568</v>
       </c>
       <c r="C367" t="s">
-        <v>170</v>
+        <v>611</v>
       </c>
       <c r="D367" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G367">
         <v>0</v>
@@ -11786,34 +11924,736 @@
       <c r="A368" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" t="s">
+        <v>568</v>
+      </c>
+      <c r="C368" t="s">
+        <v>34</v>
+      </c>
+      <c r="D368" t="s">
+        <v>21</v>
+      </c>
+      <c r="E368">
+        <v>15</v>
+      </c>
+      <c r="F368" t="b">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B369" t="s">
+        <v>568</v>
+      </c>
+      <c r="C369" t="s">
+        <v>34</v>
+      </c>
+      <c r="D369" t="s">
+        <v>33</v>
+      </c>
+      <c r="E369">
+        <v>5</v>
+      </c>
+      <c r="F369" t="b">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B370" t="s">
+        <v>571</v>
+      </c>
+      <c r="C370" t="s">
+        <v>173</v>
+      </c>
+      <c r="D370" t="s">
+        <v>65</v>
+      </c>
+      <c r="E370">
+        <v>5</v>
+      </c>
+      <c r="F370" t="b">
+        <v>0</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B371" t="s">
+        <v>571</v>
+      </c>
+      <c r="C371" t="s">
+        <v>173</v>
+      </c>
+      <c r="D371" t="s">
+        <v>455</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371" t="b">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B372" t="s">
+        <v>571</v>
+      </c>
+      <c r="C372" t="s">
+        <v>176</v>
+      </c>
+      <c r="D372" t="s">
+        <v>65</v>
+      </c>
+      <c r="E372">
+        <v>5</v>
+      </c>
+      <c r="F372" t="b">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B373" t="s">
+        <v>571</v>
+      </c>
+      <c r="C373" t="s">
+        <v>175</v>
+      </c>
+      <c r="D373" t="s">
+        <v>152</v>
+      </c>
+      <c r="E373">
+        <v>5</v>
+      </c>
+      <c r="F373" t="b">
+        <v>0</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B374" t="s">
+        <v>571</v>
+      </c>
+      <c r="C374" t="s">
+        <v>175</v>
+      </c>
+      <c r="D374" t="s">
+        <v>65</v>
+      </c>
+      <c r="E374">
+        <v>5</v>
+      </c>
+      <c r="F374" t="b">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B375" t="s">
+        <v>571</v>
+      </c>
+      <c r="C375" t="s">
+        <v>4</v>
+      </c>
+      <c r="D375" t="s">
+        <v>5</v>
+      </c>
+      <c r="E375">
+        <v>25</v>
+      </c>
+      <c r="F375" t="b">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B376" t="s">
+        <v>571</v>
+      </c>
+      <c r="C376" t="s">
+        <v>4</v>
+      </c>
+      <c r="D376" t="s">
+        <v>6</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376" t="b">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B377" t="s">
+        <v>571</v>
+      </c>
+      <c r="C377" t="s">
+        <v>4</v>
+      </c>
+      <c r="D377" t="s">
+        <v>7</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377" t="b">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B378" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C378" t="s">
+        <v>162</v>
+      </c>
+      <c r="D378" t="s">
+        <v>37</v>
+      </c>
+      <c r="E378">
+        <v>10</v>
+      </c>
+      <c r="F378" t="b">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C379" t="s">
+        <v>162</v>
+      </c>
+      <c r="D379" t="s">
+        <v>163</v>
+      </c>
+      <c r="E379">
+        <v>5</v>
+      </c>
+      <c r="F379" t="b">
+        <v>0</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C380" t="s">
+        <v>164</v>
+      </c>
+      <c r="D380" t="s">
+        <v>37</v>
+      </c>
+      <c r="E380">
+        <v>15</v>
+      </c>
+      <c r="F380" t="b">
+        <v>0</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C381" t="s">
+        <v>164</v>
+      </c>
+      <c r="D381" t="s">
+        <v>163</v>
+      </c>
+      <c r="E381">
+        <v>5</v>
+      </c>
+      <c r="F381" t="b">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+      <c r="H381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C382" t="s">
+        <v>164</v>
+      </c>
+      <c r="D382" t="s">
+        <v>165</v>
+      </c>
+      <c r="E382">
+        <v>5</v>
+      </c>
+      <c r="F382" t="b">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C383" t="s">
+        <v>166</v>
+      </c>
+      <c r="D383" t="s">
+        <v>5</v>
+      </c>
+      <c r="E383">
+        <v>25</v>
+      </c>
+      <c r="F383" t="b">
+        <v>0</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C384" t="s">
+        <v>166</v>
+      </c>
+      <c r="D384" t="s">
+        <v>163</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="F384" t="b">
+        <v>1</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C385" t="s">
+        <v>166</v>
+      </c>
+      <c r="D385" t="s">
+        <v>165</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385" t="b">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C386" t="s">
+        <v>167</v>
+      </c>
+      <c r="D386" t="s">
+        <v>17</v>
+      </c>
+      <c r="E386">
+        <v>30</v>
+      </c>
+      <c r="F386" t="b">
+        <v>0</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C387" t="s">
+        <v>167</v>
+      </c>
+      <c r="D387" t="s">
+        <v>5</v>
+      </c>
+      <c r="E387">
+        <v>25</v>
+      </c>
+      <c r="F387" t="b">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C388" t="s">
+        <v>167</v>
+      </c>
+      <c r="D388" t="s">
+        <v>163</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388" t="b">
+        <v>1</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C389" t="s">
+        <v>167</v>
+      </c>
+      <c r="D389" t="s">
+        <v>7</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389" t="b">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C390" t="s">
+        <v>168</v>
+      </c>
+      <c r="D390" t="s">
+        <v>37</v>
+      </c>
+      <c r="E390">
+        <v>10</v>
+      </c>
+      <c r="F390" t="b">
+        <v>0</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C391" t="s">
+        <v>168</v>
+      </c>
+      <c r="D391" t="s">
+        <v>163</v>
+      </c>
+      <c r="E391">
+        <v>5</v>
+      </c>
+      <c r="F391" t="b">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C392" t="s">
+        <v>169</v>
+      </c>
+      <c r="D392" t="s">
+        <v>21</v>
+      </c>
+      <c r="E392">
+        <v>15</v>
+      </c>
+      <c r="F392" t="b">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C393" t="s">
+        <v>169</v>
+      </c>
+      <c r="D393" t="s">
+        <v>163</v>
+      </c>
+      <c r="E393">
+        <v>5</v>
+      </c>
+      <c r="F393" t="b">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C394" t="s">
         <v>170</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D394" t="s">
+        <v>163</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394" t="b">
+        <v>1</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+      <c r="H394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C395" t="s">
+        <v>170</v>
+      </c>
+      <c r="D395" t="s">
         <v>171</v>
       </c>
-      <c r="E368">
-        <v>0</v>
-      </c>
-      <c r="F368" t="b">
-        <v>0</v>
-      </c>
-      <c r="G368">
-        <v>0</v>
-      </c>
-      <c r="H368">
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395" t="b">
+        <v>0</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+      <c r="H395">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H364" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H368">
-    <sortCondition ref="B2:B368"/>
-    <sortCondition ref="C2:C368"/>
-    <sortCondition descending="1" ref="E2:E368"/>
+  <autoFilter ref="A1:H365" xr:uid="{301D72E7-4EC7-4027-A18B-32FBE399A765}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H395">
+    <sortCondition ref="B2:B395"/>
+    <sortCondition ref="C2:C395"/>
+    <sortCondition descending="1" ref="E2:E395"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
